--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1032507552225201</v>
+        <v>0.1046831200218389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02206603101347767</v>
+        <v>0.01203085157690504</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02553171978363608</v>
+        <v>0.04583309086899807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05034587635445336</v>
+        <v>0.02912872463963667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00973879516455506</v>
+        <v>0.005070255925731276</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06421546232794685</v>
+        <v>0.06779116377245996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01876142548945711</v>
+        <v>0.001671016570504233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01805740645776167</v>
+        <v>0.007898074545967148</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003936703324665076</v>
+        <v>0.007165425791496709</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01399510503651822</v>
+        <v>0.03158230707528427</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01071619617371772</v>
+        <v>0.01112131298272529</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05114098999584361</v>
+        <v>0.01198882340640646</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05834872067553649</v>
+        <v>0.03505257845399678</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01496812026846812</v>
+        <v>0.04024989014782438</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006019231424456867</v>
+        <v>0.07515606253991591</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04618209823322801</v>
+        <v>0.01636724953530168</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01328726731077076</v>
+        <v>0.02351512503383772</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06600096290266169</v>
+        <v>0.07478918983393192</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06649855866901978</v>
+        <v>0.04065829634412384</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0497086665475018</v>
+        <v>0.04762347664658093</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006041040048851635</v>
+        <v>0.0218632071474245</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06286374795659316</v>
+        <v>0.04487599222028736</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06622533506649944</v>
+        <v>0.07532033180168139</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01823379297009894</v>
+        <v>0.05899806843137037</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03383810226088444</v>
+        <v>0.0324665021471242</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0387497333987097</v>
+        <v>0.07344872587156331</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03590601013013036</v>
+        <v>0.06258466598331312</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0669070999257238</v>
+        <v>0.03627900915677357</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06171580108883254</v>
+        <v>0.009470581548833871</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06389896953004803</v>
+        <v>0.06603978468115329</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1222812144179728</v>
+        <v>0.1191800939717156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005943090864915324</v>
+        <v>0.002168874727569395</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01831351629154451</v>
+        <v>0.01046203933482156</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007232373237131075</v>
+        <v>0.07374508980257723</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03490786278019285</v>
+        <v>0.003458964482730365</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01320942664183973</v>
+        <v>0.006936130308045166</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008693278442786721</v>
+        <v>0.02617725934862522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06089726742666973</v>
+        <v>0.05374651796100439</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005698856457723687</v>
+        <v>0.02136937558430996</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07261896681459197</v>
+        <v>0.04782336334612558</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02459953174494844</v>
+        <v>0.01633276863150591</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05117502913303397</v>
+        <v>0.009722517680905388</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03209870010329242</v>
+        <v>0.07344988737414342</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02479244724296561</v>
+        <v>0.01004925118987997</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004465180627916785</v>
+        <v>0.01741471330055054</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02883464493590029</v>
+        <v>0.036045707489687</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06136242119740621</v>
+        <v>0.06554994406820969</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06454176217264233</v>
+        <v>0.0211312440308825</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06306123480323196</v>
+        <v>0.08133707864417171</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0691078383830965</v>
+        <v>0.02559209363954843</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03339749621316108</v>
+        <v>0.03322852166213559</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05695468081620302</v>
+        <v>0.03167935346442936</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06441274928128125</v>
+        <v>0.03132255585244504</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.06810628018667106</v>
+        <v>0.08205984997316035</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03407990565174097</v>
+        <v>0.07300287425103594</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02357770505265538</v>
+        <v>0.0770455003361343</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05348242068129611</v>
+        <v>0.06533831542332347</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002639150641986415</v>
+        <v>8.289528573685479e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01179618217317462</v>
+        <v>0.003727312806305668</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05182321847001122</v>
+        <v>0.05325878423939615</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1176380644763365</v>
+        <v>0.1184803066795852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02015577438629897</v>
+        <v>0.03302174414080046</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04350008810882264</v>
+        <v>0.002241851013821426</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009522612575687265</v>
+        <v>0.008510473852840528</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0314300252065637</v>
+        <v>0.02524722896660598</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01406321346027212</v>
+        <v>0.0235161951749863</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03124904854343966</v>
+        <v>0.0381957663499297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04111683943002496</v>
+        <v>0.02114940744390263</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003170426174673665</v>
+        <v>0.01099781016315779</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06918521402426697</v>
+        <v>0.0261709520974542</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06088833426550831</v>
+        <v>0.02405664598114957</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0587744711388364</v>
+        <v>0.04006169390009066</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03015705912227507</v>
+        <v>0.01244596169598619</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005748293907470017</v>
+        <v>0.06917428564608387</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07308220480024058</v>
+        <v>0.05302421106509767</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0436239858100572</v>
+        <v>0.05739688649763645</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04063787862995523</v>
+        <v>0.03724791907837137</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0008430610863878294</v>
+        <v>0.0003702851829407165</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01287736652082201</v>
+        <v>0.06405883787712845</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06619229834633161</v>
+        <v>0.05879988832286834</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04894903947441192</v>
+        <v>0.03754702446158819</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04067934971678869</v>
+        <v>0.05135244385301203</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04073563988883148</v>
+        <v>0.05719288471797775</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01437872698837779</v>
+        <v>0.06694816447534642</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03047511186513304</v>
+        <v>0.001079411906681816</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01663708525248955</v>
+        <v>0.0519317936301467</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0533178102871386</v>
+        <v>0.02613536023383148</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.07147041426766816</v>
+        <v>0.05796114949501736</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0271386267212267</v>
+        <v>0.04416372277554615</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.000695667827826756</v>
+        <v>0.05107971399761535</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1393174875940378</v>
+        <v>0.1480239143092792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07346390039557331</v>
+        <v>0.06355323292401203</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03262770473668455</v>
+        <v>0.001152299026996584</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009335688425731471</v>
+        <v>0.05339968989512765</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05707138262862073</v>
+        <v>0.03374070218450091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07030754668833709</v>
+        <v>0.05374732461594965</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07297262034775373</v>
+        <v>0.0507963289199205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08071773159721321</v>
+        <v>0.06387626083666242</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004596059096210867</v>
+        <v>0.01426622035849545</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05222733512484502</v>
+        <v>0.05093008532702094</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07575802742045995</v>
+        <v>0.06742065648863514</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0585036464960904</v>
+        <v>0.004531815469956626</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003357004350172648</v>
+        <v>0.02009367965982457</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04129138606220144</v>
+        <v>0.022336211599171</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005953303626726848</v>
+        <v>0.01745282764703999</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01787866103689375</v>
+        <v>0.06413770763603385</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06737385522337061</v>
+        <v>0.007048545940694882</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000617641103146721</v>
+        <v>0.003414194943264308</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00219468080139049</v>
+        <v>0.008512775618827104</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0310663636954613</v>
+        <v>0.04243250254535744</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06214313529181861</v>
+        <v>0.02719751902656495</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04024477007480579</v>
+        <v>0.06998984930717607</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01638266965902351</v>
+        <v>0.05244717820136475</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.797395294528399e-05</v>
+        <v>0.004766603064288426</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03750430377202903</v>
+        <v>0.02929155379231695</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04536489079751302</v>
+        <v>0.0584805260649199</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.004198685801152368</v>
+        <v>0.06672034403212022</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03214770028386631</v>
+        <v>0.04684325341664488</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.004661331509961956</v>
+        <v>0.001420111457112941</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02694063315651308</v>
+        <v>0.05787459370931597</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1146149203359141</v>
+        <v>0.1151836719965478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009349433693064067</v>
+        <v>0.01609195309708167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04949519577405211</v>
+        <v>0.06967553008345707</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01719964884268006</v>
+        <v>0.006691495413949517</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005611434197555401</v>
+        <v>0.05833108702447063</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04849503067517318</v>
+        <v>0.02214653052924821</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002534302598811552</v>
+        <v>0.0003645005606530756</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01482882203120479</v>
+        <v>0.05827838601610743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05237854096414285</v>
+        <v>0.03774639204596661</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04651498057494598</v>
+        <v>0.04592921010104865</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005238304875526697</v>
+        <v>0.00256420426373094</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02539571965852444</v>
+        <v>0.001227711023897271</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0394620824667247</v>
+        <v>0.07806624911726119</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07405442977170501</v>
+        <v>0.07402685117594188</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03656776316644549</v>
+        <v>0.02056482627261678</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08190785480001087</v>
+        <v>0.06187745895398295</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03589532760870631</v>
+        <v>0.008250609307769828</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003307957578901476</v>
+        <v>0.04392172916395513</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03213612394576306</v>
+        <v>0.01071116765493368</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002813883516360039</v>
+        <v>0.01721120284415271</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0581211848771979</v>
+        <v>0.009594022228735673</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02878949152333748</v>
+        <v>0.02537129996850127</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06308222351146846</v>
+        <v>0.05174709315560058</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05086589155418169</v>
+        <v>0.04927195962340324</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05743920350876149</v>
+        <v>0.03810797090585789</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.007236499762554104</v>
+        <v>0.05840901162227611</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0128956794532254</v>
+        <v>0.03226103604575924</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07061454109701604</v>
+        <v>0.04449602880600008</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06776844797195924</v>
+        <v>0.05706448299364061</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.07721925625060999</v>
+        <v>-0.1193263051722239</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1365549005330913</v>
+        <v>0.1451672210462567</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08835894114224545</v>
+        <v>0.07723443103571356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001279364647677177</v>
+        <v>0.01740702576644086</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0108161456826083</v>
+        <v>0.007044003884566593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02291181928901684</v>
+        <v>0.05338429006837127</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08751331743788837</v>
+        <v>0.01638547781251131</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02588873340660814</v>
+        <v>0.05256600724354828</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003010283803476222</v>
+        <v>0.0277484871257681</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07565945761652705</v>
+        <v>0.06803881840010624</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002489172969033607</v>
+        <v>0.02722026641092409</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00123046384236333</v>
+        <v>0.002852547090834805</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003544617009904695</v>
+        <v>0.01767235899166913</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03632463979540502</v>
+        <v>0.01630034164216806</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05531457994710882</v>
+        <v>0.07980176970053565</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004522562229299767</v>
+        <v>0.05526200950237137</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01389891942407238</v>
+        <v>0.02052431235749077</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01513055966439396</v>
+        <v>0.01435128368263678</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03911763074508014</v>
+        <v>0.07290972266631737</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02909399606264003</v>
+        <v>0.05792988293415116</v>
       </c>
       <c r="X7" t="n">
-        <v>0.07467174523228295</v>
+        <v>0.02919039855315879</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.009115911949221126</v>
+        <v>0.01816676776581734</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0723687351821031</v>
+        <v>0.04075197015102424</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.06399106172276782</v>
+        <v>0.05935526808151668</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08885188228015636</v>
+        <v>0.07995273152178832</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02155401571906944</v>
+        <v>0.02281501948716283</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0328754360037733</v>
+        <v>0.03237240750168339</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.06127488168257686</v>
+        <v>0.02509678798210585</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05817348795243704</v>
+        <v>0.001112534917309381</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.003726892983391211</v>
+        <v>0.006553077722307755</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1202338092580234</v>
+        <v>-0.1102156219180547</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.143377931833904</v>
+        <v>0.1491377680525363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02081541532700978</v>
+        <v>0.002919482005998326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0732837515977719</v>
+        <v>0.07732107393140206</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001920036456223524</v>
+        <v>0.03027515024588438</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007240942837649078</v>
+        <v>0.005133098785098141</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04125862127234088</v>
+        <v>0.08159483817707752</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06476015973699878</v>
+        <v>0.008836956002513639</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06550340876508612</v>
+        <v>0.005632920333927391</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06548029359629295</v>
+        <v>0.07875548566942442</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05265045047440352</v>
+        <v>0.07976431936373266</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02951116402919821</v>
+        <v>0.01206351575710292</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06059941807240866</v>
+        <v>0.07462451156618838</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01942047085107672</v>
+        <v>0.004095175448077869</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03371683888545073</v>
+        <v>0.03222085262717092</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006264072804530407</v>
+        <v>0.01916881722625044</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04894107604378579</v>
+        <v>0.008518205407334844</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01634736611062904</v>
+        <v>0.0184486318852173</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06408766369190989</v>
+        <v>0.07194367242003839</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01488192440403427</v>
+        <v>0.0416139807281193</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02206006711804201</v>
+        <v>0.02805526698141438</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01527334303408129</v>
+        <v>0.002029489363624007</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.013090483367393</v>
+        <v>0.0543357367352188</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03149038709639214</v>
+        <v>0.02882002962935161</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05290683405345605</v>
+        <v>0.06151572397293786</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0002918354063368554</v>
+        <v>0.04258200409724315</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.008737762661165277</v>
+        <v>0.005735929550378298</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05176077166196994</v>
+        <v>0.04528640991312354</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0636313178023796</v>
+        <v>0.005338878760263627</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05407412284198356</v>
+        <v>0.07336984341588572</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.230623034767085</v>
+        <v>-0.1813451552608865</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1687390375926329</v>
+        <v>0.1921986495416882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08867568743745244</v>
+        <v>0.08639881666649307</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05168077739795781</v>
+        <v>0.00315596645829471</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07696122295461412</v>
+        <v>0.004527807452657819</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03506277236553151</v>
+        <v>0.02295983012562729</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02449165618359949</v>
+        <v>0.04851220282740074</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05522022052497246</v>
+        <v>0.04549752164982496</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02231774991111408</v>
+        <v>0.01469133252372225</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07465375246972573</v>
+        <v>0.03358453442537577</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04571080471686248</v>
+        <v>0.01558091190234591</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004157843340030173</v>
+        <v>0.006273603359616699</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0005574675978927893</v>
+        <v>0.01155340158584047</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01688198266531491</v>
+        <v>0.03448644991789046</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05019970939961246</v>
+        <v>0.08445817026178587</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03612830761190684</v>
+        <v>0.01299622525728451</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02646577285759474</v>
+        <v>0.06285523914671315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001593829354948839</v>
+        <v>0.06053265173096405</v>
       </c>
       <c r="V9" t="n">
-        <v>0.06214927977781149</v>
+        <v>0.05005381895265956</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06772207930488698</v>
+        <v>0.001256059426268417</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01651450969506099</v>
+        <v>0.06297671296925543</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.008292441018917556</v>
+        <v>0.0471462666323251</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.005609274057120992</v>
+        <v>0.03924908502631066</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.009206758816928963</v>
+        <v>0.07757304362090957</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03468775006475431</v>
+        <v>0.03261111367708056</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.06387322059400528</v>
+        <v>0.006129896641883898</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0073250095089683</v>
+        <v>0.05530688231401999</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.06154643305677179</v>
+        <v>0.02622123647065762</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.00240669915934612</v>
+        <v>0.03581579515328651</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.04990698815629641</v>
+        <v>0.0175954238235048</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2858287681842829</v>
+        <v>-0.2806981108175262</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2470062029437201</v>
+        <v>0.2452369812947036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01647152560852889</v>
+        <v>0.02920857896751887</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08098104431304838</v>
+        <v>0.04185015541454442</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01709201556018373</v>
+        <v>0.006729640208145096</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03947695552683114</v>
+        <v>0.01948922017924671</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02484933722589319</v>
+        <v>0.02049082087538264</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001170779287332836</v>
+        <v>0.01971309690162002</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0503688105036687</v>
+        <v>0.006159908361346852</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06644860719958848</v>
+        <v>0.01084910956671727</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004982539479391809</v>
+        <v>0.07256242041649577</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01888221670923853</v>
+        <v>0.01758916651882369</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05456608905618662</v>
+        <v>0.02646039644839139</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0006838103471631345</v>
+        <v>0.03138859580599215</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03673893702603026</v>
+        <v>0.06022397548896711</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02661188720140075</v>
+        <v>0.03083506300724029</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04542533783831305</v>
+        <v>0.06232423697451213</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02506753532316911</v>
+        <v>0.008252209945436557</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07659418659071225</v>
+        <v>0.02269384453946615</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0372710794172427</v>
+        <v>0.06439554682927466</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0553559507923812</v>
+        <v>0.06679190530671392</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01521741360383961</v>
+        <v>0.03547125867443982</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.006159143290205767</v>
+        <v>0.07108687990814842</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06618277544555569</v>
+        <v>0.03661938985982095</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08000369622009038</v>
+        <v>0.07047398142842344</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02035942888740573</v>
+        <v>0.03281633858490346</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.006094364358453589</v>
+        <v>0.0002225151747373652</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.04358244816900657</v>
+        <v>0.03357002528710692</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04654157320617854</v>
+        <v>0.03315917587557937</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03682051181295937</v>
+        <v>0.06857254345100454</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.01651450427988948</v>
+        <v>-0.002691935776942437</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2800123709327892</v>
+        <v>0.2833343453119791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04035742040447062</v>
+        <v>0.05706801818039826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06357256966789882</v>
+        <v>0.06023305701111872</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06301467818823051</v>
+        <v>0.003641609930646323</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07049067904864165</v>
+        <v>0.006742341018472206</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02029640388951481</v>
+        <v>0.001389421874106898</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03456045710152728</v>
+        <v>0.06141359471364476</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004644376002499662</v>
+        <v>0.0676890590235687</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002496562503842054</v>
+        <v>0.06778598052751855</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02174675942267732</v>
+        <v>0.03325973761415207</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06900714232806253</v>
+        <v>0.04626376444172448</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08016264156813799</v>
+        <v>0.04451178752489351</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009832345450330401</v>
+        <v>0.006682088413590256</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0420632081751928</v>
+        <v>0.02737606652757654</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03291112368753171</v>
+        <v>0.05845554750039657</v>
       </c>
       <c r="T11" t="n">
-        <v>0.033966146706624</v>
+        <v>0.06075465112446289</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05848178685342032</v>
+        <v>0.07725856573884259</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02262960718083601</v>
+        <v>0.0532025502568804</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0813078012201545</v>
+        <v>0.007118698570920209</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03025491761795691</v>
+        <v>0.0002320296535918985</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01145213520006096</v>
+        <v>0.0381767807231296</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06454867854050858</v>
+        <v>0.04166519515870623</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02612721890160992</v>
+        <v>0.01468960605704572</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0338645058985839</v>
+        <v>0.0354719586854991</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01976505058047458</v>
+        <v>0.01886012324768871</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0002158850578586009</v>
+        <v>0.02009525649428523</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0007903913511142636</v>
+        <v>0.009551792135358287</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.007377514076811786</v>
+        <v>0.0009364560005996526</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0540619933754275</v>
+        <v>0.07947426185118193</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05055146160309471</v>
+        <v>0.04219137017150613</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2817046393067301</v>
+        <v>0.2779216554521807</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05701350465023667</v>
+        <v>0.007282885616839454</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01890163770609235</v>
+        <v>0.05747970197640451</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009317507525392336</v>
+        <v>0.00340169284245466</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04884099132658291</v>
+        <v>0.03184693061919968</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01087441645399894</v>
+        <v>0.01498280111822763</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006197029814197557</v>
+        <v>0.03551293178229448</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02484733110110248</v>
+        <v>0.008120492425548204</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02908856789726828</v>
+        <v>0.008936934986640549</v>
       </c>
       <c r="N12" t="n">
-        <v>0.008344220876076041</v>
+        <v>0.02285068993902648</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01019889941023775</v>
+        <v>0.0003691286025754559</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05408126324800833</v>
+        <v>0.03021563831800091</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04376890793442199</v>
+        <v>0.02045701090700947</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01655998304983752</v>
+        <v>0.01414724988887282</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03555126302826924</v>
+        <v>0.0495638333242882</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0607940303121506</v>
+        <v>0.04020369427381406</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001133629974784018</v>
+        <v>0.005355756690172609</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01886690909574325</v>
+        <v>0.06145773985391207</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06071690778935347</v>
+        <v>0.06787477229070331</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05163868583512345</v>
+        <v>0.07362642409605551</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02011137382723855</v>
+        <v>0.05574848192991592</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06112303927738192</v>
+        <v>0.01656650044187923</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02592472159570999</v>
+        <v>0.02904208981715083</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06794559404651362</v>
+        <v>0.07023885993466171</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01343401938383565</v>
+        <v>0.0680069449844279</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06667129483638425</v>
+        <v>0.04009993826444741</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06678847497929301</v>
+        <v>0.04105805658093165</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0497132237295127</v>
+        <v>0.05206352466730551</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.06155257129525314</v>
+        <v>0.07348929382724001</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1992588334997911</v>
+        <v>0.2018591090105028</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.690409521748176</v>
+        <v>0.6557484753679558</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01009658658931537</v>
+        <v>0.04079110779020139</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0954996552919463</v>
+        <v>0.08550019630867045</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06647052052813178</v>
+        <v>0.0578464478176314</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04828222567178986</v>
+        <v>0.06357313973756042</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001482156745686121</v>
+        <v>0.02964154359241213</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008031209601506318</v>
+        <v>0.003082572647985174</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07445167037128349</v>
+        <v>0.04059520638938888</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005121201813678402</v>
+        <v>0.07144657050556757</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06446966177480067</v>
+        <v>0.05690133824100785</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01018610931349389</v>
+        <v>0.001926576502896673</v>
       </c>
       <c r="P13" t="n">
-        <v>0.007426453162852128</v>
+        <v>0.004797920368741383</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008882080027806324</v>
+        <v>0.05657629124362876</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05052281536147435</v>
+        <v>0.006523678155365586</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04187690863157342</v>
+        <v>0.02237767207183825</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01412778474190616</v>
+        <v>0.0104432325243119</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09252745675935967</v>
+        <v>0.08634326541818588</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02666985841914522</v>
+        <v>0.05243521840369782</v>
       </c>
       <c r="W13" t="n">
-        <v>0.004906976699018998</v>
+        <v>0.03578187680925871</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06728838421073947</v>
+        <v>0.06914305859063305</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.06220745823652244</v>
+        <v>0.009000166453630146</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0253296548998782</v>
+        <v>0.04808284346560757</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05269133700950464</v>
+        <v>0.007178605745113891</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02567780589460644</v>
+        <v>0.005673894808302617</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008276255570830879</v>
+        <v>0.01679325575487427</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02500388592501304</v>
+        <v>0.01116922119533213</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02189638665876921</v>
+        <v>0.01257505969771663</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01117941309280316</v>
+        <v>0.05378637086051508</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.06941808699656418</v>
+        <v>0.0400136688999243</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.231090650940789</v>
+        <v>0.2348148175427455</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2860664787575639</v>
+        <v>0.2904450984211379</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01708172873679431</v>
+        <v>0.04202623675506747</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05640204936355162</v>
+        <v>0.04470078932117316</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006895632223503834</v>
+        <v>0.03245122708171134</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0643052263860016</v>
+        <v>0.04325640414021143</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03168685950022985</v>
+        <v>0.02740489138865374</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005229725085438693</v>
+        <v>0.007233984522352946</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04187891289716112</v>
+        <v>0.001835870993571285</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02678973047253286</v>
+        <v>0.004567174813837498</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06686130730779688</v>
+        <v>0.01285935167192271</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01322946230876536</v>
+        <v>0.02399918629361626</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0577104795538327</v>
+        <v>0.04321960916880842</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04639811985933216</v>
+        <v>0.003374722354243823</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06891729204948119</v>
+        <v>0.04806756795817392</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02527048640943705</v>
+        <v>0.01904431983993224</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01404759776289376</v>
+        <v>0.03889824756918677</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00445013542856072</v>
+        <v>0.009638736988213069</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06167869100509193</v>
+        <v>0.06109193503572991</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06197318858235057</v>
+        <v>0.07733738882450199</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04940190683727526</v>
+        <v>0.04596016112085278</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.03603892790372709</v>
+        <v>0.06470257060494121</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02411719524643896</v>
+        <v>0.03798453883908625</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04187105827548072</v>
+        <v>0.07634518723568388</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05511289675608693</v>
+        <v>0.02647758209424721</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0204352293882761</v>
+        <v>0.02306724956590409</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02580228282483437</v>
+        <v>0.01523723353797527</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.002044964276680273</v>
+        <v>0.0685685196325564</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03081397895477512</v>
+        <v>0.02318577336016307</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.04976100360482238</v>
+        <v>0.07746353928768182</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.06013681350050763</v>
+        <v>-0.06270748657100526</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3281935678434328</v>
+        <v>0.3446889826267515</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06440921016668288</v>
+        <v>0.06521392875543461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007991369261914376</v>
+        <v>0.01448663132400604</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03221618873653206</v>
+        <v>0.06258145010096543</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07270477768703008</v>
+        <v>0.07896409073369594</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04965239949983075</v>
+        <v>0.07264397631638361</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01319341631346965</v>
+        <v>0.003038318068561773</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03989682128364309</v>
+        <v>1.164405043247318e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03671453628405357</v>
+        <v>0.01628541106483725</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07657070119334194</v>
+        <v>0.04625316105143578</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04499698919164825</v>
+        <v>0.06206971053923902</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06235710618161728</v>
+        <v>0.03034827892766499</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01007923971279964</v>
+        <v>0.01069265131871799</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05843751135079959</v>
+        <v>0.05197468019629789</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03184629075321698</v>
+        <v>0.01983317108654684</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03713936295835324</v>
+        <v>0.0003629370620842409</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01501914642298748</v>
+        <v>0.01658186587702002</v>
       </c>
       <c r="V15" t="n">
-        <v>0.06998548479320682</v>
+        <v>0.03911015840429347</v>
       </c>
       <c r="W15" t="n">
-        <v>0.04826304683962913</v>
+        <v>0.03256960288164165</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02231450716789562</v>
+        <v>0.002791036414426563</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01835064424936555</v>
+        <v>0.05943975294067128</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0391630794372067</v>
+        <v>0.04531616071806405</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.03394495754180381</v>
+        <v>0.07350882007645006</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01830013354173224</v>
+        <v>0.04859189784757451</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02148767923417964</v>
+        <v>0.0265831833329028</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.007269363901905331</v>
+        <v>0.01572596870441123</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.03111079406740761</v>
+        <v>0.03261625909299103</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03611515350018545</v>
+        <v>0.06462763270766582</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004700887275612344</v>
+        <v>0.007777620405583705</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.06064117605084385</v>
+        <v>-0.06390788596983148</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.277240291344969</v>
+        <v>0.2825094951918886</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01834389495496757</v>
+        <v>0.008925181537781966</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03444762720032443</v>
+        <v>0.07900028807563975</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01674661494525784</v>
+        <v>0.001520337352366348</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001233242701791506</v>
+        <v>0.005658832839699463</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005091955340526026</v>
+        <v>0.005608889653223361</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01631630340263835</v>
+        <v>0.009024626737041198</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006931237000314895</v>
+        <v>0.07859240554633834</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03107259555630198</v>
+        <v>0.04648429472839445</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07408217536764548</v>
+        <v>0.02267149115845189</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002447200729520118</v>
+        <v>0.02876783498863863</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0437775314170742</v>
+        <v>0.02047667371209594</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01125347270997886</v>
+        <v>0.07181811806266526</v>
       </c>
       <c r="R16" t="n">
-        <v>0.005866250060405512</v>
+        <v>0.02611543978234216</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06577931959971924</v>
+        <v>0.0436184035467503</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02723158500651113</v>
+        <v>0.0498750244701686</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03100359955999034</v>
+        <v>0.04210804344793007</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04242505837732929</v>
+        <v>0.042327333847107</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0906194972467995</v>
+        <v>0.06941450534683459</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01228199575630485</v>
+        <v>0.03750676814273687</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01667623404142648</v>
+        <v>0.01165089625380027</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0522353880991334</v>
+        <v>0.04979171340333495</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.06938837451072903</v>
+        <v>0.01904017249705746</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06984929175030824</v>
+        <v>0.03547402222845811</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0157242919087025</v>
+        <v>0.009205327361220006</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002205412057735009</v>
+        <v>0.02312164325268915</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.07251268458287882</v>
+        <v>0.06544092000111182</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.086276332630459</v>
+        <v>0.02736514030807444</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.07818083348522638</v>
+        <v>0.06939567171804767</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1899450438905299</v>
+        <v>0.1668427290064805</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3422857407200882</v>
+        <v>0.357963316087606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06385094889187867</v>
+        <v>0.07748433986655125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0101555255140862</v>
+        <v>0.01762649854264857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05636672838147826</v>
+        <v>0.04044739646283348</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02658791321625403</v>
+        <v>0.02938405316035244</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06130056745162577</v>
+        <v>0.07477047462199334</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006145957557974526</v>
+        <v>0.02370421627403422</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03322051207948829</v>
+        <v>0.00247931296427732</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003230352031992617</v>
+        <v>0.02156118087760493</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06233734465750924</v>
+        <v>0.04683804714750422</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02164416851425563</v>
+        <v>0.04570408077294716</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0530434635191234</v>
+        <v>0.06402260387368859</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.007035726840367531</v>
+        <v>0.0509728125010282</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07204781051820611</v>
+        <v>0.06411937345987508</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03885003099979308</v>
+        <v>0.0449403435059079</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006185575255312483</v>
+        <v>0.02731723787652483</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02437060181757368</v>
+        <v>0.005450559262600332</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02031540957266887</v>
+        <v>0.05869683922990632</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05642368072559478</v>
+        <v>0.04794185702397551</v>
       </c>
       <c r="X17" t="n">
-        <v>0.04534217172673011</v>
+        <v>0.02385919981251855</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03020612012496626</v>
+        <v>0.01360509297257302</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.06329548455039619</v>
+        <v>0.01787816854814356</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.07291795439947711</v>
+        <v>0.06317128396662175</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05122835785143912</v>
+        <v>0.009434429191662749</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.04308534078109696</v>
+        <v>0.04725846015245233</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.01703405191577308</v>
+        <v>0.003600649062974174</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01111555093665403</v>
+        <v>0.002161708352359931</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.002061730871311924</v>
+        <v>0.02381980671248702</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.04060091929697193</v>
+        <v>0.05174997380395333</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1737248394911396</v>
+        <v>0.2102598800818728</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1985639388746848</v>
+        <v>0.1980153598363427</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05556934876765169</v>
+        <v>0.0706289946379547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03350458317412514</v>
+        <v>0.03246241090160501</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002607757647060877</v>
+        <v>0.003816973165297011</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007483246708393161</v>
+        <v>0.001523401129139029</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01087854058373765</v>
+        <v>0.001694070139577226</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008301494676860402</v>
+        <v>0.03090576207700085</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02627624501516834</v>
+        <v>0.007049095589744419</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02771063458878499</v>
+        <v>0.04648030580175778</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02296064272232717</v>
+        <v>0.06644071638425211</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0145044368386701</v>
+        <v>0.0005331535531311041</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01120953530044318</v>
+        <v>0.0004807128974290662</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01599877546244101</v>
+        <v>0.002636471140408609</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07429005167866154</v>
+        <v>0.07820228485430705</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07559615564828741</v>
+        <v>0.03620023248987705</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04580577760404605</v>
+        <v>0.02782625536062714</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01543808878958384</v>
+        <v>0.005749992293976289</v>
       </c>
       <c r="V18" t="n">
-        <v>0.001818021234914119</v>
+        <v>0.02784460358572394</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08573034888085035</v>
+        <v>0.03763873569896545</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03551956301016564</v>
+        <v>0.06324220963588217</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03131408420888489</v>
+        <v>0.07631134016954851</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05746772356197002</v>
+        <v>0.0720466082919306</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01634133966945379</v>
+        <v>0.02797913135971054</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07110744740758487</v>
+        <v>0.06979484932400648</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04566123679973188</v>
+        <v>0.05679616435446373</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.06723769006226195</v>
+        <v>0.0350193567921345</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.03770462863570989</v>
+        <v>0.02724761190463091</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.06603049558406332</v>
+        <v>0.02717888136100758</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.04266702777572062</v>
+        <v>0.06626967510591122</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.06640947964683463</v>
+        <v>0.05849667852494526</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2849279504387999</v>
+        <v>0.2783145469833996</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08752832600403461</v>
+        <v>0.0700107915592582</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03546377072808164</v>
+        <v>0.01171968158214537</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01827669220067737</v>
+        <v>0.003363691356373555</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01649535563552171</v>
+        <v>0.0393421187961223</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07366875485026667</v>
+        <v>0.08773613747586785</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07469650812343527</v>
+        <v>0.08368827710743669</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01352111021937772</v>
+        <v>0.004921228205250211</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07930388934053006</v>
+        <v>0.02382413148597289</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004374125540434909</v>
+        <v>0.03239899677270204</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01953818167206154</v>
+        <v>0.02531372436510581</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02411006847204417</v>
+        <v>0.08836698284652704</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04486200039882771</v>
+        <v>0.06554540270967533</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02747760675719063</v>
+        <v>0.04443961138548856</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03106394458976937</v>
+        <v>0.02011635569757233</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05445431952380203</v>
+        <v>0.05614564940904604</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05421333371704026</v>
+        <v>0.01230991448398916</v>
       </c>
       <c r="V19" t="n">
-        <v>0.009580368303561848</v>
+        <v>0.01689154809247659</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01862834015150646</v>
+        <v>0.08668295657989787</v>
       </c>
       <c r="X19" t="n">
-        <v>0.007435506505809233</v>
+        <v>0.01035420538924221</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.04046334968395912</v>
+        <v>0.01877354386253779</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03637274275576011</v>
+        <v>0.02826445982894481</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07720999604813601</v>
+        <v>0.02964395096251189</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03282365377429428</v>
+        <v>0.01716761967681016</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.00488988424384015</v>
+        <v>0.02646755594089214</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02444213370323408</v>
+        <v>0.01274810597299169</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02222079456574261</v>
+        <v>0.05759459343066909</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02241515359564127</v>
+        <v>0.004196911803269051</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.04447008889541892</v>
+        <v>0.02197185322122334</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05940558017555194</v>
+        <v>0.06762543899312602</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1473369127378286</v>
+        <v>0.1475934669952886</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02583962490783454</v>
+        <v>0.06812632638855705</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04145538108952654</v>
+        <v>0.02944468397269171</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008725010341665436</v>
+        <v>0.006058862799434035</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0023329778844069</v>
+        <v>0.02588439400572039</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002552165879600075</v>
+        <v>0.006096277284468427</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02909818709631651</v>
+        <v>0.06000365842972719</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03879950633275718</v>
+        <v>0.05304929275883463</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03237086805141778</v>
+        <v>0.06351289354087714</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03659041526245244</v>
+        <v>0.004838314332006751</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003214107436736612</v>
+        <v>0.025690208413674</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05934301604231103</v>
+        <v>0.01014511419461457</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0008698348431311133</v>
+        <v>0.004483642851958192</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01299746168263278</v>
+        <v>0.02425212172238569</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07300116713657345</v>
+        <v>0.04667741580418434</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0730286623638136</v>
+        <v>0.001298756359978842</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0243607432010744</v>
+        <v>0.05272964564517559</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02894633225462073</v>
+        <v>0.03749758995595052</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03359490959767684</v>
+        <v>0.05951809789226234</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01925434978084537</v>
+        <v>0.0321654893259383</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05927980890225418</v>
+        <v>0.02549748013660758</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05785966803921717</v>
+        <v>0.03275138002572311</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04567153137117472</v>
+        <v>0.03211753313636617</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07511711941080183</v>
+        <v>0.0624359263875305</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.007206289331677525</v>
+        <v>0.05947645627760141</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01884757741630582</v>
+        <v>0.03302956934884355</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.06718084989459401</v>
+        <v>0.01484486830245754</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.07707290474811981</v>
+        <v>0.05596897060751808</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.04538952970046176</v>
+        <v>0.07240503009891229</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.003951401836127098</v>
+        <v>-0.01670981480805889</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.172110521029268</v>
+        <v>0.1754352703870009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09444560639547529</v>
+        <v>0.0761707914656089</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03168664539014864</v>
+        <v>0.02151289403007566</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01551071437435178</v>
+        <v>0.003563303938291612</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03191158324544224</v>
+        <v>0.03638060371535583</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08947904374171249</v>
+        <v>0.07617067989005978</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08518351770985372</v>
+        <v>0.07698377496600263</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03539205218162308</v>
+        <v>0.03161251060365623</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01199524644437613</v>
+        <v>0.07163490683115604</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08012518473559976</v>
+        <v>0.04531964215746131</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01930197433155178</v>
+        <v>0.02732734913218118</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04728266461154969</v>
+        <v>0.02303901928202417</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.005082585043104044</v>
+        <v>0.009481495028936205</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03166611652668791</v>
+        <v>0.004776781518428213</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01026278005524689</v>
+        <v>0.04584751500516797</v>
       </c>
       <c r="T21" t="n">
-        <v>0.002318832920523804</v>
+        <v>0.01847687094763374</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0008633123364521453</v>
+        <v>0.067559871282813</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06025612765371124</v>
+        <v>0.03079300906161029</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03213901548018898</v>
+        <v>0.01734773207769657</v>
       </c>
       <c r="X21" t="n">
-        <v>0.004604260389482981</v>
+        <v>0.006634397906876708</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01666998285249813</v>
+        <v>0.02697217302020199</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0366415626334009</v>
+        <v>0.0258661708422786</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03351286445621738</v>
+        <v>0.03106302565979137</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05174035012297748</v>
+        <v>0.04280999723909763</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.009363319507372053</v>
+        <v>0.04034800753440164</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.04820909314657933</v>
+        <v>0.07257187523168536</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01301429569752507</v>
+        <v>0.001328523693270783</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.04107210397912753</v>
+        <v>0.02351422996654476</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.06026916403721962</v>
+        <v>0.04489284797169195</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.02726236371272666</v>
+        <v>-0.04511704937241399</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.164336806418782</v>
+        <v>0.1675555688946862</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02258476093084795</v>
+        <v>0.03025045087865223</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06473661937157101</v>
+        <v>0.003595544823678183</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02912300957419531</v>
+        <v>0.006186177866312295</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001748354399323501</v>
+        <v>0.00373809959835857</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03401320887800947</v>
+        <v>0.001338037333404416</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04999822122592957</v>
+        <v>0.0061610003929386</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01730234098798659</v>
+        <v>0.008372519883653262</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03145677659293575</v>
+        <v>0.012858505934724</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0165022532942287</v>
+        <v>0.06416936929505333</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03428634912709034</v>
+        <v>0.02249215596167254</v>
       </c>
       <c r="P22" t="n">
-        <v>0.004669896621418181</v>
+        <v>0.01362169755006781</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01161201110610967</v>
+        <v>0.001037402525549212</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06574068638673418</v>
+        <v>0.0412289384533383</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02108978860564356</v>
+        <v>0.01617159028057987</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06292207840519519</v>
+        <v>0.04485553362444688</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01811998516692577</v>
+        <v>0.01828806495644506</v>
       </c>
       <c r="V22" t="n">
-        <v>0.008488232248102292</v>
+        <v>0.02555433151090078</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01072143366787459</v>
+        <v>0.001562309705716831</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03022973431706546</v>
+        <v>0.06472797104659164</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0577826580779028</v>
+        <v>0.01814409441973308</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.06461143588737264</v>
+        <v>0.06626677701726974</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02898293246598822</v>
+        <v>0.09508629495347186</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04755699164088759</v>
+        <v>0.09517615469551453</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04651582941127638</v>
+        <v>0.0554535875098435</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.00170074772187029</v>
+        <v>0.0526205969126055</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.07157696582389873</v>
+        <v>0.05094811487521867</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.06837583161568173</v>
+        <v>0.08906674492115359</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.07755086644793462</v>
+        <v>0.09102793307310558</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.06706731555670585</v>
+        <v>0.05601503543311501</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1893498726925696</v>
+        <v>0.1958246889749315</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08354882527912091</v>
+        <v>0.0818397754346242</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08039551624033303</v>
+        <v>0.03961111706421432</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002307206114167588</v>
+        <v>0.03361186666333541</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01147843514084077</v>
+        <v>0.02454764128167488</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02386380942580978</v>
+        <v>0.02152823906474831</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06545547419379059</v>
+        <v>0.0587150700109324</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01905533305894787</v>
+        <v>0.006689140231966967</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01691440310651169</v>
+        <v>0.03764913128492753</v>
       </c>
       <c r="N23" t="n">
-        <v>0.009777439053652554</v>
+        <v>0.001570572266963994</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004052523588560549</v>
+        <v>0.02389319467566542</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02485683285581298</v>
+        <v>0.01833123649186993</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01739724439531336</v>
+        <v>0.02442983475175036</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08337729614586853</v>
+        <v>0.02134573030195197</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02364933768162101</v>
+        <v>0.005713394760632691</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01503083451041038</v>
+        <v>0.009687227377221547</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008933732632997102</v>
+        <v>0.05045572283494091</v>
       </c>
       <c r="V23" t="n">
-        <v>0.07714594873026334</v>
+        <v>0.03040639468049186</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07798542779373664</v>
+        <v>0.07579794529445637</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03275854430554746</v>
+        <v>0.03185402972034908</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01263468327039115</v>
+        <v>0.01441471465225911</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.07399886032731212</v>
+        <v>0.03318745026618221</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0599018241162034</v>
+        <v>0.08245543841071057</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.006062337988553366</v>
+        <v>0.0145135918609926</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.07417987730389532</v>
+        <v>0.06813974612640998</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.01987228352179014</v>
+        <v>0.04892900998551421</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.01722956822989192</v>
+        <v>0.07681835858164224</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.01501583474283976</v>
+        <v>0.009345141293675526</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.04312056624581653</v>
+        <v>0.05451928462989552</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.09201002449543255</v>
+        <v>0.08217775753201385</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1614852533627839</v>
+        <v>0.1620912624491488</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0359648430585137</v>
+        <v>0.02353993912452377</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02940741354374423</v>
+        <v>0.002014343144101854</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02969833339930121</v>
+        <v>0.01469782456397973</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02058396658379198</v>
+        <v>0.03704270794451486</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06263959708239948</v>
+        <v>0.02078633475421298</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05691789342406432</v>
+        <v>0.05808104381870322</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05359658577053591</v>
+        <v>0.06444135371354585</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0021125560697563</v>
+        <v>0.01003175806702752</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0006531973130742012</v>
+        <v>0.003808261350048307</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00687229088230748</v>
+        <v>0.05507727787763534</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01656201852200458</v>
+        <v>0.004899793251713551</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02975484435063211</v>
+        <v>0.005374194694422824</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03947157849897748</v>
+        <v>0.0798305516389175</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01237746743896387</v>
+        <v>0.004270102451312718</v>
       </c>
       <c r="T24" t="n">
-        <v>0.06396164535713961</v>
+        <v>0.07046615150435274</v>
       </c>
       <c r="U24" t="n">
-        <v>0.008423814451489528</v>
+        <v>0.00470976820913023</v>
       </c>
       <c r="V24" t="n">
-        <v>0.029517560398261</v>
+        <v>0.05836154288940245</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0858421357980763</v>
+        <v>0.0832746438268149</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0803636446750398</v>
+        <v>0.004928513765054164</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08272095229307549</v>
+        <v>0.08130175980224229</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04589834763942373</v>
+        <v>0.01278719047306561</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03624417783721758</v>
+        <v>0.07825082646699286</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06309806925942482</v>
+        <v>0.06303139131514125</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01365486590709097</v>
+        <v>0.01183459404930909</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0149909038849579</v>
+        <v>0.006534043634749963</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01902452877968761</v>
+        <v>0.06788598719469628</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01482513049104045</v>
+        <v>0.01930485024452094</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0448216372900084</v>
+        <v>0.05343325022986722</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.03858383553017409</v>
+        <v>0.04890865883062724</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1885564835830303</v>
+        <v>0.1982289262662945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07566197173584738</v>
+        <v>0.06857230798829228</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03419553736256887</v>
+        <v>0.0593094765527385</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08251494141015869</v>
+        <v>0.02822425347169336</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0816260978510948</v>
+        <v>0.009140140323221283</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003118635868836443</v>
+        <v>0.002065228695142337</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08865436179210096</v>
+        <v>0.04658069089330072</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05919959202918866</v>
+        <v>0.0301658279683799</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01371034263167768</v>
+        <v>0.009274787976927136</v>
       </c>
       <c r="N25" t="n">
-        <v>0.003796739754763997</v>
+        <v>0.001292750726060966</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01551719850707056</v>
+        <v>0.009875953682938709</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02909232554270654</v>
+        <v>0.07152727846658445</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.006611071291999445</v>
+        <v>0.001223449379160837</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06806411193793256</v>
+        <v>0.06122227595666367</v>
       </c>
       <c r="S25" t="n">
-        <v>0.02266401120080689</v>
+        <v>0.0511608679940533</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01020620689240903</v>
+        <v>0.02634975151789394</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05847762288280155</v>
+        <v>0.02867984784204837</v>
       </c>
       <c r="V25" t="n">
-        <v>0.001108755041340364</v>
+        <v>0.03445848755303111</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01981466554991678</v>
+        <v>0.0582258990175215</v>
       </c>
       <c r="X25" t="n">
-        <v>0.002685256687711291</v>
+        <v>0.01815437536064746</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.03884885130735981</v>
+        <v>0.002794672163439167</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01292872134629786</v>
+        <v>0.0745666731455621</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04472574129851646</v>
+        <v>0.03515704156977849</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07024955176780652</v>
+        <v>0.01208515984619431</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05181449988193943</v>
+        <v>0.05346567114970783</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.06634786276432544</v>
+        <v>0.05541678172658993</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.03432993343398199</v>
+        <v>0.07302727079091388</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.002856495820432037</v>
+        <v>0.05269781605666844</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.001178896408407848</v>
+        <v>0.02528526218484613</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05100610105711513</v>
+        <v>0.02667230920103616</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1527521568482643</v>
+        <v>0.1475261428965485</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08295001483673242</v>
+        <v>0.006956771261597049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03143198610465532</v>
+        <v>0.07618971581669015</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01447230528000469</v>
+        <v>0.02807058093570067</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01229171446471564</v>
+        <v>0.0002555593109360821</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00380955402838864</v>
+        <v>0.04989969746784545</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07526743246764384</v>
+        <v>0.001793689472521311</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008316878012235754</v>
+        <v>0.01126805212444389</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03625935254225483</v>
+        <v>0.04872635312585608</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02734395348229504</v>
+        <v>0.0001703172240432876</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0001298753572070119</v>
+        <v>0.02920486535129953</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0004824623851629507</v>
+        <v>0.02300508402170037</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001148614210761316</v>
+        <v>0.008433041898623704</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02946028277601566</v>
+        <v>0.03869624580093395</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0247032502517753</v>
+        <v>0.05979659432936184</v>
       </c>
       <c r="T26" t="n">
-        <v>0.001257645258474684</v>
+        <v>0.03813613695701591</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03906746148242066</v>
+        <v>0.01244194335291358</v>
       </c>
       <c r="V26" t="n">
-        <v>0.09536836266227715</v>
+        <v>0.05447732871655855</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02851439558907588</v>
+        <v>0.08664827597629818</v>
       </c>
       <c r="X26" t="n">
-        <v>0.009534831524157884</v>
+        <v>0.03505779998035855</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05294457539710749</v>
+        <v>0.07938261970007818</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.09264622055781269</v>
+        <v>0.08115037723030863</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04130064764414881</v>
+        <v>0.0318269977092453</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.09751093618221503</v>
+        <v>0.07573882041349526</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.03421495500568955</v>
+        <v>0.02066771061620152</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01643267204449667</v>
+        <v>0.002412710589035196</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.09468478364068443</v>
+        <v>0.02447302188348102</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.008679710279990264</v>
+        <v>0.00740838932982865</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.03977512653160038</v>
+        <v>0.06771129940362806</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.07489937292742675</v>
+        <v>0.1083645803741487</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1834234695097506</v>
+        <v>0.172487107701233</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0001704215885262707</v>
+        <v>0.07121855084062698</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08387602129086776</v>
+        <v>0.07440581189089442</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0393568217812575</v>
+        <v>0.07381906771318601</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0796157310989363</v>
+        <v>0.07521191400248566</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009488277496516685</v>
+        <v>0.0190979925782991</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04587782013747613</v>
+        <v>0.06688705262738302</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004614593946287551</v>
+        <v>0.004630872654833998</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01564504502824396</v>
+        <v>0.007846558668578849</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04831956979133156</v>
+        <v>0.03050406719224434</v>
       </c>
       <c r="O27" t="n">
-        <v>0.07690882902155267</v>
+        <v>0.01073328295802634</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02504537702070538</v>
+        <v>0.02957920825742241</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05086106480475116</v>
+        <v>0.04372991067980122</v>
       </c>
       <c r="R27" t="n">
-        <v>0.008494815979487161</v>
+        <v>0.04562990323014689</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02288366941244678</v>
+        <v>0.02420277881951432</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01106500295586011</v>
+        <v>0.009283392666351819</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08549487844702032</v>
+        <v>0.01222728945407216</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01620868903420916</v>
+        <v>0.02222158335275822</v>
       </c>
       <c r="W27" t="n">
-        <v>0.007621006376515933</v>
+        <v>0.01772160188082667</v>
       </c>
       <c r="X27" t="n">
-        <v>0.008192095392625611</v>
+        <v>0.01506367572916557</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.06449059552281756</v>
+        <v>0.07537108279189848</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01569510232460577</v>
+        <v>0.02119695850374656</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05413361766618473</v>
+        <v>0.03842951547870309</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03083549387835159</v>
+        <v>0.01162540594518318</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04417772895777124</v>
+        <v>0.05268376031171906</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01358304807081992</v>
+        <v>0.00437909303948416</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.07302004674952638</v>
+        <v>0.03146850584069107</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.007409394151518082</v>
+        <v>0.03860142425513446</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.05691524207378686</v>
+        <v>0.07222973863682183</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1412070172532068</v>
+        <v>0.09495499329867346</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1833554290388096</v>
+        <v>0.1801970712431468</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03287255849853613</v>
+        <v>0.09058920168906048</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0580423248878526</v>
+        <v>0.03933882574650267</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03129199358488825</v>
+        <v>0.01028156232351491</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03461855592226551</v>
+        <v>0.0185370510509605</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07597658851784043</v>
+        <v>0.05323130826428297</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003092072377809747</v>
+        <v>0.06180132121508512</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01350665662872799</v>
+        <v>0.0148566860513604</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03309570430448928</v>
+        <v>0.0373831302030145</v>
       </c>
       <c r="N28" t="n">
-        <v>0.006486527995523252</v>
+        <v>0.03105596395740966</v>
       </c>
       <c r="O28" t="n">
-        <v>0.030303763210662</v>
+        <v>0.03028931273489695</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0002153397286387517</v>
+        <v>0.006037820907382382</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.007464444341060031</v>
+        <v>0.008471567283415965</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06517108662681974</v>
+        <v>0.02548353275895591</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08097604658215315</v>
+        <v>0.004111205880861431</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04424555440547917</v>
+        <v>0.01839863886854089</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008676148460659946</v>
+        <v>0.009299791026478174</v>
       </c>
       <c r="V28" t="n">
-        <v>0.00118059840878412</v>
+        <v>0.01584166629370948</v>
       </c>
       <c r="W28" t="n">
-        <v>0.03036564160397853</v>
+        <v>0.0182154768905922</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0205646365885837</v>
+        <v>0.03964415655705695</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07949402806562049</v>
+        <v>0.0830750953506994</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05610918302551079</v>
+        <v>0.08780741320515736</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.05044604743956755</v>
+        <v>0.06178121035848336</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0451608783646176</v>
+        <v>0.06214726458414872</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.004108907910918747</v>
+        <v>0.009598743280030705</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06708105387019625</v>
+        <v>0.02633992404989772</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.003461365317674707</v>
+        <v>0.07060515272507523</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04215566884125281</v>
+        <v>0.01617724782153609</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0738366244898887</v>
+        <v>0.04959972892188979</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1125970983388235</v>
+        <v>0.1347432607022712</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2167168191758906</v>
+        <v>0.221325867509889</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01904240777719207</v>
+        <v>0.02544811652151846</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05283583196431597</v>
+        <v>0.07638632891202561</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03051201305163527</v>
+        <v>0.03950279345761132</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03845042107707175</v>
+        <v>0.01400623185035651</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0101931962449051</v>
+        <v>0.009794424789472112</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04923272478996206</v>
+        <v>0.07051580018107408</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01013505481471386</v>
+        <v>0.01890289778298412</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01792046057156565</v>
+        <v>0.0006401801573392021</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04453290076887875</v>
+        <v>0.09879068200871595</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07226942581921374</v>
+        <v>0.04158295387700801</v>
       </c>
       <c r="P29" t="n">
-        <v>0.002827773971201691</v>
+        <v>0.03130782432848302</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.06274319688510106</v>
+        <v>0.04715361633736626</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02214308639778784</v>
+        <v>0.07181435451825735</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03393758924920513</v>
+        <v>0.00925278375029402</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0482951019286352</v>
+        <v>0.01175383672568369</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04515854453776579</v>
+        <v>0.02063241998940159</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03904862767382113</v>
+        <v>0.0203501805468448</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01390769900862481</v>
+        <v>0.02301344464063797</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0016935760326731</v>
+        <v>0.04498978466192508</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03289119272599284</v>
+        <v>0.01085354063805762</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05600570528990776</v>
+        <v>0.02740031976688442</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05009795537028681</v>
+        <v>0.05857151993762658</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04525749939809485</v>
+        <v>0.02080744431123185</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.04280664200829495</v>
+        <v>0.004943458338065913</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.07348095583004997</v>
+        <v>0.0657484509617038</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01018648033915752</v>
+        <v>0.03305227683563294</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.06601685870446204</v>
+        <v>0.03857201976281012</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.008377077769483411</v>
+        <v>0.06421231441098729</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.141425883468851</v>
+        <v>0.1426034792118002</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1119542772379474</v>
+        <v>0.1173189414572019</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09403561651630223</v>
+        <v>0.01907447810791928</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01671233899837781</v>
+        <v>0.06238536083179039</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01258902869199308</v>
+        <v>0.05835487157936476</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01627843510951508</v>
+        <v>0.02486832784416447</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1023242990930956</v>
+        <v>0.0340443237143471</v>
       </c>
       <c r="K30" t="n">
-        <v>0.003582505890081409</v>
+        <v>0.0003716546235872817</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02436810668718754</v>
+        <v>0.007792483946621459</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09038570279051429</v>
+        <v>0.06485557758016909</v>
       </c>
       <c r="N30" t="n">
-        <v>0.009301645349779472</v>
+        <v>0.01200672545510265</v>
       </c>
       <c r="O30" t="n">
-        <v>0.005029787772116345</v>
+        <v>0.00870465229247528</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01933484870052282</v>
+        <v>0.05968756827945971</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01565279226509841</v>
+        <v>0.04740909939271783</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03848584011081078</v>
+        <v>0.0642288243798345</v>
       </c>
       <c r="S30" t="n">
-        <v>0.003479456664617761</v>
+        <v>0.05583699742139466</v>
       </c>
       <c r="T30" t="n">
-        <v>0.09182305863174416</v>
+        <v>0.04848319243297781</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03868063877295346</v>
+        <v>0.0009761367168766848</v>
       </c>
       <c r="V30" t="n">
-        <v>0.07135179382031379</v>
+        <v>0.0489316182052226</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07330586515693231</v>
+        <v>0.06502587273596568</v>
       </c>
       <c r="X30" t="n">
-        <v>0.004260003608434466</v>
+        <v>0.01145487645185398</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07918086477094094</v>
+        <v>0.03209571052673686</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06301578939272549</v>
+        <v>0.05231330541184299</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02762474267780779</v>
+        <v>0.04578024387817919</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01687516282987632</v>
+        <v>0.01836983497093591</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0007333683844277433</v>
+        <v>0.02115417432588699</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.02065754631014515</v>
+        <v>0.06153796056199558</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.04525812324456864</v>
+        <v>0.001288351180705663</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.01429504824722411</v>
+        <v>0.02103312429570731</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.001377589511893184</v>
+        <v>0.05193465285616429</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.092822980501248</v>
+        <v>0.06642409821940501</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1279141520738804</v>
+        <v>0.1224197586439633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0114040877065074</v>
+        <v>0.01608817054165227</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0684705255521552</v>
+        <v>0.05870680194999036</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0514103537346192</v>
+        <v>0.02277940985814073</v>
       </c>
       <c r="I31" t="n">
-        <v>0.057975533099922</v>
+        <v>0.06210715590260985</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06505296433126068</v>
+        <v>0.003465031131350329</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01185533481372809</v>
+        <v>0.02738930331590332</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04060726064024166</v>
+        <v>0.005222883692561044</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01222237421868148</v>
+        <v>0.01768491268550319</v>
       </c>
       <c r="N31" t="n">
-        <v>0.004540816377988024</v>
+        <v>0.01391335225969674</v>
       </c>
       <c r="O31" t="n">
-        <v>0.07990009367468129</v>
+        <v>0.007505714706096239</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06270137569449669</v>
+        <v>0.06817018594642683</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04491347377580406</v>
+        <v>0.05293471446905423</v>
       </c>
       <c r="R31" t="n">
-        <v>0.02182980453397941</v>
+        <v>0.07639333671983932</v>
       </c>
       <c r="S31" t="n">
-        <v>0.02820915113064178</v>
+        <v>0.02392540534039418</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04869823201229721</v>
+        <v>0.01228136151006626</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01431788470049269</v>
+        <v>0.0256810178433531</v>
       </c>
       <c r="V31" t="n">
-        <v>0.007753623792683197</v>
+        <v>0.03590702666478853</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06752086008481915</v>
+        <v>0.06234785615123935</v>
       </c>
       <c r="X31" t="n">
-        <v>0.04948243628813039</v>
+        <v>0.0259789488495401</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.007955449133889934</v>
+        <v>0.07749536579184023</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.05176806565872796</v>
+        <v>0.08360696760411036</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.07907773532176554</v>
+        <v>0.0682136547201069</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.003622199674859803</v>
+        <v>0.02404141625445359</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.004750634957351452</v>
+        <v>0.009118026678276651</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.06706263712332369</v>
+        <v>0.04094713421884165</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0288053397324034</v>
+        <v>0.05675676204647159</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.0009776375732066104</v>
+        <v>0.0001638602595725</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.007114114661342039</v>
+        <v>0.0211742228881204</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.05348044769325204</v>
+        <v>0.04836861107598718</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1133842836582168</v>
+        <v>0.117873303291921</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0148400175681405</v>
+        <v>0.02325876728350101</v>
       </c>
       <c r="G32" t="n">
-        <v>0.006518626985359563</v>
+        <v>0.06158013766309192</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01994555226201875</v>
+        <v>0.008705603085469249</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02026834148298124</v>
+        <v>0.04739901364755</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0303227389744648</v>
+        <v>0.06932061313242285</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002247942325941501</v>
+        <v>0.02360611972427846</v>
       </c>
       <c r="L32" t="n">
-        <v>0.005937778905444792</v>
+        <v>0.02675929819544656</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01579103367925505</v>
+        <v>0.03934581526728503</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01015023693350952</v>
+        <v>0.01246092124245795</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01137025021187195</v>
+        <v>0.05064084441270668</v>
       </c>
       <c r="P32" t="n">
-        <v>0.04774276519736942</v>
+        <v>0.02524506829026286</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.005556340600696327</v>
+        <v>0.01292118008996835</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02782484536613733</v>
+        <v>0.04469259691436112</v>
       </c>
       <c r="S32" t="n">
-        <v>0.009064477848069057</v>
+        <v>0.02941283431045714</v>
       </c>
       <c r="T32" t="n">
-        <v>0.07132255772291132</v>
+        <v>0.01109645144479336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01040008103239381</v>
+        <v>0.05600965604443704</v>
       </c>
       <c r="V32" t="n">
-        <v>0.09807094183167778</v>
+        <v>0.03304229082341441</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02188752047680842</v>
+        <v>0.04937938721873836</v>
       </c>
       <c r="X32" t="n">
-        <v>0.09472490620825962</v>
+        <v>0.008302609851722974</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.001186741396593121</v>
+        <v>0.01065379701949043</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.068793391720759</v>
+        <v>0.05970585785958127</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.08058246460274684</v>
+        <v>0.06271124826733805</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.04603777875377604</v>
+        <v>0.06264536994575901</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.07573319107749042</v>
+        <v>0.03504276450706728</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.06177900122748917</v>
+        <v>0.01847982394156601</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.08690331712265653</v>
+        <v>0.04878159294623938</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.008708337173807852</v>
+        <v>0.001425774737880124</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.04628882131137038</v>
+        <v>0.06737456213271308</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.07241979372439253</v>
+        <v>0.06329986925804701</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.133228201398898</v>
+        <v>0.1252209448033074</v>
       </c>
       <c r="F33" t="n">
-        <v>0.004303790802570038</v>
+        <v>0.00329829473321368</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09292418648382134</v>
+        <v>0.05680828896411325</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02607075531930375</v>
+        <v>0.03176794587493433</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04402033224189551</v>
+        <v>0.04662480434381674</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003455875733733616</v>
+        <v>0.06022412638874217</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03241567027958256</v>
+        <v>0.05181806334821002</v>
       </c>
       <c r="L33" t="n">
-        <v>0.07162546614764134</v>
+        <v>0.02337855537192901</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01492478739956504</v>
+        <v>0.02590233384680255</v>
       </c>
       <c r="N33" t="n">
-        <v>0.007724049241640495</v>
+        <v>0.03133654660992587</v>
       </c>
       <c r="O33" t="n">
-        <v>0.008622027017577782</v>
+        <v>0.0181843549027455</v>
       </c>
       <c r="P33" t="n">
-        <v>0.00688785901437159</v>
+        <v>0.05443181670479366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01862889599676754</v>
+        <v>0.031161634458489</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01113439778891904</v>
+        <v>0.00832423769954385</v>
       </c>
       <c r="S33" t="n">
-        <v>0.04263829666124481</v>
+        <v>0.007636543585817294</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07498212591728126</v>
+        <v>0.06317590313572938</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02485555036341927</v>
+        <v>0.02305246548178873</v>
       </c>
       <c r="V33" t="n">
-        <v>0.08504588541476843</v>
+        <v>0.01218803627165529</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03307544372121417</v>
+        <v>0.06566493163843316</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03752345861951558</v>
+        <v>0.02995344867961398</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04603652715394904</v>
+        <v>0.02032286133313359</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.09515200398206755</v>
+        <v>0.06333170462084252</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.08504830508628297</v>
+        <v>0.06357400982931476</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.006903589185215325</v>
+        <v>0.06172328795481235</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.04518319270442235</v>
+        <v>0.04134070461106772</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0229218771090283</v>
+        <v>0.05543474850000148</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.03328444788392564</v>
+        <v>0.02011128604811776</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.021456574890737</v>
+        <v>0.01328404885644108</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.003154627839538802</v>
+        <v>0.0159450162059712</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.08068059919073334</v>
+        <v>0.07036845858977764</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1223677467970046</v>
+        <v>0.1262649917626001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03117882261323983</v>
+        <v>0.01421135470272529</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006131158428432584</v>
+        <v>3.313553094011777e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01969347464753105</v>
+        <v>0.01651617210218175</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06298207135015006</v>
+        <v>0.02822261797027735</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06738786221270555</v>
+        <v>0.02778497691116677</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05229511207668065</v>
+        <v>0.08075864933934185</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04337632054803076</v>
+        <v>0.001040855991046695</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05451554245081607</v>
+        <v>0.05146730178929618</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00499994109991871</v>
+        <v>0.004708804382215256</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02829631244051994</v>
+        <v>0.01872360622388616</v>
       </c>
       <c r="P34" t="n">
-        <v>0.00444893602599237</v>
+        <v>0.04464865417428369</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03124622671558594</v>
+        <v>0.001249370090278132</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0566823631149366</v>
+        <v>0.06894440870999115</v>
       </c>
       <c r="S34" t="n">
-        <v>0.02070739814303598</v>
+        <v>0.04408872158496388</v>
       </c>
       <c r="T34" t="n">
-        <v>0.07115703029645408</v>
+        <v>0.0850048436522232</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03650627143573278</v>
+        <v>0.08825756066612493</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05853213023201849</v>
+        <v>0.01980405915243732</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06406464887404781</v>
+        <v>0.06248271566158162</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01254998710680046</v>
+        <v>0.03685131969585162</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.00997593473462435</v>
+        <v>0.04656749588552338</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.001606922929114459</v>
+        <v>0.02577313334205146</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.03901065531815396</v>
+        <v>0.02095574974630439</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.009173863089152013</v>
+        <v>0.02764496480209088</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.004553033491386083</v>
+        <v>0.01598427955248364</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.02202928212540521</v>
+        <v>0.01942202940752523</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.06949730420870939</v>
+        <v>0.08480102351594894</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.06226144888984654</v>
+        <v>0.012536153713571</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.05513994540097822</v>
+        <v>0.0515160417036882</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.003795736223393952</v>
+        <v>-0.00144061226947688</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1943022112658516</v>
+        <v>0.2356255448329785</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04231957997685599</v>
+        <v>0.08016028446947675</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05148056019612873</v>
+        <v>0.08326859778867614</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02323430641382277</v>
+        <v>0.0102020700728915</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08071666351609356</v>
+        <v>0.002485610939568218</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01778537327526327</v>
+        <v>0.001148243164800569</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06515556421664212</v>
+        <v>0.0731946379047311</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01733507170627138</v>
+        <v>0.01451109691282292</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01288399588309106</v>
+        <v>0.01351801327970083</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0488355680190958</v>
+        <v>0.01757132813785619</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04045322301968905</v>
+        <v>0.04456969558265093</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0794472942538488</v>
+        <v>0.09555237691921452</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.006069812403250387</v>
+        <v>0.01668906048217624</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0069918307658242</v>
+        <v>0.0180393231970907</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06489191641659267</v>
+        <v>0.006887616733524471</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01039209888207279</v>
+        <v>0.03107271454744906</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07171774224790009</v>
+        <v>0.04710946460655284</v>
       </c>
       <c r="V35" t="n">
-        <v>0.04818649939589253</v>
+        <v>0.01013784711720839</v>
       </c>
       <c r="W35" t="n">
-        <v>0.00544820793836655</v>
+        <v>0.06978240285561592</v>
       </c>
       <c r="X35" t="n">
-        <v>0.009281500217375104</v>
+        <v>0.06436080827156619</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.04385726369435401</v>
+        <v>0.03538173099365355</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01814216461894641</v>
+        <v>0.03089537718824371</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.01096703054023497</v>
+        <v>0.001594218600577192</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02374462273746293</v>
+        <v>0.0071792462580638</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.004446481513350328</v>
+        <v>0.01272585948421604</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.07907882256511981</v>
+        <v>0.06500989656056716</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.05574155224964512</v>
+        <v>0.01322121634244039</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.02933882095993516</v>
+        <v>0.1061842105625054</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.03205643237687439</v>
+        <v>0.02754705102615947</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.03593082876285637</v>
+        <v>0.05045094592216719</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.106013668651623</v>
+        <v>0.1072942736993737</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01376671236288823</v>
+        <v>0.0106032644905053</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005705328486843223</v>
+        <v>0.02959267005042514</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02763822266044688</v>
+        <v>0.03541704666822834</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06626454605214961</v>
+        <v>0.02862474430965918</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04683440438045557</v>
+        <v>0.06778942894467346</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001712569740849474</v>
+        <v>0.002352503442508992</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04758049249143888</v>
+        <v>0.06528561641653523</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0607223058831033</v>
+        <v>0.01791652079236352</v>
       </c>
       <c r="N36" t="n">
-        <v>0.008298825351003113</v>
+        <v>0.007320595275311271</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03355780154626253</v>
+        <v>0.01355383558892504</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0001337864985463309</v>
+        <v>0.05302480599510485</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02240495916502043</v>
+        <v>0.0624283123575546</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05130887185760971</v>
+        <v>0.04890191958690527</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06576001406526495</v>
+        <v>0.06765526182279817</v>
       </c>
       <c r="T36" t="n">
-        <v>0.004233755086131194</v>
+        <v>0.03268662560311909</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01378075601959452</v>
+        <v>0.05162659494525855</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0835309702634939</v>
+        <v>0.05775054954447794</v>
       </c>
       <c r="W36" t="n">
-        <v>0.03998378160851154</v>
+        <v>0.03418490196828741</v>
       </c>
       <c r="X36" t="n">
-        <v>0.03339923030875721</v>
+        <v>0.04518984751866027</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02589528097709152</v>
+        <v>0.06389912226958959</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06933379019257754</v>
+        <v>0.03421942681306936</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.003362679632067901</v>
+        <v>0.009272083731170482</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.04769645352531588</v>
+        <v>0.007865961857044098</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.08185836594539363</v>
+        <v>0.02187900214562426</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.02425115996460784</v>
+        <v>0.02589459674824114</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.07541141160233313</v>
+        <v>0.03957706079325388</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.02416588413145134</v>
+        <v>0.002148530122634324</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.02140764020079067</v>
+        <v>0.06333917019807124</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.007953164987820029</v>
+        <v>-0.008634980055699945</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1460232870676963</v>
+        <v>0.1628490530458858</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06462286325958572</v>
+        <v>0.06936416831170003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03745161201317668</v>
+        <v>0.011612950858049</v>
       </c>
       <c r="H37" t="n">
-        <v>0.007634506311132885</v>
+        <v>0.001785046310518477</v>
       </c>
       <c r="I37" t="n">
-        <v>3.909600524920146e-05</v>
+        <v>0.00814224582457186</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003784374822421843</v>
+        <v>0.004642651065212514</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02488472309673004</v>
+        <v>0.05779677754847133</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06767661602506479</v>
+        <v>0.0392596372478449</v>
       </c>
       <c r="M37" t="n">
-        <v>0.006077221150441887</v>
+        <v>0.02365700481625686</v>
       </c>
       <c r="N37" t="n">
-        <v>0.070574860402875</v>
+        <v>0.06324158372379352</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04546546166017822</v>
+        <v>0.05902212037612505</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04686065735625618</v>
+        <v>0.03910216957463983</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.07160871457448902</v>
+        <v>0.04689000563399576</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06792076196502692</v>
+        <v>0.01411519817219085</v>
       </c>
       <c r="S37" t="n">
-        <v>0.03589415220609614</v>
+        <v>0.06729244793983295</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02511100073068404</v>
+        <v>0.01858701533706938</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06730030517745211</v>
+        <v>0.05570594101995106</v>
       </c>
       <c r="V37" t="n">
-        <v>0.007345908208452131</v>
+        <v>0.01917530690454715</v>
       </c>
       <c r="W37" t="n">
-        <v>0.03490970414803346</v>
+        <v>0.05952766427231371</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02818113876233167</v>
+        <v>0.01808713559261926</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.04128067262380201</v>
+        <v>0.01819780306941953</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.04717149951081998</v>
+        <v>0.06196073451231682</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.04836945918234833</v>
+        <v>0.06791173693732658</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02487087272885333</v>
+        <v>0.02786000237259662</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.02396923016087403</v>
+        <v>0.03224566997983512</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.06840702300022611</v>
+        <v>0.05954891984209772</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.0008893256876413355</v>
+        <v>0.01014574426559752</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.02904870690329842</v>
+        <v>0.02605314015275889</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.002649532326458527</v>
+        <v>0.01906917833834772</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.004213032347200022</v>
+        <v>0.02103459616907108</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1205209827302848</v>
+        <v>0.1213055614453259</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0173487670760506</v>
+        <v>0.04389860939534709</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01309692001839352</v>
+        <v>0.01378441693114185</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0748189532751557</v>
+        <v>0.06259210943318713</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04456975786467236</v>
+        <v>0.07394116545377701</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05606514145632254</v>
+        <v>0.02886998408349794</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03521413396814899</v>
+        <v>0.01000370789181338</v>
       </c>
       <c r="L38" t="n">
-        <v>0.008702026663528501</v>
+        <v>0.006266643989680009</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01370657218009667</v>
+        <v>0.02565518922240383</v>
       </c>
       <c r="N38" t="n">
-        <v>0.001826082701100146</v>
+        <v>0.03667273795650921</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05462451947988829</v>
+        <v>0.03914694538603445</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0024830469684391</v>
+        <v>0.006039040989570864</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01572531043734286</v>
+        <v>0.01346169765161117</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06281059055906442</v>
+        <v>0.01300968290441624</v>
       </c>
       <c r="S38" t="n">
-        <v>0.001024798581867071</v>
+        <v>0.05918663155575778</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06321179031527628</v>
+        <v>0.03951723478462731</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0121009393426231</v>
+        <v>0.0022588630848872</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0719037599431549</v>
+        <v>0.04819045233984624</v>
       </c>
       <c r="W38" t="n">
-        <v>0.007421949320241659</v>
+        <v>0.01922852010742726</v>
       </c>
       <c r="X38" t="n">
-        <v>0.03164953392579772</v>
+        <v>0.04342324502964874</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.08151836197346539</v>
+        <v>0.05712194646479742</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01707691392902234</v>
+        <v>0.00758943077223595</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0359433498710086</v>
+        <v>0.009603153583688108</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.07661939744973746</v>
+        <v>0.05677955838261579</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.03838060712283719</v>
+        <v>0.06829499576627038</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.02750566936264587</v>
+        <v>0.07113681451642259</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0495355422622309</v>
+        <v>0.04979004912905</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.02247765382764567</v>
+        <v>0.02664516649272456</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.06263791012424197</v>
+        <v>0.06789200670101043</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05653603318562941</v>
+        <v>0.05108023211144321</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.162048798600386</v>
+        <v>0.1558028429803243</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01440232046777507</v>
+        <v>0.008252512236414287</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06105847327881978</v>
+        <v>0.004207600234722894</v>
       </c>
       <c r="H39" t="n">
-        <v>0.006520908441097819</v>
+        <v>0.005676090657227804</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05028670051070475</v>
+        <v>0.04998310177062047</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01889155617260838</v>
+        <v>0.01477304686102804</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06762834963899761</v>
+        <v>0.06995487128900121</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04411887824504229</v>
+        <v>0.07081415575564848</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02026235758895708</v>
+        <v>0.007110828466253352</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01069897382068559</v>
+        <v>0.03294420787053708</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01379123861294232</v>
+        <v>0.00428111858495266</v>
       </c>
       <c r="P39" t="n">
-        <v>0.08461256342307226</v>
+        <v>0.09230568575494257</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04728891348239479</v>
+        <v>0.0268656515056255</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05318144901227313</v>
+        <v>0.01172480282731363</v>
       </c>
       <c r="S39" t="n">
-        <v>0.05097789461601597</v>
+        <v>0.005592650823725038</v>
       </c>
       <c r="T39" t="n">
-        <v>0.002272547690096125</v>
+        <v>0.0427768436660659</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02807224332796044</v>
+        <v>0.02780085396452096</v>
       </c>
       <c r="V39" t="n">
-        <v>0.04950295784450598</v>
+        <v>0.03246759823911503</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01822995555990857</v>
+        <v>0.02671551897910011</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01534902761709359</v>
+        <v>0.03089709088939785</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.003256127913604385</v>
+        <v>0.004898285870210677</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0003153452566271017</v>
+        <v>0.01032362144659578</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.06963199994621894</v>
+        <v>0.06108846541448091</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01951679399919537</v>
+        <v>0.04113615176343174</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.05673576105249695</v>
+        <v>0.0788968720176484</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.08413457817763155</v>
+        <v>0.08063064956639962</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.04282558846730659</v>
+        <v>0.05527445187105684</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.06102935862516389</v>
+        <v>0.02460193548921475</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.005407137210803793</v>
+        <v>0.07800533618474854</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.04102021380995867</v>
+        <v>0.06537890562396609</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1377104483055284</v>
+        <v>0.1384881677294053</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01783277055845036</v>
+        <v>0.02233615899752479</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02254402727687642</v>
+        <v>0.01544665004712274</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06186790944441781</v>
+        <v>0.04349817637206077</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03696166410058603</v>
+        <v>0.002733605240204682</v>
       </c>
       <c r="J40" t="n">
-        <v>0.005449570457211608</v>
+        <v>0.004153438070016027</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01290081093056751</v>
+        <v>0.01724876570959653</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03187037917121251</v>
+        <v>0.06125818626862559</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01112712928985379</v>
+        <v>0.0001044066286330968</v>
       </c>
       <c r="N40" t="n">
-        <v>0.07816490052995241</v>
+        <v>0.05958406321111436</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01653097107715104</v>
+        <v>0.03570007389137445</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01104702086605387</v>
+        <v>0.003808154146602656</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.07592289251073121</v>
+        <v>0.03619529974677758</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02046139997293342</v>
+        <v>0.02581059095257292</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01372198420861694</v>
+        <v>0.02419085808825255</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04522288853516859</v>
+        <v>0.06260497467216129</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0189099870960159</v>
+        <v>0.032371110391146</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04377174576662279</v>
+        <v>0.02395492702020234</v>
       </c>
       <c r="W40" t="n">
-        <v>0.04247203171733004</v>
+        <v>0.05286823702945936</v>
       </c>
       <c r="X40" t="n">
-        <v>0.03916698022620219</v>
+        <v>0.01522307964876643</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.03309461994742323</v>
+        <v>0.07964193425345573</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.02508339770680195</v>
+        <v>0.0132974137144324</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06603058689570973</v>
+        <v>0.0751972174399672</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.06379058465291045</v>
+        <v>0.03284123844550196</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.05897508214652811</v>
+        <v>0.05192203386568128</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.01795054505268508</v>
+        <v>0.02029464226938221</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.06199484434210338</v>
+        <v>0.04705600448129676</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.0182820895541784</v>
+        <v>0.05792061823491169</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.04885118596570519</v>
+        <v>0.08273814116315661</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.03815572633543612</v>
+        <v>0.03990923495873493</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1594944014375092</v>
+        <v>0.1653082405887898</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05183589458825598</v>
+        <v>0.07693298083490138</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03209837871789898</v>
+        <v>0.02487789092408907</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005967444471605887</v>
+        <v>0.004881431168785384</v>
       </c>
       <c r="I41" t="n">
-        <v>0.001848501873164815</v>
+        <v>0.006427578950928928</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02392268423073224</v>
+        <v>0.005916589524984613</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05245485803926413</v>
+        <v>0.07423003480268299</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01123797986871784</v>
+        <v>0.05358549539397352</v>
       </c>
       <c r="M41" t="n">
-        <v>0.003685796106859792</v>
+        <v>0.01806573821874127</v>
       </c>
       <c r="N41" t="n">
-        <v>0.04138363121694904</v>
+        <v>0.04363552692058627</v>
       </c>
       <c r="O41" t="n">
-        <v>0.04662573521697561</v>
+        <v>0.01155109470581227</v>
       </c>
       <c r="P41" t="n">
-        <v>0.05640084394670647</v>
+        <v>0.0424539225154821</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.07678524616888403</v>
+        <v>0.06678280012613701</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01705628293212668</v>
+        <v>0.01368182408974483</v>
       </c>
       <c r="S41" t="n">
-        <v>0.007290134857159105</v>
+        <v>0.02586280271272259</v>
       </c>
       <c r="T41" t="n">
-        <v>0.007182301822342652</v>
+        <v>0.01207023216014071</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07447221066560678</v>
+        <v>0.06305676270111678</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01589603662691512</v>
+        <v>0.04728535880788326</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07817339103639266</v>
+        <v>0.02018228730693272</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01330491364952365</v>
+        <v>0.03718976091848679</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.04248327569596029</v>
+        <v>0.0614338400293573</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04213309326169144</v>
+        <v>0.0659067715290588</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.06024856256464853</v>
+        <v>0.02365899888134502</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01492033088258141</v>
+        <v>0.003845566486811102</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.02813449517272599</v>
+        <v>0.006776846533423567</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.06948002529871559</v>
+        <v>0.06170965628041727</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0857038474781287</v>
+        <v>0.04403618969509512</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.02953936166924933</v>
+        <v>0.07251582352918504</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.009734741940217131</v>
+        <v>0.01144619425117438</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.06896621172762077</v>
+        <v>0.05770758606525871</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1399203793451787</v>
+        <v>0.1358822239895764</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02851467115053778</v>
+        <v>0.06285151549491484</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05625027198840678</v>
+        <v>0.01504664219724036</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05678747777523298</v>
+        <v>0.01240165867449763</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04197047334074402</v>
+        <v>0.006361174866144033</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04646395110196416</v>
+        <v>0.0215345368193442</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001439639545243668</v>
+        <v>0.04599962201328868</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0242429544495472</v>
+        <v>0.01561062576209443</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0001199888752349196</v>
+        <v>0.0005663340664035117</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0407884754936676</v>
+        <v>0.008242040772914768</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01738949545184772</v>
+        <v>0.03558547915903851</v>
       </c>
       <c r="P42" t="n">
-        <v>0.004158342963910755</v>
+        <v>0.08310556903133741</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.04915872347294119</v>
+        <v>0.04967163775190343</v>
       </c>
       <c r="R42" t="n">
-        <v>0.01299582873031029</v>
+        <v>0.06438816784352233</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0003698338239398266</v>
+        <v>0.0006586936419467949</v>
       </c>
       <c r="T42" t="n">
-        <v>0.05924604023689707</v>
+        <v>0.02928118298979149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01660074366249738</v>
+        <v>0.009820668273029725</v>
       </c>
       <c r="V42" t="n">
-        <v>0.06620179453184764</v>
+        <v>0.07489567002547412</v>
       </c>
       <c r="W42" t="n">
-        <v>0.05201429554632754</v>
+        <v>0.01444528767109959</v>
       </c>
       <c r="X42" t="n">
-        <v>0.07259539733377524</v>
+        <v>0.01815527517421293</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.06742861314617167</v>
+        <v>0.01387629426738432</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.06113701397651886</v>
+        <v>0.07235142877114711</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.04750702096711918</v>
+        <v>0.07968959691953856</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.08359281088388068</v>
+        <v>0.05743511842766462</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.007046935123632888</v>
+        <v>0.003466078967493056</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.00853087886478348</v>
+        <v>0.02637285340338646</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.04818540317275742</v>
+        <v>0.0692404043732307</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.01010800990553423</v>
+        <v>0.03599731069295872</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.01915491448472769</v>
+        <v>0.07294913194899767</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.09125619194700892</v>
+        <v>0.07137511914022257</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1497148697450132</v>
+        <v>0.1597883736142001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02937728185437018</v>
+        <v>0.02542889780686684</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0375310711293789</v>
+        <v>0.02435631393843482</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06478765762293498</v>
+        <v>0.01753711880734816</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01417547152443644</v>
+        <v>0.01175146744326423</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0320101695001897</v>
+        <v>0.00846637391450962</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03255040646920471</v>
+        <v>0.0655228000962584</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05634373232196185</v>
+        <v>0.06123678637105631</v>
       </c>
       <c r="M43" t="n">
-        <v>0.002201963999852491</v>
+        <v>0.003149551598651148</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01086933485672789</v>
+        <v>0.02689822903184634</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0662785641173442</v>
+        <v>0.05907618204939279</v>
       </c>
       <c r="P43" t="n">
-        <v>0.001788386593803123</v>
+        <v>0.01790812675016682</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.05037853136362035</v>
+        <v>0.08565503192731026</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07324290418455269</v>
+        <v>0.03288868976525833</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0006049573117636254</v>
+        <v>0.05660102002245452</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01081227616187244</v>
+        <v>0.03337625775874603</v>
       </c>
       <c r="U43" t="n">
-        <v>9.152061350125279e-05</v>
+        <v>0.01140393625798276</v>
       </c>
       <c r="V43" t="n">
-        <v>0.06425697738922072</v>
+        <v>0.004543089026495162</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01068977476926072</v>
+        <v>0.01964914592348883</v>
       </c>
       <c r="X43" t="n">
-        <v>0.06196088875643686</v>
+        <v>0.0872105722227229</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.06729922791047994</v>
+        <v>0.03781731528843389</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.05262860537431699</v>
+        <v>0.07589215144191935</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.03083058267629641</v>
+        <v>0.03420484902358511</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02085375147419266</v>
+        <v>0.0240833531818252</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.02029237164517084</v>
+        <v>0.04923566236851579</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.05459817358916386</v>
+        <v>0.007873456283467207</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.06632296372559325</v>
+        <v>0.0407252428777511</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.01813463466785613</v>
+        <v>0.01828288653316038</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.04908781839649683</v>
+        <v>0.05922549228908785</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06048823161875575</v>
+        <v>0.06945951351875042</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1154035976465351</v>
+        <v>0.1149232185225818</v>
       </c>
       <c r="F44" t="n">
-        <v>0.006050965773079931</v>
+        <v>0.01858549584857888</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04898510505564666</v>
+        <v>0.0377610816955074</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00365342873370048</v>
+        <v>0.01139073457401138</v>
       </c>
       <c r="I44" t="n">
-        <v>0.005227370023567606</v>
+        <v>0.001109188849084934</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03681120460093099</v>
+        <v>0.007212912604258443</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001890747253319232</v>
+        <v>0.008897195377385207</v>
       </c>
       <c r="L44" t="n">
-        <v>0.01000823593996102</v>
+        <v>0.02090177714332296</v>
       </c>
       <c r="M44" t="n">
-        <v>0.008412604848081571</v>
+        <v>0.02779450520068884</v>
       </c>
       <c r="N44" t="n">
-        <v>0.05092958072469724</v>
+        <v>0.06960331340795077</v>
       </c>
       <c r="O44" t="n">
-        <v>0.01335002225644198</v>
+        <v>0.002271248268942628</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07122657115521938</v>
+        <v>0.03845592421554238</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02036658651187349</v>
+        <v>0.00323740133121604</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0565764486951341</v>
+        <v>0.0475464958752985</v>
       </c>
       <c r="S44" t="n">
-        <v>0.02551259284783595</v>
+        <v>0.01087421171533926</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07124631162216902</v>
+        <v>0.0472705850838243</v>
       </c>
       <c r="U44" t="n">
-        <v>0.008410632854918354</v>
+        <v>0.0308106070949749</v>
       </c>
       <c r="V44" t="n">
-        <v>0.06007246612770854</v>
+        <v>0.07820326489700274</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05288383447765388</v>
+        <v>0.01317410757833415</v>
       </c>
       <c r="X44" t="n">
-        <v>0.01762906246849765</v>
+        <v>0.07028565208813443</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01914574859078954</v>
+        <v>0.05921692860935007</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.009286980631065433</v>
+        <v>0.01775673044657746</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07576323957131706</v>
+        <v>0.05655752597601233</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0682765892912242</v>
+        <v>0.06391046601729129</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.06419322882468519</v>
+        <v>0.07497919840121982</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.03629909063679728</v>
+        <v>0.02515140183270054</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0589781791593833</v>
+        <v>0.05723033115277715</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.03252565216508747</v>
+        <v>0.0403578653275382</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.06628751915921331</v>
+        <v>0.05945384938713499</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1059207943399358</v>
+        <v>0.08254840554808492</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1426942627949557</v>
+        <v>0.131329432638403</v>
       </c>
       <c r="F45" t="n">
-        <v>0.006532750698741454</v>
+        <v>0.006562567640023179</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01334876607825775</v>
+        <v>0.01343738899007742</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07487238630180487</v>
+        <v>0.04701802851373683</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02881971088981959</v>
+        <v>0.01931736684248959</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05636802808911585</v>
+        <v>0.05945663870186013</v>
       </c>
       <c r="K45" t="n">
-        <v>0.07700044528555075</v>
+        <v>0.04235381001697035</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05601626653977348</v>
+        <v>0.06455112372892013</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01278762259773927</v>
+        <v>0.0002773585470970768</v>
       </c>
       <c r="N45" t="n">
-        <v>0.006903569216171672</v>
+        <v>0.03064263405208921</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0386213954780102</v>
+        <v>0.04583886330496648</v>
       </c>
       <c r="P45" t="n">
-        <v>0.04280767589343071</v>
+        <v>0.005447489861648175</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.04153572958885265</v>
+        <v>0.04610342301416779</v>
       </c>
       <c r="R45" t="n">
-        <v>0.006803585691151397</v>
+        <v>0.03172446806751126</v>
       </c>
       <c r="S45" t="n">
-        <v>0.003211377927361584</v>
+        <v>0.02119593835540388</v>
       </c>
       <c r="T45" t="n">
-        <v>0.08010582706990042</v>
+        <v>0.06579804267770388</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07879823442304028</v>
+        <v>0.03713837966762295</v>
       </c>
       <c r="V45" t="n">
-        <v>0.03911226670023021</v>
+        <v>0.02231744238702297</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006043333532095786</v>
+        <v>0.052691683403679</v>
       </c>
       <c r="X45" t="n">
-        <v>0.06331862074494898</v>
+        <v>0.06489687727713656</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01954183668661741</v>
+        <v>0.07458795529334969</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01628247536457665</v>
+        <v>0.003996088863230378</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.02642457506864846</v>
+        <v>0.00110353977525977</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01698181252271197</v>
+        <v>0.04503741386497295</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.01133942036744186</v>
+        <v>0.04470134222462697</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.08115937887252501</v>
+        <v>0.05388454825163885</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.04599943293123583</v>
+        <v>0.05183196182751359</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.0009237017607473633</v>
+        <v>0.008007908454693362</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.04833977367949847</v>
+        <v>0.04007971639458764</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1549233433098273</v>
+        <v>0.125015564099229</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.116425314845384</v>
+        <v>0.121617393374491</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001468628659455252</v>
+        <v>0.002159887202146101</v>
       </c>
       <c r="G46" t="n">
-        <v>0.006011538338873891</v>
+        <v>0.04565746728118098</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0009360419521800626</v>
+        <v>0.01529293334059327</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07768931382516965</v>
+        <v>0.00893405344359232</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001199123112655635</v>
+        <v>0.002951031304363872</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07895504230962032</v>
+        <v>0.01177982858330616</v>
       </c>
       <c r="L46" t="n">
-        <v>0.07320908804022234</v>
+        <v>0.05543351124191781</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01627165606765333</v>
+        <v>0.002046084171595088</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05293586120543336</v>
+        <v>0.06666615280164202</v>
       </c>
       <c r="O46" t="n">
-        <v>0.006773912148233982</v>
+        <v>0.01387869111668554</v>
       </c>
       <c r="P46" t="n">
-        <v>0.06312769439258398</v>
+        <v>0.0456689918365671</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02253714103126038</v>
+        <v>0.007051562980265514</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02075270619879131</v>
+        <v>0.02189992138379163</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01859757832329462</v>
+        <v>0.05010191592630683</v>
       </c>
       <c r="T46" t="n">
-        <v>0.09152409412374138</v>
+        <v>0.07891048724288167</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01042763639966106</v>
+        <v>0.01816649774748814</v>
       </c>
       <c r="V46" t="n">
-        <v>0.04682380079127411</v>
+        <v>0.08109534741685175</v>
       </c>
       <c r="W46" t="n">
-        <v>0.02926737267546974</v>
+        <v>0.04839200169431786</v>
       </c>
       <c r="X46" t="n">
-        <v>0.05355493520535562</v>
+        <v>0.06399278845024729</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04002189835731459</v>
+        <v>0.08127639527300495</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.04237169162216379</v>
+        <v>0.04447035448938783</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05989758524479392</v>
+        <v>0.05061125430386152</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01466791547146999</v>
+        <v>0.05079965145032522</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0616015350198771</v>
+        <v>0.01187005983580109</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.005957389188720819</v>
+        <v>0.04199032009370837</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.05739981877404833</v>
+        <v>0.005499158815690052</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.04210269893823231</v>
+        <v>0.04552441802220154</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.003916302582449049</v>
+        <v>0.02787923255027842</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.009063662229627222</v>
+        <v>-0.0185847096237442</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1430759446729351</v>
+        <v>0.131965615476649</v>
       </c>
       <c r="F47" t="n">
-        <v>0.004598146253260629</v>
+        <v>0.001186199143095369</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0005420124041713497</v>
+        <v>0.003490485976340622</v>
       </c>
       <c r="H47" t="n">
-        <v>0.004056827795626846</v>
+        <v>0.01685288279425278</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07206955523786376</v>
+        <v>0.06349364128200785</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04706222519435899</v>
+        <v>0.007469261237306884</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06357695811258107</v>
+        <v>0.07119721565671407</v>
       </c>
       <c r="L47" t="n">
-        <v>0.03815540944913125</v>
+        <v>0.06137597928380698</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02255787166771923</v>
+        <v>0.03522041475688908</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01629397524247405</v>
+        <v>0.03203480920185796</v>
       </c>
       <c r="O47" t="n">
-        <v>0.002746394197918947</v>
+        <v>0.02608866533777583</v>
       </c>
       <c r="P47" t="n">
-        <v>0.08397716116174876</v>
+        <v>0.04346198525326109</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0487122305333874</v>
+        <v>0.0197700062253321</v>
       </c>
       <c r="R47" t="n">
-        <v>0.04518565530901988</v>
+        <v>0.02015812734591306</v>
       </c>
       <c r="S47" t="n">
-        <v>0.08081243753525577</v>
+        <v>0.05670932414155096</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02640769672216522</v>
+        <v>0.05348350958975846</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0480467045890491</v>
+        <v>0.03117576344845115</v>
       </c>
       <c r="V47" t="n">
-        <v>0.02261157990538257</v>
+        <v>0.04044154835137925</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001065462355775624</v>
+        <v>0.05476575142030465</v>
       </c>
       <c r="X47" t="n">
-        <v>0.06686474579402832</v>
+        <v>0.04677618207771934</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0043659202118683</v>
+        <v>0.05529719734941218</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.009484228045752672</v>
+        <v>0.003925273696526984</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.06963218073134117</v>
+        <v>0.05580494652880595</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.04840059764775255</v>
+        <v>0.023457612980018</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.08306869038935195</v>
+        <v>0.04145023436107812</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.05229944679732503</v>
+        <v>0.06535564189812504</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.02864125119494077</v>
+        <v>0.04427358478738055</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.001955695409850777</v>
+        <v>0.001899545378188435</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.006808940110897943</v>
+        <v>0.02338421049674726</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.009540666658945717</v>
+        <v>0.01469345588740302</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1049337548416171</v>
+        <v>0.1047047333460023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01711033013885442</v>
+        <v>0.009179212036819834</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02552386477097076</v>
+        <v>0.03373490799640447</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02793174822917221</v>
+        <v>0.04123003723209302</v>
       </c>
       <c r="I48" t="n">
-        <v>0.002009746184570941</v>
+        <v>0.01304027479455695</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06687092094347637</v>
+        <v>0.03129685654033885</v>
       </c>
       <c r="K48" t="n">
-        <v>0.026111430065567</v>
+        <v>0.03695292579873468</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0246367570914738</v>
+        <v>0.0238045309040959</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01125522559768345</v>
+        <v>0.02147284751176447</v>
       </c>
       <c r="N48" t="n">
-        <v>0.04624033778384135</v>
+        <v>0.04674804167450893</v>
       </c>
       <c r="O48" t="n">
-        <v>0.04211778764200592</v>
+        <v>0.03598794074316989</v>
       </c>
       <c r="P48" t="n">
-        <v>0.00588887351955494</v>
+        <v>0.00156302186341091</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.05704128419448416</v>
+        <v>0.03554887240388598</v>
       </c>
       <c r="R48" t="n">
-        <v>0.007622344848113241</v>
+        <v>0.05471480091388247</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04519312168649758</v>
+        <v>0.01512586430218743</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06752217618508136</v>
+        <v>0.05181129999566976</v>
       </c>
       <c r="U48" t="n">
-        <v>0.001335202657754627</v>
+        <v>0.01918961939223798</v>
       </c>
       <c r="V48" t="n">
-        <v>0.05032745645420619</v>
+        <v>0.05086607450906395</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05527255827600729</v>
+        <v>0.05630172081079717</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04904453274420304</v>
+        <v>0.04090301842138033</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.04661995392959461</v>
+        <v>0.0417376385136452</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.008694966523105471</v>
+        <v>0.04363037321466808</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.04312753663370589</v>
+        <v>0.03619271400993562</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.03493126211204788</v>
+        <v>0.05537039278991002</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06021401122401353</v>
+        <v>0.04949374314782376</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.04377696589194207</v>
+        <v>0.04329568586101597</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.06489328011195922</v>
+        <v>0.04461935508093121</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.02465863848394913</v>
+        <v>0.01090963327667323</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.04402768607616377</v>
+        <v>0.05527859626039387</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.01332839364001415</v>
+        <v>0.009517001786506489</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1211569444107993</v>
+        <v>0.1374695631820472</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07060630149441309</v>
+        <v>0.0773928135772478</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05195840572827087</v>
+        <v>0.01064723092486309</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00260364757122215</v>
+        <v>0.04573733764875833</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02850342729806366</v>
+        <v>0.03493155745948349</v>
       </c>
       <c r="J49" t="n">
-        <v>0.07549127486233445</v>
+        <v>0.03532783989893638</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07081996836055203</v>
+        <v>0.06706741922754343</v>
       </c>
       <c r="L49" t="n">
-        <v>0.009845170841749386</v>
+        <v>0.07050668781635978</v>
       </c>
       <c r="M49" t="n">
-        <v>0.03258244896131746</v>
+        <v>0.05115197983637908</v>
       </c>
       <c r="N49" t="n">
-        <v>0.00156393086705494</v>
+        <v>0.0220029967905515</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02173476804069738</v>
+        <v>0.007716350967568322</v>
       </c>
       <c r="P49" t="n">
-        <v>0.003591543915191564</v>
+        <v>0.003690844392346942</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0110082376027589</v>
+        <v>0.02355852657954915</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01216686016280725</v>
+        <v>0.04841847646778587</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02572592817781341</v>
+        <v>0.04104261718661158</v>
       </c>
       <c r="T49" t="n">
-        <v>0.07037834998940434</v>
+        <v>0.07414835167949381</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0089147204066592</v>
+        <v>0.001035069779169278</v>
       </c>
       <c r="V49" t="n">
-        <v>0.06831776555100903</v>
+        <v>0.02773079337617047</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03977665671234873</v>
+        <v>0.04105221698409366</v>
       </c>
       <c r="X49" t="n">
-        <v>0.06235232343943098</v>
+        <v>0.0257195667322709</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.07354475463087616</v>
+        <v>0.03899226460574524</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02536191357690678</v>
+        <v>0.05221764953644572</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.062918344513035</v>
+        <v>0.06399916388421434</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.0674528771890926</v>
+        <v>0.04231403904672933</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.02576461600450188</v>
+        <v>0.002190065413308925</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.02953431730953026</v>
+        <v>0.0009900081045761775</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.03310310750895623</v>
+        <v>0.01568909218423704</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.008409435026998433</v>
+        <v>0.002695088607739214</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.005968904257003731</v>
+        <v>0.07203395129182115</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.008624152767460154</v>
+        <v>-0.008092832778719163</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1162258141510334</v>
+        <v>0.1152912622139463</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01444127250459762</v>
+        <v>0.02498700015202078</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04471672176803905</v>
+        <v>0.008465972989050063</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04125675012202074</v>
+        <v>0.03443339980539181</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00825997072205498</v>
+        <v>0.02054910610265991</v>
       </c>
       <c r="J50" t="n">
-        <v>0.025107647130752</v>
+        <v>0.01974743941031899</v>
       </c>
       <c r="K50" t="n">
-        <v>0.000777214937076522</v>
+        <v>0.002686872140104906</v>
       </c>
       <c r="L50" t="n">
-        <v>0.03815350082558536</v>
+        <v>0.04480443375154496</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03240742710261445</v>
+        <v>0.02546100228066192</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0603237413385322</v>
+        <v>0.06463329018494719</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01777565569441757</v>
+        <v>0.03058543309879262</v>
       </c>
       <c r="P50" t="n">
-        <v>0.04283931581039918</v>
+        <v>0.03175467636305575</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.07198186171771326</v>
+        <v>0.003753666114050042</v>
       </c>
       <c r="R50" t="n">
-        <v>0.02397842278413997</v>
+        <v>0.08022662856173353</v>
       </c>
       <c r="S50" t="n">
-        <v>0.02526160799422023</v>
+        <v>0.01533860028493725</v>
       </c>
       <c r="T50" t="n">
-        <v>0.03560591734195605</v>
+        <v>0.03971482896318197</v>
       </c>
       <c r="U50" t="n">
-        <v>0.00368050342166321</v>
+        <v>0.04456259568969725</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05882593906640115</v>
+        <v>0.08201244817209974</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06847971239966036</v>
+        <v>0.08569509704323165</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07191677117143438</v>
+        <v>0.06067622881146972</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.08996733320135465</v>
+        <v>0.03696506495488443</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.582312329181033e-05</v>
+        <v>0.003360698380646337</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.01123005688774702</v>
+        <v>0.04665660583345002</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02220274471586961</v>
+        <v>0.03501960497071004</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.02915439314520662</v>
+        <v>0.0453838746350554</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.06154617163540219</v>
+        <v>0.0003962216890865281</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.02735269035713879</v>
+        <v>0.02376550160465803</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.04811707663858221</v>
+        <v>0.07286154657835096</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.02462375644212888</v>
+        <v>0.01550216143420819</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1139670845158908</v>
+        <v>0.1211209840834479</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1417785596810575</v>
+        <v>0.1436468783243138</v>
       </c>
       <c r="F51" t="n">
-        <v>0.009440968437506666</v>
+        <v>0.07283940410567787</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00668704507756374</v>
+        <v>0.0187262736190783</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02104364355036347</v>
+        <v>0.04015851529671002</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01672403531096311</v>
+        <v>0.01504646400374457</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01371832005305307</v>
+        <v>0.03672109514732162</v>
       </c>
       <c r="K51" t="n">
-        <v>0.03103458390086328</v>
+        <v>0.02955867058061911</v>
       </c>
       <c r="L51" t="n">
-        <v>0.09518015938421046</v>
+        <v>0.05187095829720309</v>
       </c>
       <c r="M51" t="n">
-        <v>0.003429254676550683</v>
+        <v>0.006174325813868486</v>
       </c>
       <c r="N51" t="n">
-        <v>0.09076570350666505</v>
+        <v>0.06045238737073801</v>
       </c>
       <c r="O51" t="n">
-        <v>0.005433024267972072</v>
+        <v>0.01320170864971589</v>
       </c>
       <c r="P51" t="n">
-        <v>0.05818212763165623</v>
+        <v>0.07230730914635264</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02758541205051154</v>
+        <v>0.06899507451192699</v>
       </c>
       <c r="R51" t="n">
-        <v>0.005521428107383901</v>
+        <v>0.01922214107458333</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02340581965717828</v>
+        <v>0.05734838146651886</v>
       </c>
       <c r="T51" t="n">
-        <v>0.07246607558983144</v>
+        <v>0.04387546902147065</v>
       </c>
       <c r="U51" t="n">
-        <v>0.01336844113647778</v>
+        <v>0.01306297656403943</v>
       </c>
       <c r="V51" t="n">
-        <v>0.07757078700382322</v>
+        <v>0.03414691888223418</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02561388127656549</v>
+        <v>0.05216117308602911</v>
       </c>
       <c r="X51" t="n">
-        <v>0.002514452522628485</v>
+        <v>0.005936931019670702</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.002799163983236396</v>
+        <v>0.07805510185352862</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.00810664241037088</v>
+        <v>0.005288144893175882</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.1059510001776222</v>
+        <v>0.03546146628140715</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.1077037136904249</v>
+        <v>0.02679134444938738</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0109806126038995</v>
+        <v>0.0142664187554481</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.06471648147443985</v>
+        <v>0.03840471444096923</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.02916139976056297</v>
+        <v>0.02028196158157006</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.02443865964049707</v>
+        <v>0.004118336326567077</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.04645716311717824</v>
+        <v>0.06552633376044366</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1469925633573366</v>
+        <v>0.1583066076119766</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1276980879434081</v>
+        <v>0.1268797250601018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0337800444752093</v>
+        <v>0.07124351374325019</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0005000564558025132</v>
+        <v>0.003707624780938975</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03874235251169376</v>
+        <v>0.02040839919467456</v>
       </c>
       <c r="I52" t="n">
-        <v>0.006429552008323456</v>
+        <v>0.00962740025678795</v>
       </c>
       <c r="J52" t="n">
-        <v>6.45580636685174e-05</v>
+        <v>0.01077135554932717</v>
       </c>
       <c r="K52" t="n">
-        <v>0.006773166115114512</v>
+        <v>0.0006890928186931452</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0312100367199749</v>
+        <v>0.02596893799612466</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08081447740348519</v>
+        <v>0.01302411775227803</v>
       </c>
       <c r="N52" t="n">
-        <v>0.05537244514888132</v>
+        <v>0.04788106484364295</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05048315766819999</v>
+        <v>0.003278281322525676</v>
       </c>
       <c r="P52" t="n">
-        <v>0.006821084656918338</v>
+        <v>0.03411326341398742</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.05719925923983665</v>
+        <v>0.06452876062009287</v>
       </c>
       <c r="R52" t="n">
-        <v>0.07636283642725633</v>
+        <v>0.01226481437899949</v>
       </c>
       <c r="S52" t="n">
-        <v>0.02144096725128412</v>
+        <v>0.07885374915538836</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06591526889694753</v>
+        <v>0.05051801572017327</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0461650482377404</v>
+        <v>0.004205833830026894</v>
       </c>
       <c r="V52" t="n">
-        <v>0.08908669492433603</v>
+        <v>0.06343394732900305</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01167110807304616</v>
+        <v>0.06091521277826963</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0129193334178772</v>
+        <v>0.007388110475353611</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0005517710108993416</v>
+        <v>0.006824670990947066</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01399739292951373</v>
+        <v>0.009886549480546184</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.07235703494517</v>
+        <v>0.05209238843080478</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.04388674790529339</v>
+        <v>0.07317994065209776</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.05395370431368859</v>
+        <v>0.03640797031515637</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.04450820668153915</v>
+        <v>0.0475697946715128</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.06623255657192292</v>
+        <v>0.05808753353122271</v>
       </c>
       <c r="AF52" t="n">
-        <v>7.091218409052362e-05</v>
+        <v>0.05766441510521163</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.01269022576228592</v>
+        <v>0.07546524086296293</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.06133345414522084</v>
+        <v>0.08814188728498154</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1303543072936177</v>
+        <v>0.1411045321645882</v>
       </c>
       <c r="F53" t="n">
-        <v>0.009077817576105967</v>
+        <v>0.01788893342511427</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06599088603748927</v>
+        <v>0.02563818742782016</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05159699125680568</v>
+        <v>0.0328277624369288</v>
       </c>
       <c r="I53" t="n">
-        <v>0.006713985672392825</v>
+        <v>0.008557301369806394</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04592512253629668</v>
+        <v>0.0655584145373599</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01478485609890471</v>
+        <v>0.03722584871021244</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05885482952283762</v>
+        <v>0.07253181539754006</v>
       </c>
       <c r="M53" t="n">
-        <v>0.008839886566020133</v>
+        <v>0.02234175244921699</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02507685516469067</v>
+        <v>0.07133301253724139</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02494865046232943</v>
+        <v>0.05566839408988774</v>
       </c>
       <c r="P53" t="n">
-        <v>0.05156204491043843</v>
+        <v>0.06012865925162932</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.07546352805461277</v>
+        <v>0.02779676019401452</v>
       </c>
       <c r="R53" t="n">
-        <v>0.003094719755014401</v>
+        <v>0.02779293925530747</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01971455885976535</v>
+        <v>0.001400257141036305</v>
       </c>
       <c r="T53" t="n">
-        <v>0.06831781716585314</v>
+        <v>0.02525870715820171</v>
       </c>
       <c r="U53" t="n">
-        <v>0.006553279240630767</v>
+        <v>0.01409553067172866</v>
       </c>
       <c r="V53" t="n">
-        <v>0.03535258523634307</v>
+        <v>0.02062121728084291</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01770689196126812</v>
+        <v>0.04509675914085003</v>
       </c>
       <c r="X53" t="n">
-        <v>0.00478526048812748</v>
+        <v>0.009408225097821644</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.06352372706335997</v>
+        <v>0.06581963154317906</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.004568935947043364</v>
+        <v>0.02021979901963218</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.06865963474506384</v>
+        <v>0.06721292985317401</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0774317844347745</v>
+        <v>0.074673859999663</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.02869961330987512</v>
+        <v>0.02133097339709465</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.03889311096252637</v>
+        <v>0.006151046999698407</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.05997752984912821</v>
+        <v>0.01038770163333716</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.005544875358171783</v>
+        <v>0.03509514606049884</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.05834022176413036</v>
+        <v>0.05793843392116191</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.07191540232713116</v>
+        <v>0.05663937652428736</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1480785516720948</v>
+        <v>0.1531244401755056</v>
       </c>
       <c r="F54" t="n">
-        <v>0.002088857249454071</v>
+        <v>0.02169632399436851</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07845635844328333</v>
+        <v>0.05734784466182079</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0028373291380067</v>
+        <v>0.01292245402966388</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06642727302016041</v>
+        <v>0.04115180328013898</v>
       </c>
       <c r="J54" t="n">
-        <v>0.03750724807395487</v>
+        <v>0.003243350575995326</v>
       </c>
       <c r="K54" t="n">
-        <v>0.003486891495314851</v>
+        <v>0.001678548275745963</v>
       </c>
       <c r="L54" t="n">
-        <v>0.007958179124049723</v>
+        <v>0.005083675667085583</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01868068066065451</v>
+        <v>0.03612448123707229</v>
       </c>
       <c r="N54" t="n">
-        <v>0.005183794668030041</v>
+        <v>0.008019787174261188</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01870987404067828</v>
+        <v>0.01573154269359161</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04465844936948592</v>
+        <v>0.06797652314640054</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02626124177247267</v>
+        <v>0.06149036651518534</v>
       </c>
       <c r="R54" t="n">
-        <v>0.08850276816346074</v>
+        <v>0.03840776829388978</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03759662254451055</v>
+        <v>0.033746497973384</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0679879536610279</v>
+        <v>0.06098644487123937</v>
       </c>
       <c r="U54" t="n">
-        <v>0.008830863447575181</v>
+        <v>0.02703769691346493</v>
       </c>
       <c r="V54" t="n">
-        <v>0.08311755725212633</v>
+        <v>0.0176396247633244</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01311584348717448</v>
+        <v>0.0639356547694632</v>
       </c>
       <c r="X54" t="n">
-        <v>0.09069654337644031</v>
+        <v>0.03453233053884869</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.007419052022859817</v>
+        <v>0.0676823505086819</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.001985987466796615</v>
+        <v>0.0613305588106789</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.02588968447399685</v>
+        <v>0.009505893787512083</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01611823524815963</v>
+        <v>0.005181200211553852</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.002702748351390427</v>
+        <v>0.06897248729576554</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.04419225231802498</v>
+        <v>0.04300669396652478</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.05277127701289261</v>
+        <v>0.06762750798466208</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.09065110503998391</v>
+        <v>0.02598822952722885</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.05616532907803422</v>
+        <v>0.04195235853244749</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1460671901562591</v>
+        <v>-0.1048322649155554</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1651977173479476</v>
+        <v>0.1869885787708246</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05594585694726893</v>
+        <v>0.05815117345885674</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07402634845270371</v>
+        <v>0.03500992215173956</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04082706294618086</v>
+        <v>0.02214843876867313</v>
       </c>
       <c r="I55" t="n">
-        <v>0.004894689489074473</v>
+        <v>0.006124414866344264</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06474994356549406</v>
+        <v>0.002592886539477951</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0171660705374272</v>
+        <v>0.01166494030529491</v>
       </c>
       <c r="L55" t="n">
-        <v>0.001257333862090662</v>
+        <v>0.01278111285689377</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06020566886650589</v>
+        <v>0.01148676976207651</v>
       </c>
       <c r="N55" t="n">
-        <v>0.004111193975652736</v>
+        <v>0.03037094130137663</v>
       </c>
       <c r="O55" t="n">
-        <v>0.05161011586055943</v>
+        <v>0.0602913938243495</v>
       </c>
       <c r="P55" t="n">
-        <v>0.06323348270396993</v>
+        <v>0.05770405713687209</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.009163185153163377</v>
+        <v>0.04979756159516264</v>
       </c>
       <c r="R55" t="n">
-        <v>0.06363319289188453</v>
+        <v>0.0213376694946826</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04611697760809259</v>
+        <v>0.05827063883609262</v>
       </c>
       <c r="T55" t="n">
-        <v>0.05034187106725817</v>
+        <v>0.01697955025970964</v>
       </c>
       <c r="U55" t="n">
-        <v>0.009833431213406248</v>
+        <v>0.05272960179226847</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01001276034005026</v>
+        <v>0.01307521541511591</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02926634918023974</v>
+        <v>0.01581176311466338</v>
       </c>
       <c r="X55" t="n">
-        <v>0.01569932950062571</v>
+        <v>0.02187336987902829</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.03328979499661473</v>
+        <v>0.0792610310089603</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.078880804617498</v>
+        <v>0.07463369963513469</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01401372675501107</v>
+        <v>0.05262050232790057</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.02966204962043629</v>
+        <v>0.02978768824033705</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.04946798439230104</v>
+        <v>0.05803594376890878</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.002877219836177503</v>
+        <v>0.06248456649425824</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.06377756687818882</v>
+        <v>0.0032220478127657</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.0104577206140624</v>
+        <v>0.002659590146663282</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.04547826812806165</v>
+        <v>0.07909350920639276</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.06393294425322682</v>
+        <v>-0.06706356776482356</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2228920923493804</v>
+        <v>0.2234692561210454</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001583420325880416</v>
+        <v>0.03129392534182159</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04567357330148483</v>
+        <v>0.07809345376380929</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001001626276868168</v>
+        <v>0.006306628138154552</v>
       </c>
       <c r="I56" t="n">
-        <v>0.001871962991533115</v>
+        <v>0.01618140591128428</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0352655878689384</v>
+        <v>0.02002948591957076</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0204686315466243</v>
+        <v>0.03296872200862117</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05906695666164064</v>
+        <v>0.01314949841374653</v>
       </c>
       <c r="M56" t="n">
-        <v>0.005163465456311364</v>
+        <v>0.01358397879258362</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01195806286802385</v>
+        <v>0.02093745377436736</v>
       </c>
       <c r="O56" t="n">
-        <v>0.04048747315421518</v>
+        <v>0.01176209561323622</v>
       </c>
       <c r="P56" t="n">
-        <v>0.01216836919522026</v>
+        <v>0.06799573388017366</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.05230735586747392</v>
+        <v>0.04026731662709</v>
       </c>
       <c r="R56" t="n">
-        <v>0.05106196067129627</v>
+        <v>0.01384813011020751</v>
       </c>
       <c r="S56" t="n">
-        <v>0.00170384561350672</v>
+        <v>0.003171277942664461</v>
       </c>
       <c r="T56" t="n">
-        <v>0.06107804591375453</v>
+        <v>0.02796879521443039</v>
       </c>
       <c r="U56" t="n">
-        <v>0.01823692806445389</v>
+        <v>0.005476406962826076</v>
       </c>
       <c r="V56" t="n">
-        <v>0.06002321335473258</v>
+        <v>0.0759741600073405</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07082835657396674</v>
+        <v>0.002332972996302503</v>
       </c>
       <c r="X56" t="n">
-        <v>0.07781065477378929</v>
+        <v>0.02354064997707249</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05156233617222049</v>
+        <v>0.07616561438395857</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.04388662190457061</v>
+        <v>0.06831783118094331</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01184260937232891</v>
+        <v>0.07724698418262008</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.05304086049248657</v>
+        <v>0.01788555119882547</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.07392077011871942</v>
+        <v>0.002816236054243847</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.03599384272822499</v>
+        <v>0.04941493376652929</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.05873129337991164</v>
+        <v>0.08565542690089228</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.006700008637869523</v>
+        <v>0.03194543601971399</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.03656216671395362</v>
+        <v>0.08566989491697041</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1477363827382275</v>
+        <v>0.1472916104119313</v>
       </c>
     </row>
     <row r="57">
@@ -6670,94 +6670,94 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2584596358493814</v>
+        <v>0.2603347361399584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07943522386310925</v>
+        <v>0.05745602328196422</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0521129439326512</v>
+        <v>0.001747262951726269</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05846038414387821</v>
+        <v>0.02470864045638164</v>
       </c>
       <c r="I57" t="n">
-        <v>0.008617819046938768</v>
+        <v>0.0006111060150813364</v>
       </c>
       <c r="J57" t="n">
-        <v>0.007753069620230386</v>
+        <v>0.0009876353796339668</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05779487848685826</v>
+        <v>0.05678723866693186</v>
       </c>
       <c r="L57" t="n">
-        <v>0.005581131412693075</v>
+        <v>0.02162345234656001</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01228757268855144</v>
+        <v>0.003197617710411299</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0560235410765551</v>
+        <v>0.02341467890095317</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0158568888024121</v>
+        <v>0.07282743749332375</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01110219517812709</v>
+        <v>0.04388480688888287</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.002059058402164602</v>
+        <v>0.02765129164711113</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01734177236545004</v>
+        <v>0.01663223050371893</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0545965705257109</v>
+        <v>0.05196769258357783</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01570042144702475</v>
+        <v>0.01978771487554655</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02470266847682434</v>
+        <v>0.08907401436275243</v>
       </c>
       <c r="V57" t="n">
-        <v>0.03807324681638969</v>
+        <v>0.02722906951697884</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02811186518925091</v>
+        <v>0.03785642304146163</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04442963634755184</v>
+        <v>0.03395138816608538</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01508196951970405</v>
+        <v>0.01464258000969532</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.07149762489335336</v>
+        <v>0.07996097161480541</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.03381431258610183</v>
+        <v>0.03750688395436658</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.05568488137222434</v>
+        <v>0.07588284165806078</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.02205049461582332</v>
+        <v>0.007107645011334669</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.08599163036885604</v>
+        <v>0.03676848173576712</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.03820616465039915</v>
+        <v>0.05324016132673571</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.01455066800873881</v>
+        <v>0.01869946152919277</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.07308136616242712</v>
+        <v>0.06479524837095846</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1650325479764068</v>
+        <v>0.1745713732693138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1046831200218389</v>
+        <v>0.1037515160282486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01203085157690504</v>
+        <v>0.005661882014636567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04583309086899807</v>
+        <v>0.03912728003511438</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02912872463963667</v>
+        <v>0.003096347199869662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005070255925731276</v>
+        <v>0.006062690857099953</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06779116377245996</v>
+        <v>0.07050121812886526</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001671016570504233</v>
+        <v>0.002793456149513032</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007898074545967148</v>
+        <v>0.01167470422467022</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007165425791496709</v>
+        <v>0.06716613074378801</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03158230707528427</v>
+        <v>0.02099722101768004</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01112131298272529</v>
+        <v>0.0129167630617739</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01198882340640646</v>
+        <v>0.02742863733186022</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03505257845399678</v>
+        <v>0.09496167563362388</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04024989014782438</v>
+        <v>0.01239575225039457</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07515606253991591</v>
+        <v>0.02849942419022734</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01636724953530168</v>
+        <v>0.0843389892843307</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02351512503383772</v>
+        <v>0.07734868924559775</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07478918983393192</v>
+        <v>0.06350987728555604</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04065829634412384</v>
+        <v>0.00830671484403833</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04762347664658093</v>
+        <v>0.02286867203580806</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0218632071474245</v>
+        <v>0.009194487779849372</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04487599222028736</v>
+        <v>0.02775933836979968</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07532033180168139</v>
+        <v>0.0473384046538747</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05899806843137037</v>
+        <v>0.04149063368052713</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0324665021471242</v>
+        <v>0.01878075861623969</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.07344872587156331</v>
+        <v>0.0215198272658698</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06258466598331312</v>
+        <v>0.06717912833344626</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03627900915677357</v>
+        <v>0.03451264234669836</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.009470581548833871</v>
+        <v>0.07256865341924718</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.06603978468115329</v>
+        <v>0.06374189416929597</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1191800939717156</v>
+        <v>0.1210511714150826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002168874727569395</v>
+        <v>0.001809346670497265</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01046203933482156</v>
+        <v>0.002148095262377446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07374508980257723</v>
+        <v>0.03254493934940766</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003458964482730365</v>
+        <v>0.01397122673418907</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006936130308045166</v>
+        <v>0.05613758635624317</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02617725934862522</v>
+        <v>0.02318760198841923</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05374651796100439</v>
+        <v>0.05622744577908788</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02136937558430996</v>
+        <v>0.01523811601737606</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04782336334612558</v>
+        <v>0.02009206407054338</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01633276863150591</v>
+        <v>0.01820363488012194</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009722517680905388</v>
+        <v>0.02213546612647923</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07344988737414342</v>
+        <v>0.007864784371684044</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01004925118987997</v>
+        <v>0.009605648700191052</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01741471330055054</v>
+        <v>0.04600234581094177</v>
       </c>
       <c r="T3" t="n">
-        <v>0.036045707489687</v>
+        <v>0.03631485920329721</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06554994406820969</v>
+        <v>0.0591985311361269</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0211312440308825</v>
+        <v>0.06835904508667609</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08133707864417171</v>
+        <v>0.07722646258801197</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02559209363954843</v>
+        <v>0.01719434314118754</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03322852166213559</v>
+        <v>0.06418935573172094</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03167935346442936</v>
+        <v>0.05887902142608509</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03132255585244504</v>
+        <v>0.07701258283861451</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08205984997316035</v>
+        <v>0.01951383570597784</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.07300287425103594</v>
+        <v>0.03950360196274207</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0770455003361343</v>
+        <v>0.06202373389049463</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06533831542332347</v>
+        <v>0.08159168821708117</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.289528573685479e-05</v>
+        <v>0.01224787672286305</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.003727312806305668</v>
+        <v>0.001576760231561717</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05325878423939615</v>
+        <v>0.07280974543165851</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1184803066795852</v>
+        <v>0.1171350707845752</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03302174414080046</v>
+        <v>0.01737436920913572</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002241851013821426</v>
+        <v>0.04667611964394517</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008510473852840528</v>
+        <v>0.01281128211691535</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02524722896660598</v>
+        <v>0.003696583543112195</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0235161951749863</v>
+        <v>0.04507691596988623</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0381957663499297</v>
+        <v>0.01836555575874843</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02114940744390263</v>
+        <v>0.04620782463963964</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01099781016315779</v>
+        <v>0.0006799458424778298</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0261709520974542</v>
+        <v>0.03891899444595161</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02405664598114957</v>
+        <v>0.002527650135082331</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04006169390009066</v>
+        <v>0.03335733468174477</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01244596169598619</v>
+        <v>0.01049376049292336</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06917428564608387</v>
+        <v>0.06177988023317504</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05302421106509767</v>
+        <v>0.05923332241114421</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05739688649763645</v>
+        <v>0.01860853638623318</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03724791907837137</v>
+        <v>0.06882836026392314</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0003702851829407165</v>
+        <v>0.006291734876925702</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06405883787712845</v>
+        <v>0.01532353690490594</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05879988832286834</v>
+        <v>0.05467745535048551</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03754702446158819</v>
+        <v>0.05124269819710114</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05135244385301203</v>
+        <v>0.07143932022795656</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05719288471797775</v>
+        <v>0.06823161548090541</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06694816447534642</v>
+        <v>0.05835068160934021</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001079411906681816</v>
+        <v>0.0201431210185234</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0519317936301467</v>
+        <v>0.06467103734583349</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02613536023383148</v>
+        <v>0.04986415652240953</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.05796114949501736</v>
+        <v>0.01147338006690263</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.04416372277554615</v>
+        <v>0.04365482662467218</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.05107971399761535</v>
+        <v>0.03001691309245777</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1480239143092792</v>
+        <v>0.1419701538728003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06355323292401203</v>
+        <v>0.08272448967873693</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001152299026996584</v>
+        <v>0.03767356486711654</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05339968989512765</v>
+        <v>0.01228092342869722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03374070218450091</v>
+        <v>0.02352838453978252</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05374732461594965</v>
+        <v>0.03767057376317232</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0507963289199205</v>
+        <v>0.03670069439681456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06387626083666242</v>
+        <v>0.08374879924514836</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01426622035849545</v>
+        <v>0.008904527975171359</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05093008532702094</v>
+        <v>0.02852190341102311</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06742065648863514</v>
+        <v>0.0742806718129905</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004531815469956626</v>
+        <v>0.01492988087703422</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02009367965982457</v>
+        <v>0.006015167095756593</v>
       </c>
       <c r="R5" t="n">
-        <v>0.022336211599171</v>
+        <v>0.07040108881983929</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01745282764703999</v>
+        <v>0.02362881292677281</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06413770763603385</v>
+        <v>0.007746567689700796</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007048545940694882</v>
+        <v>0.003202996236044274</v>
       </c>
       <c r="V5" t="n">
-        <v>0.003414194943264308</v>
+        <v>0.008020106596381346</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008512775618827104</v>
+        <v>0.05740112694683812</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04243250254535744</v>
+        <v>0.01677023921932397</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02719751902656495</v>
+        <v>0.08531254951452583</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06998984930717607</v>
+        <v>0.02535328819390458</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05244717820136475</v>
+        <v>0.03181193087662661</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.004766603064288426</v>
+        <v>0.03129864203330845</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02929155379231695</v>
+        <v>0.03775805424224513</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0584805260649199</v>
+        <v>0.03608445004506662</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.06672034403212022</v>
+        <v>0.03549412418554822</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04684325341664488</v>
+        <v>0.01915459109193676</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001420111457112941</v>
+        <v>0.06358185029049274</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.05787459370931597</v>
+        <v>0.06997522669065702</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1151836719965478</v>
+        <v>0.1136623805509887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01609195309708167</v>
+        <v>0.008585798148268882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06967553008345707</v>
+        <v>0.09037414332188974</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006691495413949517</v>
+        <v>0.006139285670134882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05833108702447063</v>
+        <v>0.06405308959916935</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02214653052924821</v>
+        <v>0.001352432304524605</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003645005606530756</v>
+        <v>0.01533711495702214</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05827838601610743</v>
+        <v>0.01219521268338105</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03774639204596661</v>
+        <v>0.02442088285292193</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04592921010104865</v>
+        <v>0.01354363695380217</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00256420426373094</v>
+        <v>0.02191246556588914</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001227711023897271</v>
+        <v>0.0004783326959318084</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.07806624911726119</v>
+        <v>0.08911251210554427</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07402685117594188</v>
+        <v>0.03423026216381094</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02056482627261678</v>
+        <v>0.01527121098071186</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06187745895398295</v>
+        <v>0.0558059512299643</v>
       </c>
       <c r="U6" t="n">
-        <v>0.008250609307769828</v>
+        <v>0.02197668646775403</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04392172916395513</v>
+        <v>0.0686758769930557</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01071116765493368</v>
+        <v>0.02568124815346769</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01721120284415271</v>
+        <v>0.03730111253741476</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.009594022228735673</v>
+        <v>0.03470449567199658</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02537129996850127</v>
+        <v>0.01482554241158356</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05174709315560058</v>
+        <v>0.06187535502706681</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04927195962340324</v>
+        <v>0.08032994253052307</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03810797090585789</v>
+        <v>0.06585766172124385</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05840901162227611</v>
+        <v>0.01756951035077246</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03226103604575924</v>
+        <v>0.01349033813447998</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04449602880600008</v>
+        <v>0.08666208815065132</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.05706448299364061</v>
+        <v>0.01823781061702306</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1193263051722239</v>
+        <v>-0.1265854152322287</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1451672210462567</v>
+        <v>0.1448570892728566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07723443103571356</v>
+        <v>0.1011530403771117</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01740702576644086</v>
+        <v>0.02460997124612771</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007044003884566593</v>
+        <v>0.1027263840568305</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05338429006837127</v>
+        <v>0.006526728755032445</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01638547781251131</v>
+        <v>0.04225628620253752</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05256600724354828</v>
+        <v>0.01791098101719113</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0277484871257681</v>
+        <v>0.007794890139133337</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06803881840010624</v>
+        <v>0.08737773621777914</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02722026641092409</v>
+        <v>0.01155817674762739</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002852547090834805</v>
+        <v>0.02692570614233059</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01767235899166913</v>
+        <v>0.007069625901471092</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01630034164216806</v>
+        <v>0.08035293036362486</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07980176970053565</v>
+        <v>0.07786939525886329</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05526200950237137</v>
+        <v>0.05571224454919905</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02052431235749077</v>
+        <v>0.007256278092636546</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01435128368263678</v>
+        <v>0.0111237344824443</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07290972266631737</v>
+        <v>0.001316624187242833</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05792988293415116</v>
+        <v>0.01031197098221217</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02919039855315879</v>
+        <v>0.01988396503634202</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01816676776581734</v>
+        <v>0.06744569756765974</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04075197015102424</v>
+        <v>0.04650176698457575</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.05935526808151668</v>
+        <v>0.03582869247372286</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07995273152178832</v>
+        <v>0.04375342396407254</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02281501948716283</v>
+        <v>0.004217124956158847</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.03237240750168339</v>
+        <v>0.03867716836075235</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02509678798210585</v>
+        <v>0.02322967434782569</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001112534917309381</v>
+        <v>0.02473161771461518</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.006553077722307755</v>
+        <v>0.01587816387487929</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1102156219180547</v>
+        <v>-0.137181892050301</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1491377680525363</v>
+        <v>0.1485634029090868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002919482005998326</v>
+        <v>0.01820431318405425</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07732107393140206</v>
+        <v>0.04870987845403184</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03027515024588438</v>
+        <v>0.0006255732326857695</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005133098785098141</v>
+        <v>0.02526764465519957</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08159483817707752</v>
+        <v>0.008687357515991284</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008836956002513639</v>
+        <v>0.02302415037828726</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005632920333927391</v>
+        <v>0.03047001070527859</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07875548566942442</v>
+        <v>0.01355501253590167</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07976431936373266</v>
+        <v>0.06839274307150424</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01206351575710292</v>
+        <v>0.01799200443279469</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07462451156618838</v>
+        <v>0.04404194147531579</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004095175448077869</v>
+        <v>0.01068417042710873</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03222085262717092</v>
+        <v>0.02762221321845946</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01916881722625044</v>
+        <v>0.0349928047231844</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008518205407334844</v>
+        <v>0.04948793610238723</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0184486318852173</v>
+        <v>0.0175344328735002</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07194367242003839</v>
+        <v>0.06306088658677407</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0416139807281193</v>
+        <v>0.03008077152000938</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02805526698141438</v>
+        <v>0.06669983608333603</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002029489363624007</v>
+        <v>0.03552266281434282</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0543357367352188</v>
+        <v>0.07956422107458475</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02882002962935161</v>
+        <v>0.03950407231981241</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06151572397293786</v>
+        <v>0.03347017105089389</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.04258200409724315</v>
+        <v>0.00263765572822241</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.005735929550378298</v>
+        <v>0.002875891161646162</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.04528640991312354</v>
+        <v>0.04520255447063976</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.005338878760263627</v>
+        <v>0.07887462279709592</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.07336984341588572</v>
+        <v>0.08321446740695761</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1813451552608865</v>
+        <v>-0.2037904830513343</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1921986495416882</v>
+        <v>0.1773847245710289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08639881666649307</v>
+        <v>0.09494151462572382</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00315596645829471</v>
+        <v>0.05059707490296766</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004527807452657819</v>
+        <v>0.01828252418364099</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02295983012562729</v>
+        <v>0.007569194817593189</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04851220282740074</v>
+        <v>0.06529605349957888</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04549752164982496</v>
+        <v>0.08896010445203795</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01469133252372225</v>
+        <v>0.01401025125220395</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03358453442537577</v>
+        <v>0.07913706688030618</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01558091190234591</v>
+        <v>0.03084936178106294</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006273603359616699</v>
+        <v>0.0011823912714186</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01155340158584047</v>
+        <v>0.007150305172875821</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03448644991789046</v>
+        <v>0.03562376309280017</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08445817026178587</v>
+        <v>0.07505237519663643</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01299622525728451</v>
+        <v>0.01338549255450972</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06285523914671315</v>
+        <v>0.008989761908222472</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06053265173096405</v>
+        <v>0.01773024673274628</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05005381895265956</v>
+        <v>0.02413181083891683</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001256059426268417</v>
+        <v>0.08057245521900049</v>
       </c>
       <c r="X9" t="n">
-        <v>0.06297671296925543</v>
+        <v>0.04257122925440992</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0471462666323251</v>
+        <v>0.01412797387742212</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03924908502631066</v>
+        <v>0.002915927314981836</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07757304362090957</v>
+        <v>0.00492507854540299</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03261111367708056</v>
+        <v>0.01271301026243275</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.006129896641883898</v>
+        <v>0.03074388978080246</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.05530688231401999</v>
+        <v>0.02704076709132418</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.02622123647065762</v>
+        <v>0.0366418827523191</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03581579515328651</v>
+        <v>0.04887672031119399</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0175954238235048</v>
+        <v>0.06598177242746835</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2806981108175262</v>
+        <v>-0.2911769043957947</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2452369812947036</v>
+        <v>0.2467061911773557</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02920857896751887</v>
+        <v>0.02842849862281999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04185015541454442</v>
+        <v>0.05759669711335771</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006729640208145096</v>
+        <v>0.007825067581060725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01948922017924671</v>
+        <v>0.01630474595438513</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02049082087538264</v>
+        <v>0.003660327649984276</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01971309690162002</v>
+        <v>0.04051355168050249</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006159908361346852</v>
+        <v>0.02657260823244572</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01084910956671727</v>
+        <v>0.0006088033733961544</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07256242041649577</v>
+        <v>0.02209540862950548</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01758916651882369</v>
+        <v>0.002657786095207122</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02646039644839139</v>
+        <v>0.01688691589992267</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03138859580599215</v>
+        <v>0.04641011789877563</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06022397548896711</v>
+        <v>0.04223711210069414</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03083506300724029</v>
+        <v>0.05650656013673222</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06232423697451213</v>
+        <v>0.02534484316255016</v>
       </c>
       <c r="U10" t="n">
-        <v>0.008252209945436557</v>
+        <v>0.02254476177433284</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02269384453946615</v>
+        <v>0.07083618575926204</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06439554682927466</v>
+        <v>0.07117959952714906</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06679190530671392</v>
+        <v>0.0701191467780814</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03547125867443982</v>
+        <v>0.06569632313260573</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07108687990814842</v>
+        <v>0.0267951577504045</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.03661938985982095</v>
+        <v>0.01899737417264595</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07047398142842344</v>
+        <v>0.05980132847206773</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03281633858490346</v>
+        <v>0.0009835397744288954</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0002225151747373652</v>
+        <v>0.03434583119286238</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.03357002528710692</v>
+        <v>0.07242486985301126</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03315917587557937</v>
+        <v>0.03064372206938443</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.06857254345100454</v>
+        <v>0.06198311561242426</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.002691935776942437</v>
+        <v>-0.006626872574338505</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2833343453119791</v>
+        <v>0.2621074299976541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05706801818039826</v>
+        <v>0.06244700824246953</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06023305701111872</v>
+        <v>0.06820444097750539</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003641609930646323</v>
+        <v>0.05461669462015929</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006742341018472206</v>
+        <v>0.01316026544967296</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001389421874106898</v>
+        <v>0.01268965228670057</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06141359471364476</v>
+        <v>0.02398698594718014</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0676890590235687</v>
+        <v>0.0452986612425303</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06778598052751855</v>
+        <v>0.07673947448910988</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03325973761415207</v>
+        <v>0.02110110309418464</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04626376444172448</v>
+        <v>0.003341316082919612</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04451178752489351</v>
+        <v>0.0710934088586771</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006682088413590256</v>
+        <v>0.001261641465218464</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02737606652757654</v>
+        <v>0.06139257730596049</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05845554750039657</v>
+        <v>0.006374567637657478</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06075465112446289</v>
+        <v>0.05017418623614751</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07725856573884259</v>
+        <v>0.05695212851251284</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0532025502568804</v>
+        <v>0.0637507807976891</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007118698570920209</v>
+        <v>0.0441861044469606</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0002320296535918985</v>
+        <v>0.01363484685102141</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0381767807231296</v>
+        <v>0.02870919717860684</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.04166519515870623</v>
+        <v>0.02116668677474379</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01468960605704572</v>
+        <v>0.00685076284208939</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0354719586854991</v>
+        <v>0.0396412789785827</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01886012324768871</v>
+        <v>0.003941592868377131</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02009525649428523</v>
+        <v>0.002967610676825303</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.009551792135358287</v>
+        <v>0.0145809300481573</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0009364560005996526</v>
+        <v>0.05877619900140153</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.07947426185118193</v>
+        <v>0.0729598970869388</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04219137017150613</v>
+        <v>0.02257092478619185</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2779216554521807</v>
+        <v>0.2817394659088009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007282885616839454</v>
+        <v>0.01474319490167574</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05747970197640451</v>
+        <v>0.05036586275881069</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00340169284245466</v>
+        <v>0.0001967686705501297</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03184693061919968</v>
+        <v>0.06475318686799196</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01498280111822763</v>
+        <v>0.03424812308184014</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03551293178229448</v>
+        <v>0.02256030084365625</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008120492425548204</v>
+        <v>0.06192788675767352</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008936934986640549</v>
+        <v>0.05694822392672508</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02285068993902648</v>
+        <v>0.0272776624494555</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0003691286025754559</v>
+        <v>0.002162085524665291</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03021563831800091</v>
+        <v>0.05327461550029281</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02045701090700947</v>
+        <v>0.006522151488112592</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01414724988887282</v>
+        <v>0.00820818902249772</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0495638333242882</v>
+        <v>0.05047630414778754</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04020369427381406</v>
+        <v>0.05610512578177338</v>
       </c>
       <c r="U12" t="n">
-        <v>0.005355756690172609</v>
+        <v>0.006796636611421517</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06145773985391207</v>
+        <v>0.04705476766377905</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06787477229070331</v>
+        <v>0.06072245171995397</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07362642409605551</v>
+        <v>0.03474174927251171</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.05574848192991592</v>
+        <v>0.02339076336588861</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01656650044187923</v>
+        <v>0.006693762273835656</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02904208981715083</v>
+        <v>0.03965215236183356</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07023885993466171</v>
+        <v>0.06168517232595637</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0680069449844279</v>
+        <v>0.01082194836950552</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04009993826444741</v>
+        <v>0.05232740058453057</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04105805658093165</v>
+        <v>0.0606034267671</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05206352466730551</v>
+        <v>0.03197932933863747</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.07348929382724001</v>
+        <v>0.05376075762153755</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2018591090105028</v>
+        <v>0.19910325564752</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6557484753679558</v>
+        <v>0.8018024990907009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04079110779020139</v>
+        <v>0.1057736610649686</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08550019630867045</v>
+        <v>0.002319790551567687</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0578464478176314</v>
+        <v>0.04381026900563513</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06357313973756042</v>
+        <v>0.03522534567017824</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02964154359241213</v>
+        <v>0.01490688343924575</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003082572647985174</v>
+        <v>0.03129125853179308</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04059520638938888</v>
+        <v>0.007054909771504801</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07144657050556757</v>
+        <v>0.01462482475138686</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05690133824100785</v>
+        <v>0.05682862272405558</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001926576502896673</v>
+        <v>0.07852818930441931</v>
       </c>
       <c r="P13" t="n">
-        <v>0.004797920368741383</v>
+        <v>0.0232894552145458</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05657629124362876</v>
+        <v>0.04899024799124613</v>
       </c>
       <c r="R13" t="n">
-        <v>0.006523678155365586</v>
+        <v>0.0101409434893492</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02237767207183825</v>
+        <v>0.0271472072198516</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0104432325243119</v>
+        <v>0.01508661984999887</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08634326541818588</v>
+        <v>0.1065008764846611</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05243521840369782</v>
+        <v>0.03124734795495102</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03578187680925871</v>
+        <v>0.002674451787529504</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06914305859063305</v>
+        <v>0.05921171893144387</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.009000166453630146</v>
+        <v>0.005791847895815184</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04808284346560757</v>
+        <v>0.02726830787663429</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.007178605745113891</v>
+        <v>0.0007710780462144415</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.005673894808302617</v>
+        <v>0.01730363332811764</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01679325575487427</v>
+        <v>0.01822547867307224</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01116922119533213</v>
+        <v>0.01804039776992164</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01257505969771663</v>
+        <v>0.04558719073242769</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.05378637086051508</v>
+        <v>0.0970945650416619</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0400136688999243</v>
+        <v>0.05526487689780275</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2348148175427455</v>
+        <v>0.2531862596566299</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2904450984211379</v>
+        <v>0.2890706982294848</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04202623675506747</v>
+        <v>0.03411378450904391</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04470078932117316</v>
+        <v>0.05050690568848781</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03245122708171134</v>
+        <v>0.003082639749443556</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04325640414021143</v>
+        <v>0.06564963152080171</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02740489138865374</v>
+        <v>0.02545019796256701</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007233984522352946</v>
+        <v>0.0003791236613101417</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001835870993571285</v>
+        <v>0.003823456300980628</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004567174813837498</v>
+        <v>0.009437698940358265</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01285935167192271</v>
+        <v>0.04737436210762765</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02399918629361626</v>
+        <v>0.0170459947241475</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04321960916880842</v>
+        <v>0.04112435915177214</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.003374722354243823</v>
+        <v>0.0395318258499598</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04806756795817392</v>
+        <v>0.06707630769464946</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01904431983993224</v>
+        <v>0.002394202640912032</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03889824756918677</v>
+        <v>0.06261634608475526</v>
       </c>
       <c r="U14" t="n">
-        <v>0.009638736988213069</v>
+        <v>0.004106542845670184</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06109193503572991</v>
+        <v>0.06268596560877387</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07733738882450199</v>
+        <v>0.06895242072534923</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04596016112085278</v>
+        <v>0.02563287866187151</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06470257060494121</v>
+        <v>0.04853341845501451</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03798453883908625</v>
+        <v>0.05504628758235675</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07634518723568388</v>
+        <v>0.05330780116645013</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02647758209424721</v>
+        <v>0.0412712164088381</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02306724956590409</v>
+        <v>0.01070180202386884</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01523723353797527</v>
+        <v>0.07032994307340228</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0685685196325564</v>
+        <v>0.05010850640326385</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.02318577336016307</v>
+        <v>0.01652979602208067</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.07746353928768182</v>
+        <v>0.02318658443624323</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.06270748657100526</v>
+        <v>-0.06462633911388026</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3446889826267515</v>
+        <v>0.348600124972314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06521392875543461</v>
+        <v>0.06448248312381413</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01448663132400604</v>
+        <v>0.005843424300255915</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06258145010096543</v>
+        <v>0.05950787548648203</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07896409073369594</v>
+        <v>0.06402021190213868</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07264397631638361</v>
+        <v>0.03544984237996232</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003038318068561773</v>
+        <v>0.01428216901801187</v>
       </c>
       <c r="L15" t="n">
-        <v>1.164405043247318e-05</v>
+        <v>0.07612773592420957</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01628541106483725</v>
+        <v>5.890406159607363e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04625316105143578</v>
+        <v>0.07545208565902639</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06206971053923902</v>
+        <v>0.04825689647408974</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03034827892766499</v>
+        <v>0.02379415033123979</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01069265131871799</v>
+        <v>0.007659466599261035</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05197468019629789</v>
+        <v>0.04535987311912796</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01983317108654684</v>
+        <v>0.02549062787541908</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0003629370620842409</v>
+        <v>0.046279424322499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01658186587702002</v>
+        <v>0.02848778970002299</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03911015840429347</v>
+        <v>0.02382340053560351</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03256960288164165</v>
+        <v>0.06766717532967295</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002791036414426563</v>
+        <v>0.0339720257431106</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05943975294067128</v>
+        <v>0.0003217615956761085</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04531616071806405</v>
+        <v>0.06518569776887044</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07350882007645006</v>
+        <v>0.0142900033900097</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04859189784757451</v>
+        <v>0.0460046627357041</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0265831833329028</v>
+        <v>0.0474984235282343</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01572596870441123</v>
+        <v>0.03004024361601647</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.03261625909299103</v>
+        <v>0.01126676411032564</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.06462763270766582</v>
+        <v>0.0179566868714076</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.007777620405583705</v>
+        <v>0.02142019449821204</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.06390788596983148</v>
+        <v>-0.06081691571111515</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2825094951918886</v>
+        <v>0.2746301432574439</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008925181537781966</v>
+        <v>0.02027603766791384</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07900028807563975</v>
+        <v>0.1046615641312962</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001520337352366348</v>
+        <v>0.01815878685725891</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005658832839699463</v>
+        <v>0.009228643854627185</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005608889653223361</v>
+        <v>0.02277473910740867</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009024626737041198</v>
+        <v>0.01038489216954804</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07859240554633834</v>
+        <v>0.02991093121260303</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04648429472839445</v>
+        <v>0.001588286717398372</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02267149115845189</v>
+        <v>0.03032710498519706</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02876783498863863</v>
+        <v>0.00834935839289992</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02047667371209594</v>
+        <v>0.03244723685846825</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07181811806266526</v>
+        <v>0.0759399114957419</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02611543978234216</v>
+        <v>0.007855049543959967</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0436184035467503</v>
+        <v>0.04412485456077683</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0498750244701686</v>
+        <v>0.001927459080421508</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04210804344793007</v>
+        <v>0.02220984904326069</v>
       </c>
       <c r="V16" t="n">
-        <v>0.042327333847107</v>
+        <v>0.08638078078554076</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06941450534683459</v>
+        <v>0.07667358548056487</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03750676814273687</v>
+        <v>0.03935464684293068</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01165089625380027</v>
+        <v>0.02020829322410801</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.04979171340333495</v>
+        <v>0.02781099773141812</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01904017249705746</v>
+        <v>0.01022232473997258</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03547402222845811</v>
+        <v>0.01901986937691884</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.009205327361220006</v>
+        <v>0.0257457451208081</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.02312164325268915</v>
+        <v>0.007402929930690768</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06544092000111182</v>
+        <v>0.06593563520224413</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02736514030807444</v>
+        <v>0.09927433619016088</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06939567171804767</v>
+        <v>0.08180614969586208</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1668427290064805</v>
+        <v>0.1948543360970333</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.357963316087606</v>
+        <v>0.3654244563158447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07748433986655125</v>
+        <v>0.08518383537834398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01762649854264857</v>
+        <v>0.01130005411741871</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04044739646283348</v>
+        <v>0.01901263759197195</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02938405316035244</v>
+        <v>0.0219126361308436</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07477047462199334</v>
+        <v>0.0817558804832417</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02370421627403422</v>
+        <v>0.03190647100359745</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00247931296427732</v>
+        <v>0.02172875534730631</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02156118087760493</v>
+        <v>0.0197998330032175</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04683804714750422</v>
+        <v>0.04722222904124594</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04570408077294716</v>
+        <v>0.05029238857769563</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06402260387368859</v>
+        <v>0.04769087165115572</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0509728125010282</v>
+        <v>0.04202967211040457</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06411937345987508</v>
+        <v>0.05657163818437982</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0449403435059079</v>
+        <v>0.02926277226380898</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02731723787652483</v>
+        <v>0.02184144638819727</v>
       </c>
       <c r="U17" t="n">
-        <v>0.005450559262600332</v>
+        <v>0.03932920879282387</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05869683922990632</v>
+        <v>0.04759309924480324</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04794185702397551</v>
+        <v>0.001594034029342083</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02385919981251855</v>
+        <v>0.07402364657325132</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01360509297257302</v>
+        <v>0.003722268514023335</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01787816854814356</v>
+        <v>0.03813455689748408</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06317128396662175</v>
+        <v>0.0281951208683135</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.009434429191662749</v>
+        <v>0.0126564971671647</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.04725846015245233</v>
+        <v>0.05477261339823197</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.003600649062974174</v>
+        <v>0.005723128138374476</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.002161708352359931</v>
+        <v>0.01143777928901646</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02381980671248702</v>
+        <v>0.04089565040553466</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.05174997380395333</v>
+        <v>0.05441127540880714</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.2102598800818728</v>
+        <v>0.2139304205239499</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1980153598363427</v>
+        <v>0.2093664589521066</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0706289946379547</v>
+        <v>0.05334043232962719</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03246241090160501</v>
+        <v>0.05280651816137667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003816973165297011</v>
+        <v>0.004787739956132631</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001523401129139029</v>
+        <v>0.05626938585888878</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001694070139577226</v>
+        <v>0.01073241210243385</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03090576207700085</v>
+        <v>0.007816576134842174</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007049095589744419</v>
+        <v>0.05219233447392873</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04648030580175778</v>
+        <v>0.02377055728692689</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06644071638425211</v>
+        <v>0.01146906233058086</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0005331535531311041</v>
+        <v>0.0184243222238257</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0004807128974290662</v>
+        <v>0.01700553278983111</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002636471140408609</v>
+        <v>0.03902442591314759</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07820228485430705</v>
+        <v>0.0737380903914109</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03620023248987705</v>
+        <v>0.04159508849321267</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02782625536062714</v>
+        <v>0.02346233136518998</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005749992293976289</v>
+        <v>0.0003496757118859502</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02784460358572394</v>
+        <v>0.02614724054037764</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03763873569896545</v>
+        <v>0.07096934974309697</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06324220963588217</v>
+        <v>0.009303612693998374</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07631134016954851</v>
+        <v>0.05796622884030738</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0720466082919306</v>
+        <v>0.03865822418972729</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02797913135971054</v>
+        <v>0.007994928800073771</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.06979484932400648</v>
+        <v>0.08080153580325805</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05679616435446373</v>
+        <v>0.03735532256952524</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0350193567921345</v>
+        <v>0.04579722031762792</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02724761190463091</v>
+        <v>0.03469171884497343</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02717888136100758</v>
+        <v>0.07021097931029548</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.06626967510591122</v>
+        <v>0.03331915282349692</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.05849667852494526</v>
+        <v>0.05353976287189038</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2783145469833996</v>
+        <v>0.2874310387981068</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0700107915592582</v>
+        <v>0.08209045224826617</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01171968158214537</v>
+        <v>0.03266411995747896</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003363691356373555</v>
+        <v>0.002079103305291911</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0393421187961223</v>
+        <v>0.0550747772223347</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08773613747586785</v>
+        <v>0.08043088687058733</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08368827710743669</v>
+        <v>0.07075585072489406</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004921228205250211</v>
+        <v>0.05060780398354248</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02382413148597289</v>
+        <v>0.0697102803501377</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03239899677270204</v>
+        <v>0.03718019193773248</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02531372436510581</v>
+        <v>0.008640666987275754</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08836698284652704</v>
+        <v>0.01030616458754606</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06554540270967533</v>
+        <v>0.04449632394811233</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04443961138548856</v>
+        <v>0.05046551632501974</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02011635569757233</v>
+        <v>0.004511944517663984</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05614564940904604</v>
+        <v>0.0007309226649119114</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01230991448398916</v>
+        <v>0.02704589736160475</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01689154809247659</v>
+        <v>0.02093376269073202</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08668295657989787</v>
+        <v>0.01811244064920208</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01035420538924221</v>
+        <v>0.009550680725351875</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01877354386253779</v>
+        <v>0.004727365428450122</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02826445982894481</v>
+        <v>0.01741290429034258</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02964395096251189</v>
+        <v>0.08099269516751603</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01716761967681016</v>
+        <v>0.06454354804230097</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02646755594089214</v>
+        <v>0.01035083993887485</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01274810597299169</v>
+        <v>0.01149911490739186</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.05759459343066909</v>
+        <v>0.0770747892662169</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.004196911803269051</v>
+        <v>0.02307324389366813</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.02197185322122334</v>
+        <v>0.0349377120075522</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.06762543899312602</v>
+        <v>0.05366568516383025</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1475934669952886</v>
+        <v>0.1494740214427511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06812632638855705</v>
+        <v>0.08201586991334585</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02944468397269171</v>
+        <v>0.007310153010591933</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006058862799434035</v>
+        <v>0.003540144274837676</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02588439400572039</v>
+        <v>0.04888404792481068</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006096277284468427</v>
+        <v>0.002377738735530642</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06000365842972719</v>
+        <v>0.04747830222606349</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05304929275883463</v>
+        <v>0.01456565692401985</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06351289354087714</v>
+        <v>0.01312789219807058</v>
       </c>
       <c r="N20" t="n">
-        <v>0.004838314332006751</v>
+        <v>0.009342900127334427</v>
       </c>
       <c r="O20" t="n">
-        <v>0.025690208413674</v>
+        <v>0.0207700297693733</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01014511419461457</v>
+        <v>0.009187124453404125</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.004483642851958192</v>
+        <v>0.009010053128122779</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02425212172238569</v>
+        <v>0.04437860869099612</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04667741580418434</v>
+        <v>0.08456970471516688</v>
       </c>
       <c r="T20" t="n">
-        <v>0.001298756359978842</v>
+        <v>0.002656860729532754</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05272964564517559</v>
+        <v>0.01848375547896512</v>
       </c>
       <c r="V20" t="n">
-        <v>0.03749758995595052</v>
+        <v>0.07106908547461473</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05951809789226234</v>
+        <v>0.08368132835936587</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0321654893259383</v>
+        <v>0.01169007232010327</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02549748013660758</v>
+        <v>0.0136503298963612</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03275138002572311</v>
+        <v>0.07572474460408377</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03211753313636617</v>
+        <v>0.02828644555872684</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0624359263875305</v>
+        <v>0.06541207736310685</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05947645627760141</v>
+        <v>0.05069479583249734</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03302956934884355</v>
+        <v>0.03138592521047032</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.01484486830245754</v>
+        <v>0.02477864862161103</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.05596897060751808</v>
+        <v>0.03647199624533889</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.07240503009891229</v>
+        <v>0.08945570821355391</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.01670981480805889</v>
+        <v>0.01034344447897358</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1754352703870009</v>
+        <v>0.1884777863741132</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0761707914656089</v>
+        <v>0.07900030442189951</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02151289403007566</v>
+        <v>0.01646431208906809</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003563303938291612</v>
+        <v>0.0552016118482019</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03638060371535583</v>
+        <v>0.008202090612205655</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07617067989005978</v>
+        <v>0.004853047409744982</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07698377496600263</v>
+        <v>0.08216000456257</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03161251060365623</v>
+        <v>0.007832716338571341</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07163490683115604</v>
+        <v>0.06927882154160128</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04531964215746131</v>
+        <v>0.004937976566795032</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02732734913218118</v>
+        <v>0.007477813489594151</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02303901928202417</v>
+        <v>0.06438601055418093</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.009481495028936205</v>
+        <v>0.01547665455054039</v>
       </c>
       <c r="R21" t="n">
-        <v>0.004776781518428213</v>
+        <v>0.03694651357066813</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04584751500516797</v>
+        <v>0.04653130479950263</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01847687094763374</v>
+        <v>0.0275459961050945</v>
       </c>
       <c r="U21" t="n">
-        <v>0.067559871282813</v>
+        <v>0.01066503089208023</v>
       </c>
       <c r="V21" t="n">
-        <v>0.03079300906161029</v>
+        <v>0.042530523302519</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01734773207769657</v>
+        <v>0.05580761544091445</v>
       </c>
       <c r="X21" t="n">
-        <v>0.006634397906876708</v>
+        <v>0.02008766975270427</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02697217302020199</v>
+        <v>0.0142934004142693</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0258661708422786</v>
+        <v>0.004700481836877241</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03106302565979137</v>
+        <v>0.05488266438940011</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04280999723909763</v>
+        <v>0.00733037020892644</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.04034800753440164</v>
+        <v>0.06439389317669535</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.07257187523168536</v>
+        <v>0.07161392181959185</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.001328523693270783</v>
+        <v>0.0107234878223369</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02351422996654476</v>
+        <v>0.06189666205622552</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.04489284797169195</v>
+        <v>0.05477910042722084</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.04511704937241399</v>
+        <v>-0.01760843828850251</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1675555688946862</v>
+        <v>0.1663976131144314</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03025045087865223</v>
+        <v>0.03366961335711281</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003595544823678183</v>
+        <v>0.0455660262226008</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006186177866312295</v>
+        <v>0.04057209214467602</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00373809959835857</v>
+        <v>0.02110590229490743</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001338037333404416</v>
+        <v>0.01779927063284996</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0061610003929386</v>
+        <v>0.04515952577307071</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008372519883653262</v>
+        <v>0.02384069323753758</v>
       </c>
       <c r="M22" t="n">
-        <v>0.012858505934724</v>
+        <v>0.003925729708193263</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06416936929505333</v>
+        <v>0.04040303684891719</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02249215596167254</v>
+        <v>0.02394339255480693</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01362169755006781</v>
+        <v>0.008519712602035715</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.001037402525549212</v>
+        <v>0.004596807802569923</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0412289384533383</v>
+        <v>0.03696003707410044</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01617159028057987</v>
+        <v>0.006349112903709334</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04485553362444688</v>
+        <v>0.04597289802510229</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01828806495644506</v>
+        <v>0.02046955296305062</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02555433151090078</v>
+        <v>0.04503721179293028</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001562309705716831</v>
+        <v>0.06236121562542399</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06472797104659164</v>
+        <v>0.02579651151259999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01814409441973308</v>
+        <v>0.07176422121901511</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.06626677701726974</v>
+        <v>0.03986063685890349</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.09508629495347186</v>
+        <v>0.05125437633812452</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.09517615469551453</v>
+        <v>0.06296463279541528</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0554535875098435</v>
+        <v>0.0306796265836582</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0526205969126055</v>
+        <v>0.006046264450583524</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.05094811487521867</v>
+        <v>0.06555387349314702</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.08906674492115359</v>
+        <v>0.04525976229160964</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.09102793307310558</v>
+        <v>0.07456826289334811</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.05601503543311501</v>
+        <v>0.06802829854133297</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1958246889749315</v>
+        <v>0.1797902228393206</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0818397754346242</v>
+        <v>0.08252758783979866</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03961111706421432</v>
+        <v>0.06410817385275863</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03361186666333541</v>
+        <v>0.06413661642066107</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02454764128167488</v>
+        <v>0.01753827242099314</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02152823906474831</v>
+        <v>0.003865648640185147</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0587150700109324</v>
+        <v>0.04535320523253498</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006689140231966967</v>
+        <v>0.002073693998095981</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03764913128492753</v>
+        <v>0.0348277284603284</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001570572266963994</v>
+        <v>0.01080960809450256</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02389319467566542</v>
+        <v>0.009714620471299205</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01833123649186993</v>
+        <v>0.02492562419566608</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02442983475175036</v>
+        <v>0.01997852273576974</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02134573030195197</v>
+        <v>0.05756066588691646</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005713394760632691</v>
+        <v>0.01352416898786598</v>
       </c>
       <c r="T23" t="n">
-        <v>0.009687227377221547</v>
+        <v>0.05404708432434773</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05045572283494091</v>
+        <v>0.001924755184716586</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03040639468049186</v>
+        <v>0.05447492866622306</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07579794529445637</v>
+        <v>0.01788054757382705</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03185402972034908</v>
+        <v>0.03932189897921459</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01441471465225911</v>
+        <v>0.01314835481327207</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.03318745026618221</v>
+        <v>0.06017700152145717</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08245543841071057</v>
+        <v>0.01117044705434661</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0145135918609926</v>
+        <v>0.003408270196545116</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06813974612640998</v>
+        <v>0.07611375309271702</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.04892900998551421</v>
+        <v>0.0593508347848635</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.07681835858164224</v>
+        <v>0.07707930329730284</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.009345141293675526</v>
+        <v>0.01780073802331459</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.05451928462989552</v>
+        <v>0.06315794525047588</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.08217775753201385</v>
+        <v>0.1186771471676996</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1620912624491488</v>
+        <v>0.1644371636567723</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02353993912452377</v>
+        <v>0.001994755903681731</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002014343144101854</v>
+        <v>0.04029359123188055</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01469782456397973</v>
+        <v>0.009487524207632747</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03704270794451486</v>
+        <v>0.02816967965529523</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02078633475421298</v>
+        <v>0.03887998330169819</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05808104381870322</v>
+        <v>0.02458393242802761</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06444135371354585</v>
+        <v>0.05733720095087261</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01003175806702752</v>
+        <v>0.01987130836563976</v>
       </c>
       <c r="N24" t="n">
-        <v>0.003808261350048307</v>
+        <v>0.0002938765279690018</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05507727787763534</v>
+        <v>0.01323950911157051</v>
       </c>
       <c r="P24" t="n">
-        <v>0.004899793251713551</v>
+        <v>0.01465472536233609</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.005374194694422824</v>
+        <v>0.009130623571492935</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0798305516389175</v>
+        <v>0.05985284248982335</v>
       </c>
       <c r="S24" t="n">
-        <v>0.004270102451312718</v>
+        <v>0.04885512745979629</v>
       </c>
       <c r="T24" t="n">
-        <v>0.07046615150435274</v>
+        <v>0.08034917086158623</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00470976820913023</v>
+        <v>0.06328499751507681</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05836154288940245</v>
+        <v>0.05132448038025883</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0832746438268149</v>
+        <v>0.02737406150662958</v>
       </c>
       <c r="X24" t="n">
-        <v>0.004928513765054164</v>
+        <v>0.01056652623888347</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08130175980224229</v>
+        <v>0.09058162300053686</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01278719047306561</v>
+        <v>0.06508535293052163</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.07825082646699286</v>
+        <v>0.01607483382413806</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06303139131514125</v>
+        <v>0.03490831896669701</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01183459404930909</v>
+        <v>0.07290004641669494</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.006534043634749963</v>
+        <v>0.03449929480349476</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.06788598719469628</v>
+        <v>0.01530334732016296</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01930485024452094</v>
+        <v>0.03676859420594209</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.05343325022986722</v>
+        <v>0.0343346714616601</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.04890865883062724</v>
+        <v>0.03533730214771737</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1982289262662945</v>
+        <v>0.1807079636617601</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06857230798829228</v>
+        <v>0.08669690251818613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0593094765527385</v>
+        <v>0.01335176728173775</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02822425347169336</v>
+        <v>0.07992902801181591</v>
       </c>
       <c r="I25" t="n">
-        <v>0.009140140323221283</v>
+        <v>0.07983506638090319</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002065228695142337</v>
+        <v>0.01870024372539134</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04658069089330072</v>
+        <v>0.03980185820441336</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0301658279683799</v>
+        <v>0.02557294934941916</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009274787976927136</v>
+        <v>0.04450731225748508</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001292750726060966</v>
+        <v>0.002264333943099488</v>
       </c>
       <c r="O25" t="n">
-        <v>0.009875953682938709</v>
+        <v>0.0121671419548226</v>
       </c>
       <c r="P25" t="n">
-        <v>0.07152727846658445</v>
+        <v>0.008702261878085631</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.001223449379160837</v>
+        <v>0.00119646158971892</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06122227595666367</v>
+        <v>0.003815190662438219</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0511608679940533</v>
+        <v>0.01936167316347182</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02634975151789394</v>
+        <v>0.001229636701004912</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02867984784204837</v>
+        <v>0.009947265557003813</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03445848755303111</v>
+        <v>0.01208963457558111</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0582258990175215</v>
+        <v>0.06820050408259128</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01815437536064746</v>
+        <v>0.02107873779883737</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.002794672163439167</v>
+        <v>0.07943115405097205</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0745666731455621</v>
+        <v>0.006285635480248004</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03515704156977849</v>
+        <v>0.06608737918279688</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01208515984619431</v>
+        <v>0.06760301570215922</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05346567114970783</v>
+        <v>0.003613738071121454</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.05541678172658993</v>
+        <v>0.08631803090235514</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.07302727079091388</v>
+        <v>0.07845592988828452</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.05269781605666844</v>
+        <v>0.001874314857949297</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.02528526218484613</v>
+        <v>0.06188283222810666</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.02667230920103616</v>
+        <v>0.01590113315853392</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1475261428965485</v>
+        <v>0.1519506880005785</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006956771261597049</v>
+        <v>0.08350426844201467</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07618971581669015</v>
+        <v>0.01234535394367415</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02807058093570067</v>
+        <v>0.006965906159065956</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002555593109360821</v>
+        <v>0.07228314836885423</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04989969746784545</v>
+        <v>0.05109026861598435</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001793689472521311</v>
+        <v>0.001060046285847064</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01126805212444389</v>
+        <v>0.005304934915289603</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04872635312585608</v>
+        <v>0.004938511873315433</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0001703172240432876</v>
+        <v>0.03082680492930449</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02920486535129953</v>
+        <v>0.01434474848466817</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02300508402170037</v>
+        <v>0.01707294626395988</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008433041898623704</v>
+        <v>0.003518222981196548</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03869624580093395</v>
+        <v>0.02429560168987027</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05979659432936184</v>
+        <v>0.08138980116682079</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03813613695701591</v>
+        <v>0.06732660791270732</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01244194335291358</v>
+        <v>0.01055436310189719</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05447732871655855</v>
+        <v>0.0846588013438342</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08664827597629818</v>
+        <v>0.07782291770172353</v>
       </c>
       <c r="X26" t="n">
-        <v>0.03505779998035855</v>
+        <v>0.03488464196437533</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07938261970007818</v>
+        <v>0.05271125033541328</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.08115037723030863</v>
+        <v>0.02584431366532519</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0318269977092453</v>
+        <v>0.008478961695750527</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.07573882041349526</v>
+        <v>0.03710551527433112</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02066771061620152</v>
+        <v>0.01052062017032445</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.002412710589035196</v>
+        <v>0.05048858370759687</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02447302188348102</v>
+        <v>0.06762777588529585</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.00740838932982865</v>
+        <v>0.04366902631098891</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.06771129940362806</v>
+        <v>0.01936605681057075</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1083645803741487</v>
+        <v>0.09499952633269493</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.172487107701233</v>
+        <v>0.1715934214537521</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07121855084062698</v>
+        <v>0.02951797081396482</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07440581189089442</v>
+        <v>0.05393698320630135</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07381906771318601</v>
+        <v>0.03418784948670262</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07521191400248566</v>
+        <v>0.01118543466351103</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0190979925782991</v>
+        <v>0.0149919217480074</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06688705262738302</v>
+        <v>0.07365957218702694</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004630872654833998</v>
+        <v>0.005623037877370096</v>
       </c>
       <c r="M27" t="n">
-        <v>0.007846558668578849</v>
+        <v>0.03560697250938193</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03050406719224434</v>
+        <v>0.01176319931727306</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01073328295802634</v>
+        <v>0.07894348121633196</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02957920825742241</v>
+        <v>0.0151397937577771</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04372991067980122</v>
+        <v>0.04002685230371443</v>
       </c>
       <c r="R27" t="n">
-        <v>0.04562990323014689</v>
+        <v>0.01628397467028282</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02420277881951432</v>
+        <v>0.002108992666203892</v>
       </c>
       <c r="T27" t="n">
-        <v>0.009283392666351819</v>
+        <v>0.01791572588800873</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01222728945407216</v>
+        <v>0.07121567866775719</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02222158335275822</v>
+        <v>0.06417004831470224</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01772160188082667</v>
+        <v>0.005378414720730662</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01506367572916557</v>
+        <v>0.02122333354561453</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07537108279189848</v>
+        <v>0.07552069680228758</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02119695850374656</v>
+        <v>0.07972895516953996</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.03842951547870309</v>
+        <v>0.01512912796000465</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01162540594518318</v>
+        <v>0.06548629582129492</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05268376031171906</v>
+        <v>0.02339913299654668</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.00437909303948416</v>
+        <v>0.06645614104757144</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03146850584069107</v>
+        <v>0.01498173750702065</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.03860142425513446</v>
+        <v>0.003756180527272707</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.07222973863682183</v>
+        <v>0.05266249460779878</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.09495499329867346</v>
+        <v>0.1070567709475595</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1801970712431468</v>
+        <v>0.1800479437139372</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09058920168906048</v>
+        <v>0.05997079525306874</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03933882574650267</v>
+        <v>0.06467290457583862</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01028156232351491</v>
+        <v>0.02997452895326752</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0185370510509605</v>
+        <v>0.03799749673200618</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05323130826428297</v>
+        <v>0.01295700835573261</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06180132121508512</v>
+        <v>0.0471172331633951</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0148566860513604</v>
+        <v>0.009824933233542636</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0373831302030145</v>
+        <v>0.03425660080782548</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03105596395740966</v>
+        <v>0.02504411257881314</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03028931273489695</v>
+        <v>0.0007767873427429921</v>
       </c>
       <c r="P28" t="n">
-        <v>0.006037820907382382</v>
+        <v>0.01277721055740124</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.008471567283415965</v>
+        <v>0.06547767525637137</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02548353275895591</v>
+        <v>0.05722526431282546</v>
       </c>
       <c r="S28" t="n">
-        <v>0.004111205880861431</v>
+        <v>0.06010675317724718</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01839863886854089</v>
+        <v>0.06073320793489152</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009299791026478174</v>
+        <v>0.007349283074892882</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01584166629370948</v>
+        <v>0.06289480521769913</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0182154768905922</v>
+        <v>1.246322561691925e-05</v>
       </c>
       <c r="X28" t="n">
-        <v>0.03964415655705695</v>
+        <v>0.0155570008375333</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0830750953506994</v>
+        <v>0.06555178578068381</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.08780741320515736</v>
+        <v>0.01296026807342113</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.06178121035848336</v>
+        <v>0.007142489354982399</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06214726458414872</v>
+        <v>0.07267345816156552</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.009598743280030705</v>
+        <v>0.01587310132267424</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02633992404989772</v>
+        <v>0.0239951364131744</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.07060515272507523</v>
+        <v>0.02243259012086384</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.01617724782153609</v>
+        <v>0.04183985670629749</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.04959972892188979</v>
+        <v>0.07280524947562514</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1347432607022712</v>
+        <v>0.1223076431759911</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.221325867509889</v>
+        <v>0.2100630135526833</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02544811652151846</v>
+        <v>0.04371073618333546</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07638632891202561</v>
+        <v>0.07041532560763576</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03950279345761132</v>
+        <v>0.0606855441737903</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01400623185035651</v>
+        <v>0.0224475064878686</v>
       </c>
       <c r="J29" t="n">
-        <v>0.009794424789472112</v>
+        <v>0.03211186145098665</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07051580018107408</v>
+        <v>0.0558337927532734</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01890289778298412</v>
+        <v>0.02998745342576078</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0006401801573392021</v>
+        <v>0.03432111839936355</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09879068200871595</v>
+        <v>0.04393334983510946</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04158295387700801</v>
+        <v>0.05228522505851033</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03130782432848302</v>
+        <v>0.01109686425596622</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04715361633736626</v>
+        <v>0.02061777400837507</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07181435451825735</v>
+        <v>0.0295722581509729</v>
       </c>
       <c r="S29" t="n">
-        <v>0.00925278375029402</v>
+        <v>0.01914801551924869</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01175383672568369</v>
+        <v>0.01382152046770743</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02063241998940159</v>
+        <v>0.06704796870388167</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0203501805468448</v>
+        <v>0.04922099623001622</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02301344464063797</v>
+        <v>0.004597289910846417</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04498978466192508</v>
+        <v>0.006387917832074577</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01085354063805762</v>
+        <v>0.03139814525016471</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02740031976688442</v>
+        <v>0.03300021123055128</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05857151993762658</v>
+        <v>0.06395471719218937</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02080744431123185</v>
+        <v>0.02498962139761051</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.004943458338065913</v>
+        <v>0.04845740257861244</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0657484509617038</v>
+        <v>0.01351400326391307</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03305227683563294</v>
+        <v>0.005109748858462962</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.03857201976281012</v>
+        <v>0.07210890158808834</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06421231441098729</v>
+        <v>0.0402247301856837</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1426034792118002</v>
+        <v>0.1454121878080378</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1173189414572019</v>
+        <v>0.1106580170637765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01907447810791928</v>
+        <v>0.02920115986968571</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06238536083179039</v>
+        <v>0.05940168335243706</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05835487157936476</v>
+        <v>0.02109501827077219</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02486832784416447</v>
+        <v>0.02851719215093664</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0340443237143471</v>
+        <v>0.005460353977863803</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0003716546235872817</v>
+        <v>0.004716468507643175</v>
       </c>
       <c r="L30" t="n">
-        <v>0.007792483946621459</v>
+        <v>0.01531015402379952</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06485557758016909</v>
+        <v>0.05716150507443632</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01200672545510265</v>
+        <v>0.004111052915184885</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00870465229247528</v>
+        <v>0.01093645669050577</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05968756827945971</v>
+        <v>0.04439620197199402</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04740909939271783</v>
+        <v>0.01825890088382698</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0642288243798345</v>
+        <v>0.05816552457547632</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05583699742139466</v>
+        <v>0.04602266378430792</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04848319243297781</v>
+        <v>0.03973820639782159</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0009761367168766848</v>
+        <v>0.06181548212450278</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0489316182052226</v>
+        <v>0.06532697122677973</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06502587273596568</v>
+        <v>0.07414331549422452</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01145487645185398</v>
+        <v>0.0195008897820858</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.03209571052673686</v>
+        <v>0.05276972864727898</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.05231330541184299</v>
+        <v>0.05513339408894963</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.04578024387817919</v>
+        <v>0.02200946521972488</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01836983497093591</v>
+        <v>0.07342865379578584</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.02115417432588699</v>
+        <v>0.005037774559485658</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.06153796056199558</v>
+        <v>0.01332087267059239</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.001288351180705663</v>
+        <v>0.0434369676058995</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.02103312429570731</v>
+        <v>0.007873564951898599</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.05193465285616429</v>
+        <v>0.06371037738609982</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.06642409821940501</v>
+        <v>0.04969523207167355</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1224197586439633</v>
+        <v>0.1222126366805471</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01608817054165227</v>
+        <v>0.03225696242509186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05870680194999036</v>
+        <v>0.01936665018935095</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02277940985814073</v>
+        <v>0.08004299559601898</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06210715590260985</v>
+        <v>0.09013964566110223</v>
       </c>
       <c r="J31" t="n">
-        <v>0.003465031131350329</v>
+        <v>0.0008192835197599693</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02738930331590332</v>
+        <v>0.008278613530202312</v>
       </c>
       <c r="L31" t="n">
-        <v>0.005222883692561044</v>
+        <v>0.006721750438563449</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01768491268550319</v>
+        <v>0.08163760628102018</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01391335225969674</v>
+        <v>0.01937283989823257</v>
       </c>
       <c r="O31" t="n">
-        <v>0.007505714706096239</v>
+        <v>0.0047628373607268</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06817018594642683</v>
+        <v>0.0352439441872275</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05293471446905423</v>
+        <v>0.08132030427385549</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07639333671983932</v>
+        <v>0.01239168195706285</v>
       </c>
       <c r="S31" t="n">
-        <v>0.02392540534039418</v>
+        <v>0.03491306904061776</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01228136151006626</v>
+        <v>0.05950133253791289</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0256810178433531</v>
+        <v>0.02733604029207463</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03590702666478853</v>
+        <v>0.05327784020870777</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06234785615123935</v>
+        <v>0.05575780946330278</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0259789488495401</v>
+        <v>0.02354197466776547</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.07749536579184023</v>
+        <v>0.04655687658019989</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.08360696760411036</v>
+        <v>0.03467099311033326</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0682136547201069</v>
+        <v>0.03091932244067719</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02404141625445359</v>
+        <v>0.006652050942992507</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.009118026678276651</v>
+        <v>0.009137211494098607</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.04094713421884165</v>
+        <v>0.03500099283964626</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.05675676204647159</v>
+        <v>0.07116806709755488</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.0001638602595725</v>
+        <v>0.02604848111775116</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0211742228881204</v>
+        <v>0.01316282284814971</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.04836861107598718</v>
+        <v>0.06038010479839933</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.117873303291921</v>
+        <v>0.1172764664853318</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02325876728350101</v>
+        <v>0.02446310497834758</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06158013766309192</v>
+        <v>0.05162839999049374</v>
       </c>
       <c r="H32" t="n">
-        <v>0.008705603085469249</v>
+        <v>0.03218267868515987</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04739901364755</v>
+        <v>0.01035687296228107</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06932061313242285</v>
+        <v>0.03223501810352074</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02360611972427846</v>
+        <v>0.04486143044754166</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02675929819544656</v>
+        <v>0.0002947115893168099</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03934581526728503</v>
+        <v>0.02222899362277029</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01246092124245795</v>
+        <v>0.03536869118867741</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05064084441270668</v>
+        <v>0.004894308356386566</v>
       </c>
       <c r="P32" t="n">
-        <v>0.02524506829026286</v>
+        <v>0.07512142126044395</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01292118008996835</v>
+        <v>0.01376516977071616</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04469259691436112</v>
+        <v>0.0684663838968958</v>
       </c>
       <c r="S32" t="n">
-        <v>0.02941283431045714</v>
+        <v>0.0005048413808719704</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01109645144479336</v>
+        <v>0.06846677604685746</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05600965604443704</v>
+        <v>0.007057412486225662</v>
       </c>
       <c r="V32" t="n">
-        <v>0.03304229082341441</v>
+        <v>0.0459202833859198</v>
       </c>
       <c r="W32" t="n">
-        <v>0.04937938721873836</v>
+        <v>0.08001409361579592</v>
       </c>
       <c r="X32" t="n">
-        <v>0.008302609851722974</v>
+        <v>0.04151604097656945</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01065379701949043</v>
+        <v>0.01750024265948917</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.05970585785958127</v>
+        <v>0.03082357108819162</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.06271124826733805</v>
+        <v>0.01713231529038809</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.06264536994575901</v>
+        <v>0.04124752235213845</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.03504276450706728</v>
+        <v>0.03024704393887784</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.01847982394156601</v>
+        <v>0.05307829159844216</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.04878159294623938</v>
+        <v>0.07164895098225538</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.001425774737880124</v>
+        <v>0.01524710817577396</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.06737456213271308</v>
+        <v>0.06372832116965135</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.06329986925804701</v>
+        <v>0.05240961544770578</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1252209448033074</v>
+        <v>0.1339603590392294</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00329829473321368</v>
+        <v>0.009886583173905391</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05680828896411325</v>
+        <v>0.07045192157419061</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03176794587493433</v>
+        <v>0.02265906760997601</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04662480434381674</v>
+        <v>0.04202138308854188</v>
       </c>
       <c r="J33" t="n">
-        <v>0.06022412638874217</v>
+        <v>0.03722182515688695</v>
       </c>
       <c r="K33" t="n">
-        <v>0.05181806334821002</v>
+        <v>0.05839272056178652</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02337855537192901</v>
+        <v>0.007711828638825567</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02590233384680255</v>
+        <v>0.03471888529754851</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03133654660992587</v>
+        <v>3.140629451412572e-05</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0181843549027455</v>
+        <v>0.01606309028250553</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05443181670479366</v>
+        <v>0.03565900752823688</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.031161634458489</v>
+        <v>0.0807622267842142</v>
       </c>
       <c r="R33" t="n">
-        <v>0.00832423769954385</v>
+        <v>0.002730053856835934</v>
       </c>
       <c r="S33" t="n">
-        <v>0.007636543585817294</v>
+        <v>0.0200633684328381</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06317590313572938</v>
+        <v>0.01891691542383804</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02305246548178873</v>
+        <v>0.04235771591102046</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01218803627165529</v>
+        <v>0.0380682375971572</v>
       </c>
       <c r="W33" t="n">
-        <v>0.06566493163843316</v>
+        <v>0.01395943968229073</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02995344867961398</v>
+        <v>0.04512646798442682</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02032286133313359</v>
+        <v>0.02430231078909438</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.06333170462084252</v>
+        <v>0.08752515296568442</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.06357400982931476</v>
+        <v>0.08245441969616309</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.06172328795481235</v>
+        <v>0.07249796259718289</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.04134070461106772</v>
+        <v>0.03609678964148865</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.05543474850000148</v>
+        <v>0.04788093725773236</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.02011128604811776</v>
+        <v>0.02439312414118869</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.01328404885644108</v>
+        <v>0.01976429230315591</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0159450162059712</v>
+        <v>0.008282865728770189</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.07036845858977764</v>
+        <v>0.08700169883816945</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1262649917626001</v>
+        <v>0.1301782744953207</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01421135470272529</v>
+        <v>0.03509966643667189</v>
       </c>
       <c r="G34" t="n">
-        <v>3.313553094011777e-05</v>
+        <v>0.006747008330018324</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01651617210218175</v>
+        <v>0.02838524612227791</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02822261797027735</v>
+        <v>0.0324005953978788</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02778497691116677</v>
+        <v>0.05192396497118376</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08075864933934185</v>
+        <v>0.0145841480220388</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001040855991046695</v>
+        <v>0.04397969828054679</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05146730178929618</v>
+        <v>0.07465375525086609</v>
       </c>
       <c r="N34" t="n">
-        <v>0.004708804382215256</v>
+        <v>0.04043046040890713</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01872360622388616</v>
+        <v>0.07593391690443334</v>
       </c>
       <c r="P34" t="n">
-        <v>0.04464865417428369</v>
+        <v>0.04491729051960697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001249370090278132</v>
+        <v>0.04006267402780671</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06894440870999115</v>
+        <v>0.06592851064296293</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04408872158496388</v>
+        <v>0.01818038295117591</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0850048436522232</v>
+        <v>0.05338291630823616</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08825756066612493</v>
+        <v>0.01569851751322231</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01980405915243732</v>
+        <v>0.03034601007407781</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06248271566158162</v>
+        <v>0.06466744397204545</v>
       </c>
       <c r="X34" t="n">
-        <v>0.03685131969585162</v>
+        <v>0.01769419536976632</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04656749588552338</v>
+        <v>0.04591073092738849</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02577313334205146</v>
+        <v>0.01413365534988047</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.02095574974630439</v>
+        <v>0.04361348875900408</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02764496480209088</v>
+        <v>0.009874580980803207</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01598427955248364</v>
+        <v>0.009959012790812325</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.01942202940752523</v>
+        <v>0.009491870886161225</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.08480102351594894</v>
+        <v>0.05082753305308858</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.012536153713571</v>
+        <v>0.03674313840705371</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0515160417036882</v>
+        <v>0.02442958734208458</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.00144061226947688</v>
+        <v>0.007607627652831255</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2356255448329785</v>
+        <v>0.2032347039441623</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08016028446947675</v>
+        <v>0.07026222537649264</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08326859778867614</v>
+        <v>0.06042427521323646</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0102020700728915</v>
+        <v>0.002549085988873688</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002485610939568218</v>
+        <v>0.05287997179888117</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001148243164800569</v>
+        <v>0.05839631832615058</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0731946379047311</v>
+        <v>0.01999128825739607</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01451109691282292</v>
+        <v>0.03191995791131103</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01351801327970083</v>
+        <v>0.01732609599225697</v>
       </c>
       <c r="N35" t="n">
-        <v>0.01757132813785619</v>
+        <v>0.04978617267237438</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04456969558265093</v>
+        <v>0.03037485400857349</v>
       </c>
       <c r="P35" t="n">
-        <v>0.09555237691921452</v>
+        <v>0.04116775046997585</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01668906048217624</v>
+        <v>0.02435750959939628</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0180393231970907</v>
+        <v>0.06299862257921704</v>
       </c>
       <c r="S35" t="n">
-        <v>0.006887616733524471</v>
+        <v>0.06889115077150955</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03107271454744906</v>
+        <v>0.03954711085664379</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04710946460655284</v>
+        <v>0.05833062946445566</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01013784711720839</v>
+        <v>0.02094266035411612</v>
       </c>
       <c r="W35" t="n">
-        <v>0.06978240285561592</v>
+        <v>0.0007462265083478269</v>
       </c>
       <c r="X35" t="n">
-        <v>0.06436080827156619</v>
+        <v>0.01565174592854402</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.03538173099365355</v>
+        <v>0.004569603433037384</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03089537718824371</v>
+        <v>0.02097717499302871</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.001594218600577192</v>
+        <v>0.0092651054645105</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0071792462580638</v>
+        <v>0.007429740343699455</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01272585948421604</v>
+        <v>0.03862532290944363</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.06500989656056716</v>
+        <v>0.07008085356438817</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.01322121634244039</v>
+        <v>0.02671017810739715</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.1061842105625054</v>
+        <v>0.05963397050784654</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.02754705102615947</v>
+        <v>0.03616439859889584</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.05045094592216719</v>
+        <v>0.02443481770390726</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1072942736993737</v>
+        <v>0.1067704782055759</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0106032644905053</v>
+        <v>0.005891026665273548</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02959267005042514</v>
+        <v>0.004585049138903658</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03541704666822834</v>
+        <v>0.005850052365625161</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02862474430965918</v>
+        <v>0.01687799214736421</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06778942894467346</v>
+        <v>0.06735946929183623</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002352503442508992</v>
+        <v>0.004338540942176827</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06528561641653523</v>
+        <v>0.07108511714429443</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01791652079236352</v>
+        <v>0.05106764995824841</v>
       </c>
       <c r="N36" t="n">
-        <v>0.007320595275311271</v>
+        <v>0.01898031049164745</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01355383558892504</v>
+        <v>0.007854833417938956</v>
       </c>
       <c r="P36" t="n">
-        <v>0.05302480599510485</v>
+        <v>0.07448754776355626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0624283123575546</v>
+        <v>0.04288442106352727</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04890191958690527</v>
+        <v>0.03751456474148782</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06765526182279817</v>
+        <v>0.005676751098171439</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03268662560311909</v>
+        <v>0.008928907333749722</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05162659494525855</v>
+        <v>0.004362941210487824</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05775054954447794</v>
+        <v>0.07388157132735865</v>
       </c>
       <c r="W36" t="n">
-        <v>0.03418490196828741</v>
+        <v>0.05554512318015289</v>
       </c>
       <c r="X36" t="n">
-        <v>0.04518984751866027</v>
+        <v>0.05572224087741917</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.06389912226958959</v>
+        <v>0.0595038619222088</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03421942681306936</v>
+        <v>0.04197358315102234</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.009272083731170482</v>
+        <v>0.0060365743444888</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.007865961857044098</v>
+        <v>0.06226948136998878</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.02187900214562426</v>
+        <v>0.0680316015563559</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.02589459674824114</v>
+        <v>0.01382072616576072</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.03957706079325388</v>
+        <v>0.06763930261256168</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.002148530122634324</v>
+        <v>0.01565876650929073</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.06333917019807124</v>
+        <v>0.05217199220910214</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.008634980055699945</v>
+        <v>0.004507954462800914</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1628490530458858</v>
+        <v>0.1459558003474948</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06936416831170003</v>
+        <v>0.06636273795741518</v>
       </c>
       <c r="G37" t="n">
-        <v>0.011612950858049</v>
+        <v>0.07896213901306814</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001785046310518477</v>
+        <v>0.01823946416802116</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00814224582457186</v>
+        <v>0.01269356497798901</v>
       </c>
       <c r="J37" t="n">
-        <v>0.004642651065212514</v>
+        <v>0.0007205592876004368</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05779677754847133</v>
+        <v>0.02720936926229817</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0392596372478449</v>
+        <v>0.07497972645358948</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02365700481625686</v>
+        <v>0.01874032452561896</v>
       </c>
       <c r="N37" t="n">
-        <v>0.06324158372379352</v>
+        <v>0.05877878096869731</v>
       </c>
       <c r="O37" t="n">
-        <v>0.05902212037612505</v>
+        <v>0.05715687016275325</v>
       </c>
       <c r="P37" t="n">
-        <v>0.03910216957463983</v>
+        <v>0.01173360078909267</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04689000563399576</v>
+        <v>0.01185087097526952</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01411519817219085</v>
+        <v>0.005444887412082302</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06729244793983295</v>
+        <v>0.07477901463345846</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01858701533706938</v>
+        <v>0.007876672680326961</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05570594101995106</v>
+        <v>0.02565742856071303</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01917530690454715</v>
+        <v>0.03078397702185164</v>
       </c>
       <c r="W37" t="n">
-        <v>0.05952766427231371</v>
+        <v>0.03535957452130133</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01808713559261926</v>
+        <v>0.02618865700555502</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01819780306941953</v>
+        <v>0.008231906594424595</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.06196073451231682</v>
+        <v>0.0780174046911382</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.06791173693732658</v>
+        <v>0.07668429423523453</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02786000237259662</v>
+        <v>0.03876987054817726</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.03224566997983512</v>
+        <v>0.06615773421253299</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.05954891984209772</v>
+        <v>0.01775894533746897</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.01014574426559752</v>
+        <v>0.008654011632572631</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.02605314015275889</v>
+        <v>0.009480563442157346</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.01906917833834772</v>
+        <v>0.05272704892959174</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.02103459616907108</v>
+        <v>0.02173823189845242</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1213055614453259</v>
+        <v>0.1226764179327565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04389860939534709</v>
+        <v>0.01368690887125701</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01378441693114185</v>
+        <v>0.001292221379826284</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06259210943318713</v>
+        <v>0.04298991068516396</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07394116545377701</v>
+        <v>0.06089210477903296</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02886998408349794</v>
+        <v>0.02633302951029364</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01000370789181338</v>
+        <v>0.01638675968551049</v>
       </c>
       <c r="L38" t="n">
-        <v>0.006266643989680009</v>
+        <v>0.03932505450746546</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02565518922240383</v>
+        <v>0.04636820010252646</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03667273795650921</v>
+        <v>0.02713786245646302</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03914694538603445</v>
+        <v>0.0004127212356800832</v>
       </c>
       <c r="P38" t="n">
-        <v>0.006039040989570864</v>
+        <v>0.009395390191891496</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01346169765161117</v>
+        <v>0.03448159527520072</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01300968290441624</v>
+        <v>0.04722792447544424</v>
       </c>
       <c r="S38" t="n">
-        <v>0.05918663155575778</v>
+        <v>0.0302300338350739</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03951723478462731</v>
+        <v>0.02933832395851366</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0022588630848872</v>
+        <v>0.02277133511806884</v>
       </c>
       <c r="V38" t="n">
-        <v>0.04819045233984624</v>
+        <v>0.07098219793755922</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01922852010742726</v>
+        <v>0.03723892588718292</v>
       </c>
       <c r="X38" t="n">
-        <v>0.04342324502964874</v>
+        <v>0.03931913391098925</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05712194646479742</v>
+        <v>0.05603202641309461</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.00758943077223595</v>
+        <v>0.04302431368785352</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.009603153583688108</v>
+        <v>0.02575611936846397</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.05677955838261579</v>
+        <v>0.07085778543120581</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.06829499576627038</v>
+        <v>0.0199952340033001</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.07113681451642259</v>
+        <v>0.04543792222870487</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.04979004912905</v>
+        <v>0.06306080798930996</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.02664516649272456</v>
+        <v>0.02782840867204613</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.06789200670101043</v>
+        <v>0.0521977484028775</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05108023211144321</v>
+        <v>0.06524856201101945</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1558028429803243</v>
+        <v>0.1573961832577181</v>
       </c>
       <c r="F39" t="n">
-        <v>0.008252512236414287</v>
+        <v>0.0191252644744405</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004207600234722894</v>
+        <v>0.05850859854156152</v>
       </c>
       <c r="H39" t="n">
-        <v>0.005676090657227804</v>
+        <v>0.007174235820008729</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04998310177062047</v>
+        <v>0.0127230905933683</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01477304686102804</v>
+        <v>0.03922296134200565</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06995487128900121</v>
+        <v>0.06325476363900485</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07081415575564848</v>
+        <v>0.06693690177422666</v>
       </c>
       <c r="M39" t="n">
-        <v>0.007110828466253352</v>
+        <v>0.002227981880615018</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03294420787053708</v>
+        <v>0.0627982071228388</v>
       </c>
       <c r="O39" t="n">
-        <v>0.00428111858495266</v>
+        <v>0.00799571902708282</v>
       </c>
       <c r="P39" t="n">
-        <v>0.09230568575494257</v>
+        <v>0.06553077240184488</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0268656515056255</v>
+        <v>0.0002167358366653349</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01172480282731363</v>
+        <v>0.00224051659029297</v>
       </c>
       <c r="S39" t="n">
-        <v>0.005592650823725038</v>
+        <v>0.04873851547840928</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0427768436660659</v>
+        <v>0.02184126680493145</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02780085396452096</v>
+        <v>0.06230033046732772</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03246759823911503</v>
+        <v>0.03935817719698793</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02671551897910011</v>
+        <v>0.06420085788240096</v>
       </c>
       <c r="X39" t="n">
-        <v>0.03089709088939785</v>
+        <v>0.02009637297477684</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.004898285870210677</v>
+        <v>0.006074020878711357</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01032362144659578</v>
+        <v>0.03417707742819722</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.06108846541448091</v>
+        <v>0.06655923900763336</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.04113615176343174</v>
+        <v>0.03564461129610422</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0788968720176484</v>
+        <v>0.04910322979262529</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.08063064956639962</v>
+        <v>0.07366338020750202</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.05527445187105684</v>
+        <v>0.02447982358426989</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.02460193548921475</v>
+        <v>0.03508479049030137</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.07800533618474854</v>
+        <v>0.01072255746586508</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.06537890562396609</v>
+        <v>0.02966857644405549</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1384881677294053</v>
+        <v>0.1394018597966696</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02233615899752479</v>
+        <v>0.03820588008873282</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01544665004712274</v>
+        <v>0.02134510261690947</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04349817637206077</v>
+        <v>0.04800182502477852</v>
       </c>
       <c r="I40" t="n">
-        <v>0.002733605240204682</v>
+        <v>0.06704812929190977</v>
       </c>
       <c r="J40" t="n">
-        <v>0.004153438070016027</v>
+        <v>0.006928467328795526</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01724876570959653</v>
+        <v>0.003502108958025151</v>
       </c>
       <c r="L40" t="n">
-        <v>0.06125818626862559</v>
+        <v>0.0122822066737068</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0001044066286330968</v>
+        <v>2.555171649135982e-05</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05958406321111436</v>
+        <v>0.0715411004787974</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03570007389137445</v>
+        <v>0.05783567448997049</v>
       </c>
       <c r="P40" t="n">
-        <v>0.003808154146602656</v>
+        <v>0.001061199924667019</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03619529974677758</v>
+        <v>0.03365958069938672</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02581059095257292</v>
+        <v>0.04402046129857516</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02419085808825255</v>
+        <v>0.006882297373698547</v>
       </c>
       <c r="T40" t="n">
-        <v>0.06260497467216129</v>
+        <v>0.01760818373934765</v>
       </c>
       <c r="U40" t="n">
-        <v>0.032371110391146</v>
+        <v>0.001317272890243387</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02395492702020234</v>
+        <v>0.05778719184623871</v>
       </c>
       <c r="W40" t="n">
-        <v>0.05286823702945936</v>
+        <v>0.04775636646332782</v>
       </c>
       <c r="X40" t="n">
-        <v>0.01522307964876643</v>
+        <v>0.04900888106905213</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07964193425345573</v>
+        <v>0.04700805218636014</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0132974137144324</v>
+        <v>0.04970467204165016</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0751972174399672</v>
+        <v>0.06523332804787876</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.03284123844550196</v>
+        <v>0.01216227136052149</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.05192203386568128</v>
+        <v>0.07881479672671092</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.02029464226938221</v>
+        <v>0.02129724752562304</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.04705600448129676</v>
+        <v>0.06214852861737122</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.05792061823491169</v>
+        <v>0.04281193197620926</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.08273814116315661</v>
+        <v>0.03500168954502074</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.03990923495873493</v>
+        <v>0.06620111204117042</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1653082405887898</v>
+        <v>0.1672275947952101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07693298083490138</v>
+        <v>0.01669626987134553</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02487789092408907</v>
+        <v>0.06293556215510809</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004881431168785384</v>
+        <v>0.003579108013988551</v>
       </c>
       <c r="I41" t="n">
-        <v>0.006427578950928928</v>
+        <v>0.003690428830012676</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005916589524984613</v>
+        <v>0.01814173535346159</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07423003480268299</v>
+        <v>0.08451778385843597</v>
       </c>
       <c r="L41" t="n">
-        <v>0.05358549539397352</v>
+        <v>0.01622657646420539</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01806573821874127</v>
+        <v>0.0220543790758026</v>
       </c>
       <c r="N41" t="n">
-        <v>0.04363552692058627</v>
+        <v>0.04686155982839273</v>
       </c>
       <c r="O41" t="n">
-        <v>0.01155109470581227</v>
+        <v>0.02745276350596119</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0424539225154821</v>
+        <v>0.01910432465106033</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.06678280012613701</v>
+        <v>0.07238849516994195</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01368182408974483</v>
+        <v>0.0001155390849916556</v>
       </c>
       <c r="S41" t="n">
-        <v>0.02586280271272259</v>
+        <v>0.05145405096679831</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01207023216014071</v>
+        <v>0.01774808850286271</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06305676270111678</v>
+        <v>0.04080479609314561</v>
       </c>
       <c r="V41" t="n">
-        <v>0.04728535880788326</v>
+        <v>0.05816527061901428</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02018228730693272</v>
+        <v>0.07992274667827647</v>
       </c>
       <c r="X41" t="n">
-        <v>0.03718976091848679</v>
+        <v>0.0361927488450469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0614338400293573</v>
+        <v>0.02630766925910217</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0659067715290588</v>
+        <v>0.04568021242926719</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.02365899888134502</v>
+        <v>0.05933791484635572</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.003845566486811102</v>
+        <v>0.03248096457728362</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.006776846533423567</v>
+        <v>0.02564040753143817</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.06170965628041727</v>
+        <v>0.08302570868030755</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.04403618969509512</v>
+        <v>0.02567611858020549</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.07251582352918504</v>
+        <v>0.004852879555242421</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.01144619425117438</v>
+        <v>0.01894589697294519</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.05770758606525871</v>
+        <v>0.03943011885955505</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1358822239895764</v>
+        <v>0.1367885687245763</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06285151549491484</v>
+        <v>5.549728660717931e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01504664219724036</v>
+        <v>0.08664620790571367</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01240165867449763</v>
+        <v>0.0473328321526001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.006361174866144033</v>
+        <v>0.002526572474053678</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0215345368193442</v>
+        <v>0.04197626216766359</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04599962201328868</v>
+        <v>0.01324028312667366</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01561062576209443</v>
+        <v>0.01387685093482506</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0005663340664035117</v>
+        <v>0.000942976702065218</v>
       </c>
       <c r="N42" t="n">
-        <v>0.008242040772914768</v>
+        <v>0.01358994766515661</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03558547915903851</v>
+        <v>0.01713184214307699</v>
       </c>
       <c r="P42" t="n">
-        <v>0.08310556903133741</v>
+        <v>0.05162495593174189</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.04967163775190343</v>
+        <v>0.0583545677885637</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06438816784352233</v>
+        <v>0.008598039287051542</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0006586936419467949</v>
+        <v>0.004119557631463405</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02928118298979149</v>
+        <v>0.04954689301086</v>
       </c>
       <c r="U42" t="n">
-        <v>0.009820668273029725</v>
+        <v>0.01150529544739361</v>
       </c>
       <c r="V42" t="n">
-        <v>0.07489567002547412</v>
+        <v>0.06416356772503687</v>
       </c>
       <c r="W42" t="n">
-        <v>0.01444528767109959</v>
+        <v>0.05670576694081444</v>
       </c>
       <c r="X42" t="n">
-        <v>0.01815527517421293</v>
+        <v>0.06944737479745576</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01387629426738432</v>
+        <v>0.01558134432980871</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.07235142877114711</v>
+        <v>0.04006616559036962</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.07968959691953856</v>
+        <v>0.06641718561693216</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.05743511842766462</v>
+        <v>0.02839753372875803</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.003466078967493056</v>
+        <v>0.0129043806177905</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.02637285340338646</v>
+        <v>0.03954310325038445</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.0692404043732307</v>
+        <v>0.0875057236437302</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.03599731069295872</v>
+        <v>0.07800248816913198</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.07294913194899767</v>
+        <v>0.02019678393427727</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.07137511914022257</v>
+        <v>0.07512414691143346</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1597883736142001</v>
+        <v>0.1716996353581915</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02542889780686684</v>
+        <v>0.007883159237289722</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02435631393843482</v>
+        <v>0.0120075253019077</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01753711880734816</v>
+        <v>0.001268888914245905</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01175146744326423</v>
+        <v>0.03394048331705957</v>
       </c>
       <c r="J43" t="n">
-        <v>0.00846637391450962</v>
+        <v>0.0487973662931469</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0655228000962584</v>
+        <v>0.0380842931039178</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06123678637105631</v>
+        <v>0.06507379831472881</v>
       </c>
       <c r="M43" t="n">
-        <v>0.003149551598651148</v>
+        <v>0.004478661340073273</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02689822903184634</v>
+        <v>0.01188340607279418</v>
       </c>
       <c r="O43" t="n">
-        <v>0.05907618204939279</v>
+        <v>0.07421556387913288</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01790812675016682</v>
+        <v>0.04143930299283169</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.08565503192731026</v>
+        <v>0.03175078616266014</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03288868976525833</v>
+        <v>0.06647311127356953</v>
       </c>
       <c r="S43" t="n">
-        <v>0.05660102002245452</v>
+        <v>0.06941593656819839</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03337625775874603</v>
+        <v>0.04223605508797029</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01140393625798276</v>
+        <v>0.06524370846536738</v>
       </c>
       <c r="V43" t="n">
-        <v>0.004543089026495162</v>
+        <v>0.001712694196847288</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01964914592348883</v>
+        <v>0.01561381775190828</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0872105722227229</v>
+        <v>0.06172570083066792</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.03781731528843389</v>
+        <v>0.04288340966020422</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.07589215144191935</v>
+        <v>0.07014029769789268</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.03420484902358511</v>
+        <v>0.01757901848727588</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0240833531818252</v>
+        <v>0.03950318390344197</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.04923566236851579</v>
+        <v>0.006551696173195421</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.007873456283467207</v>
+        <v>0.02906641836762545</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0407252428777511</v>
+        <v>0.009319259983742107</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.01828288653316038</v>
+        <v>0.03390257402766953</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.05922549228908785</v>
+        <v>0.05780988259463513</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06945951351875042</v>
+        <v>0.060577889450595</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1149232185225818</v>
+        <v>0.1147505147783403</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01858549584857888</v>
+        <v>0.004955833209615134</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0377610816955074</v>
+        <v>0.05124437622695994</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01139073457401138</v>
+        <v>0.04615124837392199</v>
       </c>
       <c r="I44" t="n">
-        <v>0.001109188849084934</v>
+        <v>0.02074574152989104</v>
       </c>
       <c r="J44" t="n">
-        <v>0.007212912604258443</v>
+        <v>0.001882282702234656</v>
       </c>
       <c r="K44" t="n">
-        <v>0.008897195377385207</v>
+        <v>0.03995144554699225</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02090177714332296</v>
+        <v>0.005683019947337728</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02779450520068884</v>
+        <v>0.05811587777075284</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06960331340795077</v>
+        <v>0.04386528977097907</v>
       </c>
       <c r="O44" t="n">
-        <v>0.002271248268942628</v>
+        <v>0.001983441390643355</v>
       </c>
       <c r="P44" t="n">
-        <v>0.03845592421554238</v>
+        <v>0.03775585336524888</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.00323740133121604</v>
+        <v>0.04704639845472765</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0475464958752985</v>
+        <v>0.03351180048948639</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01087421171533926</v>
+        <v>0.001980605714832273</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0472705850838243</v>
+        <v>0.05398956048335239</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0308106070949749</v>
+        <v>0.02386398448277084</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07820326489700274</v>
+        <v>0.08043924926736858</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01317410757833415</v>
+        <v>0.06520241017937324</v>
       </c>
       <c r="X44" t="n">
-        <v>0.07028565208813443</v>
+        <v>0.02143179218854099</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.05921692860935007</v>
+        <v>0.0331195631446117</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.01775673044657746</v>
+        <v>0.01228795559755865</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.05655752597601233</v>
+        <v>0.01974460999986565</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.06391046601729129</v>
+        <v>0.07439563602444312</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.07497919840121982</v>
+        <v>0.0423283258885286</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.02515140183270054</v>
+        <v>0.02279227942729192</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.05723033115277715</v>
+        <v>0.03968097339886013</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.0403578653275382</v>
+        <v>0.05951175115133472</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.05945384938713499</v>
+        <v>0.05633869427247627</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.08254840554808492</v>
+        <v>0.09472364758580461</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.131329432638403</v>
+        <v>0.1361153770274038</v>
       </c>
       <c r="F45" t="n">
-        <v>0.006562567640023179</v>
+        <v>0.001709622947287174</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01343738899007742</v>
+        <v>0.09518128961966074</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04701802851373683</v>
+        <v>0.03016563507531784</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01931736684248959</v>
+        <v>0.002263588469140932</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05945663870186013</v>
+        <v>0.07408534094724663</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04235381001697035</v>
+        <v>0.03250385530051804</v>
       </c>
       <c r="L45" t="n">
-        <v>0.06455112372892013</v>
+        <v>0.01463911252542644</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0002773585470970768</v>
+        <v>0.08568065576664265</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03064263405208921</v>
+        <v>0.02159478657242126</v>
       </c>
       <c r="O45" t="n">
-        <v>0.04583886330496648</v>
+        <v>0.01448416379217515</v>
       </c>
       <c r="P45" t="n">
-        <v>0.005447489861648175</v>
+        <v>0.001872441006174688</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.04610342301416779</v>
+        <v>0.05870456219497986</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03172446806751126</v>
+        <v>0.006809714801176456</v>
       </c>
       <c r="S45" t="n">
-        <v>0.02119593835540388</v>
+        <v>0.008101906964365935</v>
       </c>
       <c r="T45" t="n">
-        <v>0.06579804267770388</v>
+        <v>0.0896707800641811</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03713837966762295</v>
+        <v>0.04175067824402062</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02231744238702297</v>
+        <v>0.01091053933564281</v>
       </c>
       <c r="W45" t="n">
-        <v>0.052691683403679</v>
+        <v>0.06937746729434717</v>
       </c>
       <c r="X45" t="n">
-        <v>0.06489687727713656</v>
+        <v>0.09419009063680206</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07458795529334969</v>
+        <v>0.01046075906710418</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.003996088863230378</v>
+        <v>0.001273468065084884</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.00110353977525977</v>
+        <v>0.06452372107713515</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.04503741386497295</v>
+        <v>0.007858810861316477</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.04470134222462697</v>
+        <v>0.001616006410393399</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.05388454825163885</v>
+        <v>0.06454824501081724</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.05183196182751359</v>
+        <v>0.06936980343885168</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.008007908454693362</v>
+        <v>0.006203520608510225</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.04007971639458764</v>
+        <v>0.0204494339032592</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.125015564099229</v>
+        <v>0.1308004021031449</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.121617393374491</v>
+        <v>0.120217422542422</v>
       </c>
       <c r="F46" t="n">
-        <v>0.002159887202146101</v>
+        <v>0.0003915673796036263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04565746728118098</v>
+        <v>0.04027907398922976</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01529293334059327</v>
+        <v>0.01610149891238124</v>
       </c>
       <c r="I46" t="n">
-        <v>0.00893405344359232</v>
+        <v>0.06286960412130471</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002951031304363872</v>
+        <v>0.02920040560363934</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01177982858330616</v>
+        <v>0.06711723105899657</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05543351124191781</v>
+        <v>0.004637426783519089</v>
       </c>
       <c r="M46" t="n">
-        <v>0.002046084171595088</v>
+        <v>0.00131992240869211</v>
       </c>
       <c r="N46" t="n">
-        <v>0.06666615280164202</v>
+        <v>0.04554871442173924</v>
       </c>
       <c r="O46" t="n">
-        <v>0.01387869111668554</v>
+        <v>0.006917970068276533</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0456689918365671</v>
+        <v>0.07624024804325019</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.007051562980265514</v>
+        <v>0.04189203415474821</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02189992138379163</v>
+        <v>0.05805436040577321</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05010191592630683</v>
+        <v>0.003319114092231202</v>
       </c>
       <c r="T46" t="n">
-        <v>0.07891048724288167</v>
+        <v>0.06685218957324487</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01816649774748814</v>
+        <v>0.02825128848959399</v>
       </c>
       <c r="V46" t="n">
-        <v>0.08109534741685175</v>
+        <v>0.06958027404189089</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04839200169431786</v>
+        <v>0.006724142906044321</v>
       </c>
       <c r="X46" t="n">
-        <v>0.06399278845024729</v>
+        <v>0.07680637107890698</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.08127639527300495</v>
+        <v>0.03097480566574267</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.04447035448938783</v>
+        <v>0.03994730924322105</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05061125430386152</v>
+        <v>0.006626652002154328</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.05079965145032522</v>
+        <v>0.007154756631132742</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.01187005983580109</v>
+        <v>0.01534975216538649</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.04199032009370837</v>
+        <v>0.04040329530907651</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.005499158815690052</v>
+        <v>0.06750414345274745</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.04552441802220154</v>
+        <v>0.07602150252608554</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.02787923255027842</v>
+        <v>0.01391434547138717</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.0185847096237442</v>
+        <v>-0.02508464513799502</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.131965615476649</v>
+        <v>0.1505381655715318</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001186199143095369</v>
+        <v>0.01358775945305366</v>
       </c>
       <c r="G47" t="n">
-        <v>0.003490485976340622</v>
+        <v>0.03764140628626175</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01685288279425278</v>
+        <v>0.01679974461801882</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06349364128200785</v>
+        <v>0.08422059523356949</v>
       </c>
       <c r="J47" t="n">
-        <v>0.007469261237306884</v>
+        <v>0.08331032947940871</v>
       </c>
       <c r="K47" t="n">
-        <v>0.07119721565671407</v>
+        <v>0.08454051307034302</v>
       </c>
       <c r="L47" t="n">
-        <v>0.06137597928380698</v>
+        <v>0.02967689721660587</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03522041475688908</v>
+        <v>0.01805491809777906</v>
       </c>
       <c r="N47" t="n">
-        <v>0.03203480920185796</v>
+        <v>0.002712644685450088</v>
       </c>
       <c r="O47" t="n">
-        <v>0.02608866533777583</v>
+        <v>0.01820491791609016</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04346198525326109</v>
+        <v>0.02219360531191533</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0197700062253321</v>
+        <v>0.04919430540600475</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02015812734591306</v>
+        <v>0.04068189332720906</v>
       </c>
       <c r="S47" t="n">
-        <v>0.05670932414155096</v>
+        <v>0.04958489744712212</v>
       </c>
       <c r="T47" t="n">
-        <v>0.05348350958975846</v>
+        <v>0.07934133768903164</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03117576344845115</v>
+        <v>0.05105882617211709</v>
       </c>
       <c r="V47" t="n">
-        <v>0.04044154835137925</v>
+        <v>0.04662362183378917</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05476575142030465</v>
+        <v>0.01049135643763319</v>
       </c>
       <c r="X47" t="n">
-        <v>0.04677618207771934</v>
+        <v>0.005103877484480922</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.05529719734941218</v>
+        <v>0.0683823413157652</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.003925273696526984</v>
+        <v>0.01260445635331533</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.05580494652880595</v>
+        <v>0.07167966616550359</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.023457612980018</v>
+        <v>0.01688977072018886</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.04145023436107812</v>
+        <v>0.002065356322253091</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.06535564189812504</v>
+        <v>0.06084955291202059</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.04427358478738055</v>
+        <v>0.006767876098014408</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.001899545378188435</v>
+        <v>0.003195413894101785</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.02338421049674726</v>
+        <v>0.01454211905295328</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.01469345588740302</v>
+        <v>0.02691992482108009</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1047047333460023</v>
+        <v>0.106421473123902</v>
       </c>
       <c r="F48" t="n">
-        <v>0.009179212036819834</v>
+        <v>0.0439442612074467</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03373490799640447</v>
+        <v>0.01800567018477809</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04123003723209302</v>
+        <v>0.009049093809889677</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01304027479455695</v>
+        <v>0.002464952346927294</v>
       </c>
       <c r="J48" t="n">
-        <v>0.03129685654033885</v>
+        <v>0.02425251161618213</v>
       </c>
       <c r="K48" t="n">
-        <v>0.03695292579873468</v>
+        <v>0.02752383001177767</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0238045309040959</v>
+        <v>0.009217577118379701</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02147284751176447</v>
+        <v>0.01847046595968478</v>
       </c>
       <c r="N48" t="n">
-        <v>0.04674804167450893</v>
+        <v>0.07198210626908801</v>
       </c>
       <c r="O48" t="n">
-        <v>0.03598794074316989</v>
+        <v>0.036137695838782</v>
       </c>
       <c r="P48" t="n">
-        <v>0.00156302186341091</v>
+        <v>0.01042953064476555</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03554887240388598</v>
+        <v>0.05357100022151004</v>
       </c>
       <c r="R48" t="n">
-        <v>0.05471480091388247</v>
+        <v>0.06383697267733673</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01512586430218743</v>
+        <v>0.07222148369788105</v>
       </c>
       <c r="T48" t="n">
-        <v>0.05181129999566976</v>
+        <v>0.01497723867367403</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01918961939223798</v>
+        <v>0.01941415558503246</v>
       </c>
       <c r="V48" t="n">
-        <v>0.05086607450906395</v>
+        <v>0.07127785059576414</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05630172081079717</v>
+        <v>0.05647358114265499</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04090301842138033</v>
+        <v>0.04986316357435629</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0417376385136452</v>
+        <v>0.04651353520177099</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.04363037321466808</v>
+        <v>0.003924865635851749</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.03619271400993562</v>
+        <v>0.01058902647216615</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.05537039278991002</v>
+        <v>0.0556866798920795</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.04949374314782376</v>
+        <v>0.05530467329868267</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.04329568586101597</v>
+        <v>0.04297520517390699</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.04461935508093121</v>
+        <v>0.001871576930435953</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.01090963327667323</v>
+        <v>0.0430873544448855</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.05527859626039387</v>
+        <v>0.06693394177430927</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.009517001786506489</v>
+        <v>-0.0001689302114396751</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1374695631820472</v>
+        <v>0.1271620499231129</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0773928135772478</v>
+        <v>0.06358925134785814</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01064723092486309</v>
+        <v>0.006023473208932078</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04573733764875833</v>
+        <v>0.04332945734114513</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03493155745948349</v>
+        <v>0.002598177742573638</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03532783989893638</v>
+        <v>0.05920790816025051</v>
       </c>
       <c r="K49" t="n">
-        <v>0.06706741922754343</v>
+        <v>0.05929376650267731</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07050668781635978</v>
+        <v>0.0656904723927188</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05115197983637908</v>
+        <v>0.01677280766264865</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0220029967905515</v>
+        <v>0.006578195080230546</v>
       </c>
       <c r="O49" t="n">
-        <v>0.007716350967568322</v>
+        <v>0.03267915852837185</v>
       </c>
       <c r="P49" t="n">
-        <v>0.003690844392346942</v>
+        <v>0.00169492456739478</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02355852657954915</v>
+        <v>0.04798588336688971</v>
       </c>
       <c r="R49" t="n">
-        <v>0.04841847646778587</v>
+        <v>0.0023760446363844</v>
       </c>
       <c r="S49" t="n">
-        <v>0.04104261718661158</v>
+        <v>0.002067867240642974</v>
       </c>
       <c r="T49" t="n">
-        <v>0.07414835167949381</v>
+        <v>0.01846686715566012</v>
       </c>
       <c r="U49" t="n">
-        <v>0.001035069779169278</v>
+        <v>0.02113498415848193</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02773079337617047</v>
+        <v>0.008113509137095959</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04105221698409366</v>
+        <v>0.01498948858271262</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0257195667322709</v>
+        <v>0.06056409223845115</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.03899226460574524</v>
+        <v>0.05661220268943908</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.05221764953644572</v>
+        <v>0.07419839805431357</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.06399916388421434</v>
+        <v>0.0693312465049276</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04231403904672933</v>
+        <v>0.06551224211849861</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.002190065413308925</v>
+        <v>0.04250030456779123</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0009900081045761775</v>
+        <v>0.05668767294711314</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.01568909218423704</v>
+        <v>0.00777517487958718</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.002695088607739214</v>
+        <v>0.01873719872253709</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.07203395129182115</v>
+        <v>0.07548923046467217</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.008092832778719163</v>
+        <v>7.893714018425944e-05</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1152912622139463</v>
+        <v>0.117310173974207</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02498700015202078</v>
+        <v>0.02604161787815688</v>
       </c>
       <c r="G50" t="n">
-        <v>0.008465972989050063</v>
+        <v>0.0215207141703204</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03443339980539181</v>
+        <v>0.05763574819672815</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02054910610265991</v>
+        <v>0.004812614124470714</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01974743941031899</v>
+        <v>0.03773885879064879</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002686872140104906</v>
+        <v>0.0002889399014514863</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04480443375154496</v>
+        <v>0.06241357783483723</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02546100228066192</v>
+        <v>0.03317288672026383</v>
       </c>
       <c r="N50" t="n">
-        <v>0.06463329018494719</v>
+        <v>0.04070737628692972</v>
       </c>
       <c r="O50" t="n">
-        <v>0.03058543309879262</v>
+        <v>0.0514960210431995</v>
       </c>
       <c r="P50" t="n">
-        <v>0.03175467636305575</v>
+        <v>0.0430231232126412</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.003753666114050042</v>
+        <v>0.06372466674990798</v>
       </c>
       <c r="R50" t="n">
-        <v>0.08022662856173353</v>
+        <v>0.0506692493741427</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01533860028493725</v>
+        <v>0.05456754074817372</v>
       </c>
       <c r="T50" t="n">
-        <v>0.03971482896318197</v>
+        <v>0.03248544802892346</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04456259568969725</v>
+        <v>0.0216186297327558</v>
       </c>
       <c r="V50" t="n">
-        <v>0.08201244817209974</v>
+        <v>0.04607554781486597</v>
       </c>
       <c r="W50" t="n">
-        <v>0.08569509704323165</v>
+        <v>0.06016957326888103</v>
       </c>
       <c r="X50" t="n">
-        <v>0.06067622881146972</v>
+        <v>0.02637992842743714</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.03696506495488443</v>
+        <v>0.05792989893412055</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.003360698380646337</v>
+        <v>0.0001226051634749766</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.04665660583345002</v>
+        <v>0.00739444152751169</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.03501960497071004</v>
+        <v>0.06281582553690236</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.0453838746350554</v>
+        <v>0.05361952594087911</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0003962216890865281</v>
+        <v>0.005248661961357956</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.02376550160465803</v>
+        <v>0.0240763903170164</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.07286154657835096</v>
+        <v>0.04902605031342477</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.01550216143420819</v>
+        <v>0.005224538000576573</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1211209840834479</v>
+        <v>0.1430713303841797</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1436468783243138</v>
+        <v>0.172966702573967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.07283940410567787</v>
+        <v>0.008573228163962348</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0187262736190783</v>
+        <v>0.06972229298585481</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04015851529671002</v>
+        <v>0.06547031750401654</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01504646400374457</v>
+        <v>0.02903426306785748</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03672109514732162</v>
+        <v>0.00412109761110173</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02955867058061911</v>
+        <v>0.05537579061992592</v>
       </c>
       <c r="L51" t="n">
-        <v>0.05187095829720309</v>
+        <v>0.05679000206604114</v>
       </c>
       <c r="M51" t="n">
-        <v>0.006174325813868486</v>
+        <v>0.001329430184945185</v>
       </c>
       <c r="N51" t="n">
-        <v>0.06045238737073801</v>
+        <v>0.07165267662887406</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01320170864971589</v>
+        <v>0.007063290648521481</v>
       </c>
       <c r="P51" t="n">
-        <v>0.07230730914635264</v>
+        <v>0.03723937185414158</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.06899507451192699</v>
+        <v>0.03627372127331564</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01922214107458333</v>
+        <v>0.001532182877979596</v>
       </c>
       <c r="S51" t="n">
-        <v>0.05734838146651886</v>
+        <v>0.0508910936405445</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04387546902147065</v>
+        <v>0.02662899387361729</v>
       </c>
       <c r="U51" t="n">
-        <v>0.01306297656403943</v>
+        <v>0.01332148247521512</v>
       </c>
       <c r="V51" t="n">
-        <v>0.03414691888223418</v>
+        <v>0.03266611925337569</v>
       </c>
       <c r="W51" t="n">
-        <v>0.05216117308602911</v>
+        <v>0.05751298925394757</v>
       </c>
       <c r="X51" t="n">
-        <v>0.005936931019670702</v>
+        <v>0.007347441910436058</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.07805510185352862</v>
+        <v>0.01130740448562402</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.005288144893175882</v>
+        <v>0.007859151797169932</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.03546146628140715</v>
+        <v>0.07190333710755042</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.02679134444938738</v>
+        <v>0.06246488306863322</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0142664187554481</v>
+        <v>0.008678723958881994</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.03840471444096923</v>
+        <v>0.07169524604726356</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.02028196158157006</v>
+        <v>0.05444123115167997</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.004118336326567077</v>
+        <v>0.006228252763197615</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.06552633376044366</v>
+        <v>0.07287598372632542</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1583066076119766</v>
+        <v>0.1361590792330044</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1268797250601018</v>
+        <v>0.1258284006329566</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07124351374325019</v>
+        <v>0.001336608239545151</v>
       </c>
       <c r="G52" t="n">
-        <v>0.003707624780938975</v>
+        <v>0.05593073297812953</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02040839919467456</v>
+        <v>0.04504434213727576</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00962740025678795</v>
+        <v>0.0007760028976515261</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01077135554932717</v>
+        <v>0.01081138159513937</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0006890928186931452</v>
+        <v>0.02397988875801125</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02596893799612466</v>
+        <v>0.03191288634919523</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01302411775227803</v>
+        <v>0.05891132244935141</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04788106484364295</v>
+        <v>0.05987395367353075</v>
       </c>
       <c r="O52" t="n">
-        <v>0.003278281322525676</v>
+        <v>0.01250145526557705</v>
       </c>
       <c r="P52" t="n">
-        <v>0.03411326341398742</v>
+        <v>0.01912145222632462</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.06452876062009287</v>
+        <v>0.03132129833781631</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01226481437899949</v>
+        <v>0.03073170382860197</v>
       </c>
       <c r="S52" t="n">
-        <v>0.07885374915538836</v>
+        <v>0.04912711349484154</v>
       </c>
       <c r="T52" t="n">
-        <v>0.05051801572017327</v>
+        <v>0.04928564392400753</v>
       </c>
       <c r="U52" t="n">
-        <v>0.004205833830026894</v>
+        <v>0.02468553285722886</v>
       </c>
       <c r="V52" t="n">
-        <v>0.06343394732900305</v>
+        <v>0.05712114333915843</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06091521277826963</v>
+        <v>0.07008216997436607</v>
       </c>
       <c r="X52" t="n">
-        <v>0.007388110475353611</v>
+        <v>0.03219243478935612</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.006824670990947066</v>
+        <v>0.06152337496635423</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.009886549480546184</v>
+        <v>0.003075414076420819</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.05209238843080478</v>
+        <v>0.03328790534627317</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.07317994065209776</v>
+        <v>0.04141659800722825</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.03640797031515637</v>
+        <v>0.01958470113352847</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.0475697946715128</v>
+        <v>0.07368651812505315</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.05808753353122271</v>
+        <v>0.03151797848501468</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.05766441510521163</v>
+        <v>0.03361201107640187</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.07546524086296293</v>
+        <v>0.03754843166861693</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.08814188728498154</v>
+        <v>0.06746770057011559</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1411045321645882</v>
+        <v>0.1383682907069659</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01788893342511427</v>
+        <v>0.04462354139739289</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02563818742782016</v>
+        <v>0.06732147813774438</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0328277624369288</v>
+        <v>0.01730102614502906</v>
       </c>
       <c r="I53" t="n">
-        <v>0.008557301369806394</v>
+        <v>0.03448239978042313</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0655584145373599</v>
+        <v>0.01544313964980115</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03722584871021244</v>
+        <v>0.01915046642622947</v>
       </c>
       <c r="L53" t="n">
-        <v>0.07253181539754006</v>
+        <v>0.02602322622091261</v>
       </c>
       <c r="M53" t="n">
-        <v>0.02234175244921699</v>
+        <v>0.02355737079385179</v>
       </c>
       <c r="N53" t="n">
-        <v>0.07133301253724139</v>
+        <v>0.08359073493407877</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05566839408988774</v>
+        <v>0.04916053026838615</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06012865925162932</v>
+        <v>0.01632088197956497</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02779676019401452</v>
+        <v>0.08478383965619461</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02779293925530747</v>
+        <v>0.0007803730936291783</v>
       </c>
       <c r="S53" t="n">
-        <v>0.001400257141036305</v>
+        <v>0.009713350796394944</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02525870715820171</v>
+        <v>0.03387969380937968</v>
       </c>
       <c r="U53" t="n">
-        <v>0.01409553067172866</v>
+        <v>0.01879340134665547</v>
       </c>
       <c r="V53" t="n">
-        <v>0.02062121728084291</v>
+        <v>0.06915920566027906</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04509675914085003</v>
+        <v>0.06705670508679505</v>
       </c>
       <c r="X53" t="n">
-        <v>0.009408225097821644</v>
+        <v>0.006160304613907159</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.06581963154317906</v>
+        <v>0.0641509957310975</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.02021979901963218</v>
+        <v>0.02051513427347332</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.06721292985317401</v>
+        <v>0.04025305223999502</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.074673859999663</v>
+        <v>0.01733362486656658</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.02133097339709465</v>
+        <v>0.05756262038825907</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.006151046999698407</v>
+        <v>0.002975579237375786</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.01038770163333716</v>
+        <v>0.03086461552207749</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.03509514606049884</v>
+        <v>0.0004021849148237092</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.05793843392116191</v>
+        <v>0.07864052302968205</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.05663937652428736</v>
+        <v>0.06563826013877397</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1531244401755056</v>
+        <v>0.1491153890940315</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02169632399436851</v>
+        <v>0.003953246972028628</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05734784466182079</v>
+        <v>0.03426542339173489</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01292245402966388</v>
+        <v>0.04281067331132466</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04115180328013898</v>
+        <v>0.02142561514014696</v>
       </c>
       <c r="J54" t="n">
-        <v>0.003243350575995326</v>
+        <v>0.02474638319537495</v>
       </c>
       <c r="K54" t="n">
-        <v>0.001678548275745963</v>
+        <v>0.003073230284313899</v>
       </c>
       <c r="L54" t="n">
-        <v>0.005083675667085583</v>
+        <v>0.0007382199854467172</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03612448123707229</v>
+        <v>0.07393756772915309</v>
       </c>
       <c r="N54" t="n">
-        <v>0.008019787174261188</v>
+        <v>0.01854236324653347</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01573154269359161</v>
+        <v>0.001704669419203735</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06797652314640054</v>
+        <v>0.04812121141027167</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.06149036651518534</v>
+        <v>0.0765261389572793</v>
       </c>
       <c r="R54" t="n">
-        <v>0.03840776829388978</v>
+        <v>0.0501526655531308</v>
       </c>
       <c r="S54" t="n">
-        <v>0.033746497973384</v>
+        <v>0.00191520802226254</v>
       </c>
       <c r="T54" t="n">
-        <v>0.06098644487123937</v>
+        <v>0.006515162566323558</v>
       </c>
       <c r="U54" t="n">
-        <v>0.02703769691346493</v>
+        <v>0.01763617597725181</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0176396247633244</v>
+        <v>0.05990073959406604</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0639356547694632</v>
+        <v>0.05915444114913838</v>
       </c>
       <c r="X54" t="n">
-        <v>0.03453233053884869</v>
+        <v>0.01714844385499022</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0676823505086819</v>
+        <v>0.04104267866866296</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.0613305588106789</v>
+        <v>0.02998445191696823</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.009505893787512083</v>
+        <v>0.05386299688453546</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.005181200211553852</v>
+        <v>0.03411474514017195</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.06897248729576554</v>
+        <v>0.03213516114834267</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.04300669396652478</v>
+        <v>0.05890541048222087</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.06762750798466208</v>
+        <v>0.07213650938836405</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.02598822952722885</v>
+        <v>0.03703473661091355</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.04195235853244749</v>
+        <v>0.07851572999984495</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1048322649155554</v>
+        <v>-0.1312649730868879</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1869885787708246</v>
+        <v>0.1784364832353368</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05815117345885674</v>
+        <v>0.07638478728358067</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03500992215173956</v>
+        <v>0.06346697265027483</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02214843876867313</v>
+        <v>0.002095521674943021</v>
       </c>
       <c r="I55" t="n">
-        <v>0.006124414866344264</v>
+        <v>0.01854930385790261</v>
       </c>
       <c r="J55" t="n">
-        <v>0.002592886539477951</v>
+        <v>0.03574265896676442</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01166494030529491</v>
+        <v>0.03875081855459842</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01278111285689377</v>
+        <v>0.03372820887479056</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01148676976207651</v>
+        <v>0.0614900025149512</v>
       </c>
       <c r="N55" t="n">
-        <v>0.03037094130137663</v>
+        <v>0.0006281386814659079</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0602913938243495</v>
+        <v>0.001515007821466478</v>
       </c>
       <c r="P55" t="n">
-        <v>0.05770405713687209</v>
+        <v>0.04713724589070206</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04979756159516264</v>
+        <v>0.07785486194586912</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0213376694946826</v>
+        <v>0.0005235236803929187</v>
       </c>
       <c r="S55" t="n">
-        <v>0.05827063883609262</v>
+        <v>0.05363578126604698</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01697955025970964</v>
+        <v>0.02849599818532138</v>
       </c>
       <c r="U55" t="n">
-        <v>0.05272960179226847</v>
+        <v>0.00481267354252246</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01307521541511591</v>
+        <v>0.01349904150604885</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01581176311466338</v>
+        <v>0.003424478160797978</v>
       </c>
       <c r="X55" t="n">
-        <v>0.02187336987902829</v>
+        <v>0.01195727463366509</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0792610310089603</v>
+        <v>0.06650314019405</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.07463369963513469</v>
+        <v>0.08256544297648091</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.05262050232790057</v>
+        <v>0.06810351569175302</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.02978768824033705</v>
+        <v>0.02216757581500617</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.05803594376890878</v>
+        <v>0.01496350560459811</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.06248456649425824</v>
+        <v>0.00669471603418301</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.0032220478127657</v>
+        <v>0.08490803816991876</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.002659590146663282</v>
+        <v>0.01136396410173919</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.07909350920639276</v>
+        <v>0.06903780172016577</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.06706356776482356</v>
+        <v>-0.04908029145359365</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2234692561210454</v>
+        <v>0.2204999547095246</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03129392534182159</v>
+        <v>0.01860710063805448</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07809345376380929</v>
+        <v>0.02071999564793541</v>
       </c>
       <c r="H56" t="n">
-        <v>0.006306628138154552</v>
+        <v>5.072936535808647e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01618140591128428</v>
+        <v>0.007508667260448531</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02002948591957076</v>
+        <v>0.01532397178556785</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03296872200862117</v>
+        <v>0.03596356496270709</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01314949841374653</v>
+        <v>0.02312679913083702</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01358397879258362</v>
+        <v>0.02252155443532249</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02093745377436736</v>
+        <v>0.02045193661721462</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01176209561323622</v>
+        <v>0.0004134132280602082</v>
       </c>
       <c r="P56" t="n">
-        <v>0.06799573388017366</v>
+        <v>0.02672836223315027</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.04026731662709</v>
+        <v>0.09281917151703577</v>
       </c>
       <c r="R56" t="n">
-        <v>0.01384813011020751</v>
+        <v>0.0415372020678753</v>
       </c>
       <c r="S56" t="n">
-        <v>0.003171277942664461</v>
+        <v>0.0530740331908534</v>
       </c>
       <c r="T56" t="n">
-        <v>0.02796879521443039</v>
+        <v>0.08057331208099558</v>
       </c>
       <c r="U56" t="n">
-        <v>0.005476406962826076</v>
+        <v>0.00326377659589344</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0759741600073405</v>
+        <v>0.07260544248446936</v>
       </c>
       <c r="W56" t="n">
-        <v>0.002332972996302503</v>
+        <v>0.04694306742205714</v>
       </c>
       <c r="X56" t="n">
-        <v>0.02354064997707249</v>
+        <v>0.003509045986898681</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.07616561438395857</v>
+        <v>0.07431670458071023</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.06831783118094331</v>
+        <v>0.01045835283368607</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.07724698418262008</v>
+        <v>0.0004910711978269165</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.01788555119882547</v>
+        <v>0.03104281269752703</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.002816236054243847</v>
+        <v>0.07395783198903749</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.04941493376652929</v>
+        <v>0.03684936744684078</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.08565542690089228</v>
+        <v>0.106443155786422</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.03194543601971399</v>
+        <v>0.04264450797943659</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.08566989491697041</v>
+        <v>0.03805504883777824</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1472916104119313</v>
+        <v>0.1345192637838271</v>
       </c>
     </row>
     <row r="57">
@@ -6670,97 +6670,97 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2603347361399584</v>
+        <v>0.2511342701082837</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05745602328196422</v>
+        <v>0.06184523977055692</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001747262951726269</v>
+        <v>0.03879441496533157</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02470864045638164</v>
+        <v>0.01103176912891234</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0006111060150813364</v>
+        <v>0.02059749552050531</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0009876353796339668</v>
+        <v>0.05811966270688552</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05678723866693186</v>
+        <v>0.07367445937641667</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02162345234656001</v>
+        <v>0.04120405887197406</v>
       </c>
       <c r="M57" t="n">
-        <v>0.003197617710411299</v>
+        <v>0.02061972863084918</v>
       </c>
       <c r="N57" t="n">
-        <v>0.02341467890095317</v>
+        <v>0.0155927383003663</v>
       </c>
       <c r="O57" t="n">
-        <v>0.07282743749332375</v>
+        <v>0.05524479288596185</v>
       </c>
       <c r="P57" t="n">
-        <v>0.04388480688888287</v>
+        <v>0.01652788851796365</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02765129164711113</v>
+        <v>0.00432513888193994</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01663223050371893</v>
+        <v>0.02086632623377288</v>
       </c>
       <c r="S57" t="n">
-        <v>0.05196769258357783</v>
+        <v>0.01119117928401868</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01978771487554655</v>
+        <v>0.04647980810627667</v>
       </c>
       <c r="U57" t="n">
-        <v>0.08907401436275243</v>
+        <v>0.03943023443630587</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02722906951697884</v>
+        <v>0.06846565702526049</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03785642304146163</v>
+        <v>0.01487039940156959</v>
       </c>
       <c r="X57" t="n">
-        <v>0.03395138816608538</v>
+        <v>0.02976341008986582</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01464258000969532</v>
+        <v>0.03153519357631196</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.07996097161480541</v>
+        <v>0.0738281683236804</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.03750688395436658</v>
+        <v>0.07257820169844169</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07588284165806078</v>
+        <v>0.04755146382447876</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.007107645011334669</v>
+        <v>0.00780371509743452</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.03676848173576712</v>
+        <v>0.001516959118800463</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.05324016132673571</v>
+        <v>0.02060125238956927</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.01869946152919277</v>
+        <v>0.02489570957321689</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.06479524837095846</v>
+        <v>0.07104493426333287</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1745713732693138</v>
+        <v>0.1762308217490755</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>